--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6204843</v>
+        <v>6204844</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,10 +1880,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1895,58 +1895,58 @@
         <v>49</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="N16">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6204844</v>
+        <v>6204843</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,10 +1969,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1984,58 +1984,58 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N17">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O17">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6286247</v>
+        <v>6286248</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,58 +3037,58 @@
         <v>44981.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
       <c r="K29">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L29">
         <v>3.3</v>
       </c>
       <c r="M29">
+        <v>2.25</v>
+      </c>
+      <c r="N29">
         <v>2.9</v>
       </c>
-      <c r="N29">
-        <v>2.25</v>
-      </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3097,16 +3097,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6286248</v>
+        <v>6286247</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,58 +3126,58 @@
         <v>44981.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
       </c>
       <c r="K30">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L30">
         <v>3.3</v>
       </c>
       <c r="M30">
+        <v>2.9</v>
+      </c>
+      <c r="N30">
         <v>2.25</v>
       </c>
-      <c r="N30">
+      <c r="O30">
+        <v>3.1</v>
+      </c>
+      <c r="P30">
         <v>2.9</v>
       </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>2.2</v>
-      </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3186,16 +3186,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6286223</v>
+        <v>6286253</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N38">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6286253</v>
+        <v>6286223</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39">
+        <v>2.1</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>3.1</v>
+      </c>
+      <c r="N39">
+        <v>2.4</v>
+      </c>
+      <c r="O39">
+        <v>3.3</v>
+      </c>
+      <c r="P39">
+        <v>2.7</v>
+      </c>
+      <c r="Q39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>47</v>
-      </c>
-      <c r="K39">
-        <v>2.8</v>
-      </c>
-      <c r="L39">
-        <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>2.25</v>
-      </c>
-      <c r="N39">
-        <v>2.875</v>
-      </c>
-      <c r="O39">
-        <v>3.2</v>
-      </c>
-      <c r="P39">
-        <v>2.25</v>
-      </c>
-      <c r="Q39">
-        <v>0.25</v>
-      </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6286262</v>
+        <v>6286263</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,55 +5440,55 @@
         <v>45023.625</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N56">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
         <v>3.5</v>
       </c>
       <c r="P56">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5497,19 +5497,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6286263</v>
+        <v>6286262</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,55 +5529,55 @@
         <v>45023.625</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
         <v>3.5</v>
       </c>
       <c r="P57">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5586,19 +5586,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6286269</v>
+        <v>6286238</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45037.625</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
         <v>3</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O68">
         <v>3.6</v>
       </c>
       <c r="P68">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6286268</v>
+        <v>6286269</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45037.625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
+        <v>3.3</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>1.75</v>
+      </c>
+      <c r="O69">
         <v>3.6</v>
       </c>
-      <c r="M69">
-        <v>3.5</v>
-      </c>
-      <c r="N69">
-        <v>1.65</v>
-      </c>
-      <c r="O69">
-        <v>3.8</v>
-      </c>
       <c r="P69">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
+        <v>1.8</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
         <v>2.75</v>
       </c>
-      <c r="U69">
-        <v>1.875</v>
-      </c>
-      <c r="V69">
-        <v>1.975</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>2.8</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6286238</v>
+        <v>6286268</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,10 +6686,10 @@
         <v>45037.625</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6701,61 +6701,61 @@
         <v>49</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
         <v>3.5</v>
       </c>
-      <c r="M70">
-        <v>3</v>
-      </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
         <v>1.85</v>
       </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6286241</v>
+        <v>6286271</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45051.625</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N74">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q74">
         <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y74">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6286271</v>
+        <v>6286241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45051.625</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q75">
         <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z75">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6809710</v>
+        <v>6809709</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45149.625</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>3</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6809709</v>
+        <v>6809710</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45149.625</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45198.625</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q133">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
         <v>1.85</v>
       </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-0.5</v>
+      </c>
+      <c r="AA133">
         <v>0.425</v>
       </c>
-      <c r="AA133">
-        <v>-0.5</v>
-      </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45198.625</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N134">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R134">
+        <v>1.85</v>
+      </c>
+      <c r="S134">
         <v>1.95</v>
       </c>
-      <c r="S134">
-        <v>1.85</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z134">
+        <v>0.425</v>
+      </c>
+      <c r="AA134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.425</v>
-      </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6811708</v>
+        <v>6809754</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45206.625</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>2</v>
-      </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M144">
+        <v>4.2</v>
+      </c>
+      <c r="N144">
+        <v>1.95</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>2.9</v>
+      </c>
+      <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
+        <v>1.975</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="N144">
-        <v>2.4</v>
-      </c>
-      <c r="O144">
-        <v>3.1</v>
-      </c>
-      <c r="P144">
-        <v>2.7</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6809754</v>
+        <v>6811708</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45206.625</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>48</v>
+      </c>
+      <c r="K145">
+        <v>2.1</v>
+      </c>
+      <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>2.4</v>
+      </c>
+      <c r="O145">
+        <v>3.1</v>
+      </c>
+      <c r="P145">
+        <v>2.7</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>1.7</v>
+      </c>
+      <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
         <v>1</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" t="s">
-        <v>47</v>
-      </c>
-      <c r="K145">
-        <v>1.615</v>
-      </c>
-      <c r="L145">
-        <v>3.9</v>
-      </c>
-      <c r="M145">
-        <v>4.2</v>
-      </c>
-      <c r="N145">
-        <v>1.95</v>
-      </c>
-      <c r="O145">
-        <v>3.75</v>
-      </c>
-      <c r="P145">
-        <v>2.9</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.875</v>
-      </c>
-      <c r="S145">
-        <v>1.975</v>
-      </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.95</v>
-      </c>
-      <c r="V145">
-        <v>1.9</v>
-      </c>
-      <c r="W145">
-        <v>0.95</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>0.875</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6809785</v>
+        <v>6809782</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,49 +16832,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J184" t="s">
         <v>48</v>
       </c>
       <c r="K184">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M184">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N184">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P184">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U184">
         <v>1.8</v>
@@ -16889,19 +16889,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
+        <v>4.5</v>
+      </c>
+      <c r="Z184">
+        <v>-1</v>
+      </c>
+      <c r="AA184">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB184">
         <v>0.8</v>
       </c>
-      <c r="Z184">
-        <v>-1</v>
-      </c>
-      <c r="AA184">
-        <v>0.8</v>
-      </c>
-      <c r="AB184">
-        <v>-1</v>
-      </c>
       <c r="AC184">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6809782</v>
+        <v>6809785</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,49 +16921,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>48</v>
       </c>
       <c r="K185">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="L185">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N185">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="O185">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P185">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q185">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
         <v>1.8</v>
@@ -16978,19 +16978,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6809789</v>
+        <v>6809787</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,52 +17277,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N189">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V189">
         <v>1.8</v>
@@ -17334,13 +17334,13 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.2</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6809787</v>
+        <v>6809789</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,52 +17366,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
         <v>48</v>
       </c>
       <c r="K190">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V190">
         <v>1.8</v>
@@ -17423,13 +17423,13 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>1.2</v>
       </c>
       <c r="AB190">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,13 +17900,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -17915,34 +17915,34 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N196">
+        <v>4.75</v>
+      </c>
+      <c r="O196">
+        <v>4.333</v>
+      </c>
+      <c r="P196">
         <v>1.5</v>
       </c>
-      <c r="O196">
-        <v>4</v>
-      </c>
-      <c r="P196">
-        <v>5.75</v>
-      </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U196">
         <v>1.9</v>
@@ -17951,7 +17951,7 @@
         <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,7 +17960,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,13 +17989,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18004,34 +18004,34 @@
         <v>47</v>
       </c>
       <c r="K197">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
         <v>4</v>
       </c>
-      <c r="M197">
-        <v>1.55</v>
-      </c>
       <c r="N197">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O197">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18040,7 +18040,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18049,7 +18049,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6809796</v>
+        <v>6809792</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,10 +18345,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18360,41 +18360,41 @@
         <v>48</v>
       </c>
       <c r="K201">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M201">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N201">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R201">
+        <v>1.775</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>3</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
         <v>1.8</v>
       </c>
-      <c r="S201">
-        <v>2</v>
-      </c>
-      <c r="T201">
-        <v>3.25</v>
-      </c>
-      <c r="U201">
-        <v>1.95</v>
-      </c>
-      <c r="V201">
-        <v>1.85</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6809792</v>
+        <v>6809796</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,10 +18434,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18449,61 +18449,61 @@
         <v>48</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L202">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M202">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N202">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P202">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q202">
+        <v>0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.8</v>
+      </c>
+      <c r="S202">
+        <v>2</v>
+      </c>
+      <c r="T202">
+        <v>3.25</v>
+      </c>
+      <c r="U202">
+        <v>1.95</v>
+      </c>
+      <c r="V202">
+        <v>1.85</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>0.75</v>
+      </c>
+      <c r="Z202">
+        <v>-0.5</v>
+      </c>
+      <c r="AA202">
         <v>0.5</v>
       </c>
-      <c r="R202">
-        <v>1.775</v>
-      </c>
-      <c r="S202">
-        <v>2.025</v>
-      </c>
-      <c r="T202">
-        <v>3</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
-      <c r="V202">
-        <v>1.8</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>1.1</v>
-      </c>
-      <c r="Z202">
-        <v>-1</v>
-      </c>
-      <c r="AA202">
-        <v>1.025</v>
-      </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6811691</v>
+        <v>6809803</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G206" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M206">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N206">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O206">
         <v>4</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
         <v>1.95</v>
       </c>
-      <c r="V206">
-        <v>1.85</v>
-      </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X206">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6809803</v>
+        <v>6811691</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L207">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M207">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N207">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O207">
         <v>4</v>
       </c>
       <c r="P207">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
+        <v>1.975</v>
+      </c>
+      <c r="S207">
+        <v>1.825</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
         <v>1.95</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.85</v>
       </c>
-      <c r="T207">
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
         <v>3</v>
       </c>
-      <c r="U207">
-        <v>1.85</v>
-      </c>
-      <c r="V207">
-        <v>1.95</v>
-      </c>
-      <c r="W207">
-        <v>0.615</v>
-      </c>
-      <c r="X207">
-        <v>-1</v>
-      </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K209">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L209">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N209">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O209">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K210">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M210">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N210">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P210">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S210">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC210">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7755425</v>
+        <v>7755426</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,40 +22083,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L243">
         <v>3.5</v>
       </c>
       <c r="M243">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N243">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O243">
         <v>3.5</v>
       </c>
       <c r="P243">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R243">
         <v>1.85</v>
@@ -22128,31 +22128,31 @@
         <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB243">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7755426</v>
+        <v>7755425</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,40 +22172,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K244">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L244">
         <v>3.5</v>
       </c>
       <c r="M244">
+        <v>3.3</v>
+      </c>
+      <c r="N244">
         <v>2.5</v>
-      </c>
-      <c r="N244">
-        <v>2.9</v>
       </c>
       <c r="O244">
         <v>3.5</v>
       </c>
       <c r="P244">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R244">
         <v>1.85</v>
@@ -22217,31 +22217,31 @@
         <v>2.75</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X244">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>0.45</v>
+      </c>
+      <c r="AC244">
         <v>-0.5</v>
-      </c>
-      <c r="AB244">
-        <v>-1</v>
-      </c>
-      <c r="AC244">
-        <v>0.875</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6809834</v>
+        <v>6809828</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,55 +22528,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J248" t="s">
         <v>48</v>
       </c>
       <c r="K248">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M248">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N248">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O248">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q248">
         <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
         <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V248">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W248">
         <v>-1</v>
@@ -22585,16 +22585,16 @@
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB248">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC248">
         <v>-0.5</v>
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6809828</v>
+        <v>6809834</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,55 +22617,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G249" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J249" t="s">
         <v>48</v>
       </c>
       <c r="K249">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M249">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N249">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P249">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
         <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -22674,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB249">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC249">
         <v>-0.5</v>
@@ -23255,31 +23255,31 @@
         <v>4.75</v>
       </c>
       <c r="N256">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O256">
+        <v>3.8</v>
+      </c>
+      <c r="P256">
         <v>4.2</v>
       </c>
-      <c r="P256">
-        <v>4.333</v>
-      </c>
       <c r="Q256">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
+        <v>1.8</v>
+      </c>
+      <c r="S256">
+        <v>2.05</v>
+      </c>
+      <c r="T256">
+        <v>2.5</v>
+      </c>
+      <c r="U256">
+        <v>1.95</v>
+      </c>
+      <c r="V256">
         <v>1.9</v>
-      </c>
-      <c r="S256">
-        <v>1.95</v>
-      </c>
-      <c r="T256">
-        <v>2.75</v>
-      </c>
-      <c r="U256">
-        <v>1.9</v>
-      </c>
-      <c r="V256">
-        <v>1.95</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6809835</v>
+        <v>6811680</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23314,46 +23314,46 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K257">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L257">
+        <v>3.4</v>
+      </c>
+      <c r="M257">
+        <v>2.2</v>
+      </c>
+      <c r="N257">
+        <v>3.4</v>
+      </c>
+      <c r="O257">
         <v>3.5</v>
       </c>
-      <c r="M257">
-        <v>3.25</v>
-      </c>
-      <c r="N257">
+      <c r="P257">
+        <v>2</v>
+      </c>
+      <c r="Q257">
+        <v>0.5</v>
+      </c>
+      <c r="R257">
+        <v>1.8</v>
+      </c>
+      <c r="S257">
         <v>2.05</v>
-      </c>
-      <c r="O257">
-        <v>3.6</v>
-      </c>
-      <c r="P257">
-        <v>3.4</v>
-      </c>
-      <c r="Q257">
-        <v>-0.5</v>
-      </c>
-      <c r="R257">
-        <v>2.05</v>
-      </c>
-      <c r="S257">
-        <v>1.8</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V257">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23376,7 +23376,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6811680</v>
+        <v>6809835</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23388,46 +23388,46 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K258">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L258">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M258">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N258">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="O258">
         <v>3.5</v>
       </c>
       <c r="P258">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="Q258">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R258">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S258">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T258">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U258">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V258">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23551,22 +23551,22 @@
         <v>2.8</v>
       </c>
       <c r="N260">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O260">
         <v>3.5</v>
       </c>
       <c r="P260">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R260">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S260">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T260">
         <v>2.75</v>
@@ -23628,28 +23628,28 @@
         <v>4</v>
       </c>
       <c r="O261">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P261">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q261">
         <v>0.75</v>
       </c>
       <c r="R261">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S261">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T261">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U261">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V261">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W261">
         <v>0</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC261"/>
+  <dimension ref="A1:AC258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6204844</v>
+        <v>6204843</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,10 +1880,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1895,58 +1895,58 @@
         <v>49</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N16">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O16">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6204843</v>
+        <v>6204844</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,10 +1969,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1984,58 +1984,58 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M17">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="N17">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6286220</v>
+        <v>6286250</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
+        <v>1.9</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
+        <v>1.9</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
+        <v>-1</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.95</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6286250</v>
+        <v>6286220</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
         <v>1.95</v>
       </c>
-      <c r="S33">
-        <v>1.9</v>
-      </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>0.95</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6286238</v>
+        <v>6286269</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45037.625</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
         <v>3</v>
       </c>
       <c r="N68">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
         <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6286269</v>
+        <v>6286268</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45037.625</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N69">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6286268</v>
+        <v>6286238</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,10 +6686,10 @@
         <v>45037.625</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6701,61 +6701,61 @@
         <v>49</v>
       </c>
       <c r="K70">
+        <v>2.05</v>
+      </c>
+      <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
+      <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
+        <v>2.45</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.6</v>
-      </c>
-      <c r="M70">
-        <v>3.5</v>
-      </c>
-      <c r="N70">
-        <v>1.65</v>
-      </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
-      <c r="P70">
-        <v>4.333</v>
-      </c>
-      <c r="Q70">
-        <v>-0.75</v>
-      </c>
-      <c r="R70">
-        <v>2</v>
-      </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6809709</v>
+        <v>6809710</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45149.625</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6809710</v>
+        <v>6809709</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45149.625</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>3</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6809740</v>
+        <v>6811711</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,34 +11848,34 @@
         <v>45192.625</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
         <v>1.727</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
         <v>3.8</v>
@@ -11884,37 +11884,37 @@
         <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811711</v>
+        <v>6809740</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,34 +11937,34 @@
         <v>45192.625</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N129">
         <v>1.727</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P129">
         <v>3.8</v>
@@ -11973,37 +11973,37 @@
         <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>3.25</v>
+      </c>
+      <c r="U129">
         <v>1.95</v>
       </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3</v>
-      </c>
-      <c r="U129">
+      <c r="V129">
         <v>1.85</v>
       </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X129">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6809754</v>
+        <v>6811708</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45206.625</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>48</v>
+      </c>
+      <c r="K144">
+        <v>2.1</v>
+      </c>
+      <c r="L144">
+        <v>3.25</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>2.4</v>
+      </c>
+      <c r="O144">
+        <v>3.1</v>
+      </c>
+      <c r="P144">
+        <v>2.7</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>1.7</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" t="s">
-        <v>47</v>
-      </c>
-      <c r="K144">
-        <v>1.615</v>
-      </c>
-      <c r="L144">
-        <v>3.9</v>
-      </c>
-      <c r="M144">
-        <v>4.2</v>
-      </c>
-      <c r="N144">
-        <v>1.95</v>
-      </c>
-      <c r="O144">
-        <v>3.75</v>
-      </c>
-      <c r="P144">
-        <v>2.9</v>
-      </c>
-      <c r="Q144">
-        <v>-0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.875</v>
-      </c>
-      <c r="S144">
-        <v>1.975</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.95</v>
-      </c>
-      <c r="V144">
-        <v>1.9</v>
-      </c>
-      <c r="W144">
-        <v>0.95</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>0.875</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6811708</v>
+        <v>6809754</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45206.625</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>2</v>
-      </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M145">
+        <v>4.2</v>
+      </c>
+      <c r="N145">
+        <v>1.95</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>2.9</v>
+      </c>
+      <c r="Q145">
+        <v>-0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
+        <v>1.975</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="N145">
-        <v>2.4</v>
-      </c>
-      <c r="O145">
-        <v>3.1</v>
-      </c>
-      <c r="P145">
-        <v>2.7</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6809760</v>
+        <v>6809759</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,49 +13717,49 @@
         <v>45219.625</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>47</v>
       </c>
       <c r="K149">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L149">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N149">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
         <v>1.775</v>
@@ -13768,7 +13768,7 @@
         <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,16 +13777,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>0.3875</v>
+      </c>
+      <c r="AC149">
         <v>-0.5</v>
-      </c>
-      <c r="AB149">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC149">
-        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6809759</v>
+        <v>6809760</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,49 +13806,49 @@
         <v>45219.625</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M150">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
         <v>1.775</v>
@@ -13857,7 +13857,7 @@
         <v>2.025</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,16 +13866,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6809787</v>
+        <v>6809789</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,52 +17277,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N189">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V189">
         <v>1.8</v>
@@ -17334,13 +17334,13 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>1.2</v>
       </c>
       <c r="AB189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6809789</v>
+        <v>6809787</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,52 +17366,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>48</v>
       </c>
       <c r="K190">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L190">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M190">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N190">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P190">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V190">
         <v>1.8</v>
@@ -17423,13 +17423,13 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1.2</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,13 +17900,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -17915,34 +17915,34 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L196">
+        <v>3.6</v>
+      </c>
+      <c r="M196">
         <v>4</v>
       </c>
-      <c r="M196">
-        <v>1.55</v>
-      </c>
       <c r="N196">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
         <v>1.9</v>
@@ -17951,7 +17951,7 @@
         <v>1.9</v>
       </c>
       <c r="W196">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,7 +17960,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,13 +17989,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18004,34 +18004,34 @@
         <v>47</v>
       </c>
       <c r="K197">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N197">
+        <v>4.75</v>
+      </c>
+      <c r="O197">
+        <v>4.333</v>
+      </c>
+      <c r="P197">
         <v>1.5</v>
       </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
-      <c r="P197">
-        <v>5.75</v>
-      </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18040,7 +18040,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18049,7 +18049,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6809792</v>
+        <v>6809796</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,10 +18345,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18360,61 +18360,61 @@
         <v>48</v>
       </c>
       <c r="K201">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L201">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M201">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N201">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q201">
+        <v>0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.8</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
+        <v>3.25</v>
+      </c>
+      <c r="U201">
+        <v>1.95</v>
+      </c>
+      <c r="V201">
+        <v>1.85</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>0.75</v>
+      </c>
+      <c r="Z201">
+        <v>-0.5</v>
+      </c>
+      <c r="AA201">
         <v>0.5</v>
       </c>
-      <c r="R201">
-        <v>1.775</v>
-      </c>
-      <c r="S201">
-        <v>2.025</v>
-      </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>2</v>
-      </c>
-      <c r="V201">
-        <v>1.8</v>
-      </c>
-      <c r="W201">
-        <v>-1</v>
-      </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>1.1</v>
-      </c>
-      <c r="Z201">
-        <v>-1</v>
-      </c>
-      <c r="AA201">
-        <v>1.025</v>
-      </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6809796</v>
+        <v>6809792</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,10 +18434,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18449,41 +18449,41 @@
         <v>48</v>
       </c>
       <c r="K202">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M202">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N202">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O202">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q202">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R202">
+        <v>1.775</v>
+      </c>
+      <c r="S202">
+        <v>2.025</v>
+      </c>
+      <c r="T202">
+        <v>3</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
         <v>1.8</v>
       </c>
-      <c r="S202">
-        <v>2</v>
-      </c>
-      <c r="T202">
-        <v>3.25</v>
-      </c>
-      <c r="U202">
-        <v>1.95</v>
-      </c>
-      <c r="V202">
-        <v>1.85</v>
-      </c>
       <c r="W202">
         <v>-1</v>
       </c>
@@ -18491,19 +18491,19 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6809804</v>
+        <v>6809809</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,56 +19769,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N217">
+        <v>5.25</v>
+      </c>
+      <c r="O217">
         <v>4.2</v>
       </c>
-      <c r="O217">
-        <v>3.8</v>
-      </c>
       <c r="P217">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q217">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R217">
+        <v>1.975</v>
+      </c>
+      <c r="S217">
+        <v>1.825</v>
+      </c>
+      <c r="T217">
+        <v>3</v>
+      </c>
+      <c r="U217">
+        <v>1.95</v>
+      </c>
+      <c r="V217">
         <v>1.85</v>
       </c>
-      <c r="S217">
-        <v>1.95</v>
-      </c>
-      <c r="T217">
-        <v>2.75</v>
-      </c>
-      <c r="U217">
-        <v>1.85</v>
-      </c>
-      <c r="V217">
-        <v>1.95</v>
-      </c>
       <c r="W217">
         <v>-1</v>
       </c>
@@ -19826,19 +19826,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC217">
-        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6809809</v>
+        <v>6809804</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,56 +19858,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J218" t="s">
         <v>48</v>
       </c>
       <c r="K218">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N218">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O218">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P218">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q218">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
+        <v>1.85</v>
+      </c>
+      <c r="V218">
         <v>1.95</v>
       </c>
-      <c r="V218">
-        <v>1.85</v>
-      </c>
       <c r="W218">
         <v>-1</v>
       </c>
@@ -19915,19 +19915,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7755427</v>
+        <v>7755426</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G242" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H242">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L242">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N242">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O242">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P242">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q242">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V242">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W242">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7755426</v>
+        <v>7755425</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,40 +22083,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L243">
         <v>3.5</v>
       </c>
       <c r="M243">
+        <v>3.3</v>
+      </c>
+      <c r="N243">
         <v>2.5</v>
-      </c>
-      <c r="N243">
-        <v>2.9</v>
       </c>
       <c r="O243">
         <v>3.5</v>
       </c>
       <c r="P243">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q243">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R243">
         <v>1.85</v>
@@ -22128,31 +22128,31 @@
         <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X243">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA243">
+        <v>-1</v>
+      </c>
+      <c r="AB243">
+        <v>0.45</v>
+      </c>
+      <c r="AC243">
         <v>-0.5</v>
-      </c>
-      <c r="AB243">
-        <v>-1</v>
-      </c>
-      <c r="AC243">
-        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7755425</v>
+        <v>7755427</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,58 +22172,58 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
         <v>47</v>
       </c>
       <c r="K244">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="L244">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M244">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N244">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O244">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P244">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R244">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
-        <v>1.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22232,16 +22232,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AC244">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -23228,7 +23228,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6811681</v>
+        <v>6809840</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23237,49 +23237,49 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45339.5</v>
+        <v>45340.39583333334</v>
       </c>
       <c r="F256" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G256" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K256">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L256">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M256">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="N256">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="O256">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P256">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R256">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S256">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T256">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6811680</v>
+        <v>6809836</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23311,49 +23311,49 @@
         <v>28</v>
       </c>
       <c r="E257" s="2">
-        <v>45339.66666666666</v>
+        <v>45340.5</v>
       </c>
       <c r="F257" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K257">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M257">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N257">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O257">
         <v>3.5</v>
       </c>
       <c r="P257">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R257">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S257">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V257">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23376,7 +23376,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6809835</v>
+        <v>6809837</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23385,34 +23385,34 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45339.66666666666</v>
+        <v>45340.63541666666</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G258" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K258">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L258">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M258">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="N258">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O258">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P258">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q258">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R258">
         <v>1.85</v>
@@ -23421,13 +23421,13 @@
         <v>2</v>
       </c>
       <c r="T258">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U258">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V258">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23442,228 +23442,6 @@
         <v>0</v>
       </c>
       <c r="AA258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>6809840</v>
-      </c>
-      <c r="C259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" t="s">
-        <v>28</v>
-      </c>
-      <c r="E259" s="2">
-        <v>45340.39583333334</v>
-      </c>
-      <c r="F259" t="s">
-        <v>43</v>
-      </c>
-      <c r="G259" t="s">
-        <v>34</v>
-      </c>
-      <c r="K259">
-        <v>1.571</v>
-      </c>
-      <c r="L259">
-        <v>4</v>
-      </c>
-      <c r="M259">
-        <v>5.75</v>
-      </c>
-      <c r="N259">
-        <v>1.571</v>
-      </c>
-      <c r="O259">
-        <v>4</v>
-      </c>
-      <c r="P259">
-        <v>5.75</v>
-      </c>
-      <c r="Q259">
-        <v>-1</v>
-      </c>
-      <c r="R259">
-        <v>2</v>
-      </c>
-      <c r="S259">
-        <v>1.85</v>
-      </c>
-      <c r="T259">
-        <v>2.75</v>
-      </c>
-      <c r="U259">
-        <v>2</v>
-      </c>
-      <c r="V259">
-        <v>1.85</v>
-      </c>
-      <c r="W259">
-        <v>0</v>
-      </c>
-      <c r="X259">
-        <v>0</v>
-      </c>
-      <c r="Y259">
-        <v>0</v>
-      </c>
-      <c r="Z259">
-        <v>0</v>
-      </c>
-      <c r="AA259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>6809836</v>
-      </c>
-      <c r="C260" t="s">
-        <v>28</v>
-      </c>
-      <c r="D260" t="s">
-        <v>28</v>
-      </c>
-      <c r="E260" s="2">
-        <v>45340.5</v>
-      </c>
-      <c r="F260" t="s">
-        <v>29</v>
-      </c>
-      <c r="G260" t="s">
-        <v>35</v>
-      </c>
-      <c r="K260">
-        <v>2.375</v>
-      </c>
-      <c r="L260">
-        <v>3.5</v>
-      </c>
-      <c r="M260">
-        <v>2.8</v>
-      </c>
-      <c r="N260">
-        <v>2.4</v>
-      </c>
-      <c r="O260">
-        <v>3.5</v>
-      </c>
-      <c r="P260">
-        <v>2.7</v>
-      </c>
-      <c r="Q260">
-        <v>0</v>
-      </c>
-      <c r="R260">
-        <v>1.825</v>
-      </c>
-      <c r="S260">
-        <v>2.025</v>
-      </c>
-      <c r="T260">
-        <v>2.75</v>
-      </c>
-      <c r="U260">
-        <v>1.85</v>
-      </c>
-      <c r="V260">
-        <v>2</v>
-      </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-      <c r="X260">
-        <v>0</v>
-      </c>
-      <c r="Y260">
-        <v>0</v>
-      </c>
-      <c r="Z260">
-        <v>0</v>
-      </c>
-      <c r="AA260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261">
-        <v>6809837</v>
-      </c>
-      <c r="C261" t="s">
-        <v>28</v>
-      </c>
-      <c r="D261" t="s">
-        <v>28</v>
-      </c>
-      <c r="E261" s="2">
-        <v>45340.63541666666</v>
-      </c>
-      <c r="F261" t="s">
-        <v>39</v>
-      </c>
-      <c r="G261" t="s">
-        <v>46</v>
-      </c>
-      <c r="K261">
-        <v>3.25</v>
-      </c>
-      <c r="L261">
-        <v>3.75</v>
-      </c>
-      <c r="M261">
-        <v>2.05</v>
-      </c>
-      <c r="N261">
-        <v>4</v>
-      </c>
-      <c r="O261">
-        <v>4</v>
-      </c>
-      <c r="P261">
-        <v>1.75</v>
-      </c>
-      <c r="Q261">
-        <v>0.75</v>
-      </c>
-      <c r="R261">
-        <v>1.875</v>
-      </c>
-      <c r="S261">
-        <v>1.975</v>
-      </c>
-      <c r="T261">
-        <v>3</v>
-      </c>
-      <c r="U261">
-        <v>2.05</v>
-      </c>
-      <c r="V261">
-        <v>1.8</v>
-      </c>
-      <c r="W261">
-        <v>0</v>
-      </c>
-      <c r="X261">
-        <v>0</v>
-      </c>
-      <c r="Y261">
-        <v>0</v>
-      </c>
-      <c r="Z261">
-        <v>0</v>
-      </c>
-      <c r="AA261">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Seraing United</t>
   </si>
   <si>
-    <t>RFC Liege</t>
+    <t>Patro Eisden Maasmechelen</t>
   </si>
   <si>
-    <t>Patro Eisden Maasmechelen</t>
+    <t>RFC Liege</t>
   </si>
   <si>
     <t>KV Oostende</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC258"/>
+  <dimension ref="A1:AC261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6171231</v>
+        <v>6171232</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,58 +1257,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6171232</v>
+        <v>6171231</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1346,58 +1346,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N10">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
+        <v>0.8</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>-0</v>
-      </c>
-      <c r="AB10">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5216169</v>
+        <v>5215180</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,49 +2503,49 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
       <c r="K23">
+        <v>2.15</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2.2</v>
+      </c>
+      <c r="O23">
+        <v>3.25</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
         <v>1.95</v>
       </c>
-      <c r="L23">
-        <v>3.6</v>
-      </c>
-      <c r="M23">
-        <v>3.2</v>
-      </c>
-      <c r="N23">
-        <v>2.3</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>2.6</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>1.75</v>
-      </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
         <v>1.8</v>
@@ -2560,19 +2560,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5215180</v>
+        <v>5216169</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,49 +2592,49 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>3.2</v>
+      </c>
+      <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="M24">
+      <c r="P24">
+        <v>2.6</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.75</v>
+      </c>
+      <c r="S24">
+        <v>2.05</v>
+      </c>
+      <c r="T24">
         <v>3</v>
-      </c>
-      <c r="N24">
-        <v>2.2</v>
-      </c>
-      <c r="O24">
-        <v>3.25</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.95</v>
-      </c>
-      <c r="S24">
-        <v>1.85</v>
-      </c>
-      <c r="T24">
-        <v>2.5</v>
       </c>
       <c r="U24">
         <v>1.8</v>
@@ -2649,19 +2649,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6286226</v>
+        <v>6286256</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6286256</v>
+        <v>6286226</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6286229</v>
+        <v>6286259</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45016.625</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>4</v>
-      </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
+        <v>2.4</v>
+      </c>
+      <c r="L50">
         <v>3.2</v>
       </c>
-      <c r="L50">
-        <v>3.6</v>
-      </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N50">
+        <v>2.15</v>
+      </c>
+      <c r="O50">
+        <v>3.3</v>
+      </c>
+      <c r="P50">
         <v>2.9</v>
       </c>
-      <c r="O50">
-        <v>3.5</v>
-      </c>
-      <c r="P50">
-        <v>2.1</v>
-      </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
         <v>1.95</v>
@@ -4948,34 +4948,34 @@
         <v>1.85</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6286259</v>
+        <v>6286229</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45016.625</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
         <v>1.95</v>
@@ -5037,34 +5037,34 @@
         <v>1.85</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6286263</v>
+        <v>6286262</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,55 +5440,55 @@
         <v>45023.625</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O56">
         <v>3.5</v>
       </c>
       <c r="P56">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5497,19 +5497,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6286262</v>
+        <v>6286263</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,55 +5529,55 @@
         <v>45023.625</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O57">
         <v>3.5</v>
       </c>
       <c r="P57">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5586,19 +5586,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6286235</v>
+        <v>6286265</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,58 +5974,58 @@
         <v>45030.625</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L62">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N62">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O62">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,13 +6034,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6286265</v>
+        <v>6286235</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,58 +6063,58 @@
         <v>45030.625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M63">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P63">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6123,13 +6123,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6286269</v>
+        <v>6286238</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45037.625</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
         <v>3</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O68">
         <v>3.6</v>
       </c>
       <c r="P68">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6286238</v>
+        <v>6286269</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45037.625</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
         <v>3</v>
       </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
         <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6286242</v>
+        <v>6286273</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45052.625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77">
+        <v>2.1</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
         <v>3</v>
       </c>
-      <c r="J77" t="s">
-        <v>48</v>
-      </c>
-      <c r="K77">
-        <v>3.8</v>
-      </c>
-      <c r="L77">
-        <v>3.75</v>
-      </c>
-      <c r="M77">
-        <v>1.7</v>
-      </c>
       <c r="N77">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="O77">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
+        <v>2.75</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
+        <v>2.75</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
         <v>1.2</v>
       </c>
-      <c r="Q77">
-        <v>2</v>
-      </c>
-      <c r="R77">
-        <v>1.8</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>3.5</v>
-      </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6286273</v>
+        <v>6286242</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45052.625</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P78">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
+        <v>3.5</v>
+      </c>
+      <c r="U78">
         <v>1.85</v>
       </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
-      <c r="U78">
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.9</v>
-      </c>
       <c r="W78">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6286276</v>
+        <v>6286277</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,13 +7665,13 @@
         <v>45058.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -7680,43 +7680,43 @@
         <v>47</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N81">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O81">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.675</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7725,13 +7725,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.675</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6286277</v>
+        <v>6286276</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,13 +7754,13 @@
         <v>45058.625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -7769,43 +7769,43 @@
         <v>47</v>
       </c>
       <c r="K82">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N82">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W82">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7814,13 +7814,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8500000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6811722</v>
+        <v>6809711</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,43 +8380,43 @@
         <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
         <v>2.75</v>
@@ -8428,25 +8428,25 @@
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6809711</v>
+        <v>6811722</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,43 +8469,43 @@
         <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N90">
+        <v>1.8</v>
+      </c>
+      <c r="O90">
+        <v>3.6</v>
+      </c>
+      <c r="P90">
+        <v>3.5</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>1.85</v>
+      </c>
+      <c r="S90">
         <v>1.95</v>
-      </c>
-      <c r="O90">
-        <v>3.5</v>
-      </c>
-      <c r="P90">
-        <v>3.2</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.775</v>
-      </c>
-      <c r="S90">
-        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.75</v>
@@ -8517,25 +8517,25 @@
         <v>1.975</v>
       </c>
       <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>2.5</v>
+      </c>
+      <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.95</v>
       </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6809720</v>
+        <v>6809719</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,40 +9534,40 @@
         <v>45163.625</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N102">
+        <v>3.6</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
         <v>1.909</v>
       </c>
-      <c r="O102">
-        <v>4</v>
-      </c>
-      <c r="P102">
-        <v>3.2</v>
-      </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
         <v>1.9</v>
@@ -9576,14 +9576,14 @@
         <v>1.9</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
+        <v>1.85</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.2</v>
+        <v>0.909</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9600,10 +9600,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6809719</v>
+        <v>6809720</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,40 +9623,40 @@
         <v>45163.625</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>2.5</v>
-      </c>
       <c r="N103">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
         <v>1.9</v>
@@ -9665,14 +9665,14 @@
         <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="V103">
-        <v>1.95</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.909</v>
+        <v>2.2</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9689,10 +9689,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>45164.625</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -9979,7 +9979,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
         <v>44</v>
@@ -10338,7 +10338,7 @@
         <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6809728</v>
+        <v>6811715</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45171.625</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N112">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6811715</v>
+        <v>6809728</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45171.625</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N113">
+        <v>1.533</v>
+      </c>
+      <c r="O113">
+        <v>4.333</v>
+      </c>
+      <c r="P113">
+        <v>4.75</v>
+      </c>
+      <c r="Q113">
+        <v>-1</v>
+      </c>
+      <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.875</v>
+      </c>
+      <c r="T113">
+        <v>3.25</v>
+      </c>
+      <c r="U113">
         <v>1.95</v>
       </c>
-      <c r="O113">
-        <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>3.25</v>
-      </c>
-      <c r="Q113">
+      <c r="V113">
+        <v>1.85</v>
+      </c>
+      <c r="W113">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>-0</v>
+      </c>
+      <c r="AB113">
         <v>-0.5</v>
       </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.6</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
-      <c r="AA113">
-        <v>0.825</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,73 +10869,73 @@
         <v>45184.625</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N117">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
         <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.925</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,73 +10958,73 @@
         <v>45184.625</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R118">
         <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
         <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11050,7 +11050,7 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11670,7 +11670,7 @@
         <v>45191.625</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
         <v>32</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6811711</v>
+        <v>6809740</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,34 +11848,34 @@
         <v>45192.625</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N128">
         <v>1.727</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P128">
         <v>3.8</v>
@@ -11884,37 +11884,37 @@
         <v>-0.75</v>
       </c>
       <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1.8</v>
+      </c>
+      <c r="T128">
+        <v>3.25</v>
+      </c>
+      <c r="U128">
         <v>1.95</v>
       </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>3</v>
-      </c>
-      <c r="U128">
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="V128">
-        <v>2</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X128">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6809740</v>
+        <v>6811711</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,34 +11937,34 @@
         <v>45192.625</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N129">
         <v>1.727</v>
       </c>
       <c r="O129">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
         <v>3.8</v>
@@ -11973,37 +11973,37 @@
         <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12118,7 +12118,7 @@
         <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12385,7 +12385,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12827,7 +12827,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
         <v>37</v>
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6809750</v>
+        <v>6809753</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,49 +13005,49 @@
         <v>45205.625</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L141">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N141">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13056,25 +13056,25 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809753</v>
+        <v>6809750</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,49 +13094,49 @@
         <v>45205.625</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N142">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
         <v>1.975</v>
@@ -13145,25 +13145,25 @@
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13272,10 +13272,10 @@
         <v>45206.625</v>
       </c>
       <c r="F144" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" t="s">
         <v>43</v>
-      </c>
-      <c r="G144" t="s">
-        <v>42</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -15052,7 +15052,7 @@
         <v>45228.63541666666</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G164" t="s">
         <v>34</v>
@@ -15233,7 +15233,7 @@
         <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15675,7 +15675,7 @@
         <v>45235.5</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -16298,7 +16298,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
         <v>38</v>
@@ -16476,7 +16476,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
         <v>45</v>
@@ -16568,7 +16568,7 @@
         <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6809782</v>
+        <v>6809785</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,49 +16832,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>48</v>
       </c>
       <c r="K184">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="L184">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N184">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="O184">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
         <v>1.8</v>
@@ -16889,19 +16889,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6809785</v>
+        <v>6809782</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,49 +16921,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J185" t="s">
         <v>48</v>
       </c>
       <c r="K185">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M185">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N185">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="O185">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P185">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U185">
         <v>1.8</v>
@@ -16978,19 +16978,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
+        <v>4.5</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB185">
         <v>0.8</v>
       </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
-      <c r="AA185">
-        <v>0.8</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
       <c r="AC185">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6809789</v>
+        <v>6809787</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,52 +17277,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N189">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V189">
         <v>1.8</v>
@@ -17334,13 +17334,13 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.2</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6809787</v>
+        <v>6809789</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,52 +17366,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
         <v>48</v>
       </c>
       <c r="K190">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V190">
         <v>1.8</v>
@@ -17423,13 +17423,13 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>1.2</v>
       </c>
       <c r="AB190">
         <v>-1</v>
@@ -17811,7 +17811,7 @@
         <v>45263.5</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
         <v>41</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,13 +17900,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -17915,34 +17915,34 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N196">
+        <v>4.75</v>
+      </c>
+      <c r="O196">
+        <v>4.333</v>
+      </c>
+      <c r="P196">
         <v>1.5</v>
       </c>
-      <c r="O196">
-        <v>4</v>
-      </c>
-      <c r="P196">
-        <v>5.75</v>
-      </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U196">
         <v>1.9</v>
@@ -17951,7 +17951,7 @@
         <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,7 +17960,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,13 +17989,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18004,34 +18004,34 @@
         <v>47</v>
       </c>
       <c r="K197">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
         <v>4</v>
       </c>
-      <c r="M197">
-        <v>1.55</v>
-      </c>
       <c r="N197">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O197">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18040,7 +18040,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18049,7 +18049,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N198">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O198">
         <v>3.5</v>
       </c>
       <c r="P198">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA198">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N199">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O199">
         <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z199">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18612,7 +18612,7 @@
         <v>45270.5</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G204" t="s">
         <v>46</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6809803</v>
+        <v>6811691</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N206">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O206">
         <v>4</v>
       </c>
       <c r="P206">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
+        <v>1.975</v>
+      </c>
+      <c r="S206">
+        <v>1.825</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
         <v>1.95</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.85</v>
       </c>
-      <c r="T206">
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
         <v>3</v>
       </c>
-      <c r="U206">
-        <v>1.85</v>
-      </c>
-      <c r="V206">
-        <v>1.95</v>
-      </c>
-      <c r="W206">
-        <v>0.615</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6811691</v>
+        <v>6809803</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K207">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L207">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M207">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N207">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O207">
         <v>4</v>
       </c>
       <c r="P207">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="V207">
-        <v>1.85</v>
-      </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X207">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA207">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>45276.5</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
         <v>30</v>
@@ -19502,10 +19502,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F214" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214" t="s">
         <v>42</v>
-      </c>
-      <c r="G214" t="s">
-        <v>43</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -20392,7 +20392,7 @@
         <v>45312.5</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
         <v>39</v>
@@ -20929,7 +20929,7 @@
         <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21104,7 +21104,7 @@
         <v>45319.5</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G232" t="s">
         <v>45</v>
@@ -21816,7 +21816,7 @@
         <v>45326.5</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
         <v>46</v>
@@ -21905,7 +21905,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F241" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
         <v>35</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7755426</v>
+        <v>7755427</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I242">
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M242">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N242">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O242">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P242">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R242">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S242">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T242">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U242">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X242">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7755425</v>
+        <v>7755426</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,40 +22083,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L243">
         <v>3.5</v>
       </c>
       <c r="M243">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N243">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O243">
         <v>3.5</v>
       </c>
       <c r="P243">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R243">
         <v>1.85</v>
@@ -22128,31 +22128,31 @@
         <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB243">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7755427</v>
+        <v>7755425</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,58 +22172,58 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H244">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
         <v>47</v>
       </c>
       <c r="K244">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L244">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M244">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N244">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O244">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P244">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
-        <v>0.5329999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22232,16 +22232,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6809831</v>
+        <v>6809832</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,40 +22261,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J245" t="s">
         <v>49</v>
       </c>
       <c r="K245">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L245">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M245">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N245">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O245">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P245">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R245">
         <v>1.95</v>
@@ -22303,19 +22303,19 @@
         <v>1.85</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y245">
         <v>-1</v>
@@ -22327,10 +22327,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC245">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6809832</v>
+        <v>6809831</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,40 +22350,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>49</v>
       </c>
       <c r="K246">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L246">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M246">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N246">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O246">
+        <v>3.5</v>
+      </c>
+      <c r="P246">
         <v>3.8</v>
       </c>
-      <c r="P246">
-        <v>4.5</v>
-      </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
         <v>1.95</v>
@@ -22392,19 +22392,19 @@
         <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22416,10 +22416,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB246">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22887,7 +22887,7 @@
         <v>44</v>
       </c>
       <c r="G252" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -23228,7 +23228,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6809840</v>
+        <v>6811681</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23237,72 +23237,87 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45340.39583333334</v>
+        <v>45339.5</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G256" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>48</v>
       </c>
       <c r="K256">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M256">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="N256">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O256">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P256">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S256">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
         <v>1.85</v>
       </c>
       <c r="W256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB256">
+        <v>-1</v>
+      </c>
+      <c r="AC256">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6809836</v>
+        <v>6811680</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23311,37 +23326,46 @@
         <v>28</v>
       </c>
       <c r="E257" s="2">
-        <v>45340.5</v>
+        <v>45339.66666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>4</v>
+      </c>
+      <c r="J257" t="s">
+        <v>48</v>
       </c>
       <c r="K257">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L257">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M257">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N257">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O257">
         <v>3.5</v>
       </c>
       <c r="P257">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q257">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R257">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S257">
         <v>2.025</v>
@@ -23350,33 +23374,39 @@
         <v>2.75</v>
       </c>
       <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
         <v>1.85</v>
       </c>
-      <c r="V257">
-        <v>2</v>
-      </c>
       <c r="W257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB257">
+        <v>0.95</v>
+      </c>
+      <c r="AC257">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6809837</v>
+        <v>6809835</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23385,64 +23415,346 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45340.63541666666</v>
+        <v>45339.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G258" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>47</v>
       </c>
       <c r="K258">
+        <v>2.1</v>
+      </c>
+      <c r="L258">
+        <v>3.5</v>
+      </c>
+      <c r="M258">
         <v>3.25</v>
       </c>
-      <c r="L258">
-        <v>3.75</v>
-      </c>
-      <c r="M258">
-        <v>2.05</v>
-      </c>
       <c r="N258">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O258">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P258">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q258">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R258">
         <v>1.85</v>
       </c>
       <c r="S258">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T258">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U258">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V258">
         <v>1.8</v>
       </c>
       <c r="W258">
+        <v>1.1</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA258">
+        <v>-1</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>6809840</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45340.39583333334</v>
+      </c>
+      <c r="F259" t="s">
+        <v>42</v>
+      </c>
+      <c r="G259" t="s">
+        <v>34</v>
+      </c>
+      <c r="H259">
         <v>0</v>
       </c>
-      <c r="X258">
+      <c r="I259">
         <v>0</v>
       </c>
-      <c r="Y258">
+      <c r="J259" t="s">
+        <v>49</v>
+      </c>
+      <c r="K259">
+        <v>1.571</v>
+      </c>
+      <c r="L259">
+        <v>4</v>
+      </c>
+      <c r="M259">
+        <v>5.75</v>
+      </c>
+      <c r="N259">
+        <v>1.6</v>
+      </c>
+      <c r="O259">
+        <v>4</v>
+      </c>
+      <c r="P259">
+        <v>5.5</v>
+      </c>
+      <c r="Q259">
+        <v>-1</v>
+      </c>
+      <c r="R259">
+        <v>2</v>
+      </c>
+      <c r="S259">
+        <v>1.8</v>
+      </c>
+      <c r="T259">
+        <v>2.75</v>
+      </c>
+      <c r="U259">
+        <v>1.95</v>
+      </c>
+      <c r="V259">
+        <v>1.85</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
+        <v>3</v>
+      </c>
+      <c r="Y259">
+        <v>-1</v>
+      </c>
+      <c r="Z259">
+        <v>-1</v>
+      </c>
+      <c r="AA259">
+        <v>0.8</v>
+      </c>
+      <c r="AB259">
+        <v>-1</v>
+      </c>
+      <c r="AC259">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>6809836</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45340.5</v>
+      </c>
+      <c r="F260" t="s">
+        <v>29</v>
+      </c>
+      <c r="G260" t="s">
+        <v>35</v>
+      </c>
+      <c r="H260">
+        <v>4</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260" t="s">
+        <v>47</v>
+      </c>
+      <c r="K260">
+        <v>2.375</v>
+      </c>
+      <c r="L260">
+        <v>3.5</v>
+      </c>
+      <c r="M260">
+        <v>2.8</v>
+      </c>
+      <c r="N260">
+        <v>2.375</v>
+      </c>
+      <c r="O260">
+        <v>3.6</v>
+      </c>
+      <c r="P260">
+        <v>2.75</v>
+      </c>
+      <c r="Q260">
         <v>0</v>
       </c>
-      <c r="Z258">
+      <c r="R260">
+        <v>1.775</v>
+      </c>
+      <c r="S260">
+        <v>2.1</v>
+      </c>
+      <c r="T260">
+        <v>3</v>
+      </c>
+      <c r="U260">
+        <v>1.975</v>
+      </c>
+      <c r="V260">
+        <v>1.875</v>
+      </c>
+      <c r="W260">
+        <v>1.375</v>
+      </c>
+      <c r="X260">
+        <v>-1</v>
+      </c>
+      <c r="Y260">
+        <v>-1</v>
+      </c>
+      <c r="Z260">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA260">
+        <v>-1</v>
+      </c>
+      <c r="AB260">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC260">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>6809837</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45340.63541666666</v>
+      </c>
+      <c r="F261" t="s">
+        <v>39</v>
+      </c>
+      <c r="G261" t="s">
+        <v>46</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261" t="s">
+        <v>48</v>
+      </c>
+      <c r="K261">
+        <v>3.25</v>
+      </c>
+      <c r="L261">
+        <v>3.75</v>
+      </c>
+      <c r="M261">
+        <v>2.05</v>
+      </c>
+      <c r="N261">
+        <v>4</v>
+      </c>
+      <c r="O261">
+        <v>4</v>
+      </c>
+      <c r="P261">
+        <v>1.8</v>
+      </c>
+      <c r="Q261">
+        <v>0.5</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>1.8</v>
+      </c>
+      <c r="T261">
+        <v>3</v>
+      </c>
+      <c r="U261">
+        <v>1.975</v>
+      </c>
+      <c r="V261">
+        <v>1.825</v>
+      </c>
+      <c r="W261">
+        <v>-1</v>
+      </c>
+      <c r="X261">
+        <v>-1</v>
+      </c>
+      <c r="Y261">
+        <v>0.8</v>
+      </c>
+      <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.8</v>
+      </c>
+      <c r="AB261">
         <v>0</v>
       </c>
-      <c r="AA258">
-        <v>0</v>
+      <c r="AC261">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC261"/>
+  <dimension ref="A1:AC269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6171232</v>
+        <v>6171231</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,58 +1257,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N9">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>-0</v>
-      </c>
-      <c r="AB9">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6171231</v>
+        <v>6171232</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1346,58 +1346,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5215180</v>
+        <v>5216168</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N23">
         <v>2.2</v>
       </c>
       <c r="O23">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>3.25</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.85</v>
       </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
+        <v>0.4</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5216169</v>
+        <v>5215180</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,49 +2592,49 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
+        <v>2.15</v>
+      </c>
+      <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2.2</v>
+      </c>
+      <c r="O24">
+        <v>3.25</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="L24">
-        <v>3.6</v>
-      </c>
-      <c r="M24">
-        <v>3.2</v>
-      </c>
-      <c r="N24">
-        <v>2.3</v>
-      </c>
-      <c r="O24">
-        <v>3.5</v>
-      </c>
-      <c r="P24">
-        <v>2.6</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.75</v>
-      </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
         <v>1.8</v>
@@ -2649,19 +2649,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5216168</v>
+        <v>5216169</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N25">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S25">
+        <v>2.05</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
         <v>1.8</v>
       </c>
-      <c r="T25">
-        <v>3.25</v>
-      </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6286250</v>
+        <v>6286220</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
         <v>1.95</v>
       </c>
-      <c r="S32">
-        <v>1.9</v>
-      </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>0.95</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6286220</v>
+        <v>6286250</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
+        <v>1.9</v>
+      </c>
+      <c r="T33">
+        <v>2.5</v>
+      </c>
+      <c r="U33">
+        <v>1.9</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.95</v>
-      </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.95</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6286259</v>
+        <v>6286229</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45016.625</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
         <v>1.95</v>
@@ -4948,34 +4948,34 @@
         <v>1.85</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6286229</v>
+        <v>6286259</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45016.625</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
+        <v>2.4</v>
+      </c>
+      <c r="L51">
         <v>3.2</v>
       </c>
-      <c r="L51">
-        <v>3.6</v>
-      </c>
       <c r="M51">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N51">
+        <v>2.15</v>
+      </c>
+      <c r="O51">
+        <v>3.3</v>
+      </c>
+      <c r="P51">
         <v>2.9</v>
       </c>
-      <c r="O51">
-        <v>3.5</v>
-      </c>
-      <c r="P51">
-        <v>2.1</v>
-      </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
         <v>1.95</v>
@@ -5037,34 +5037,34 @@
         <v>1.85</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6286265</v>
+        <v>6286235</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,58 +5974,58 @@
         <v>45030.625</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M62">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N62">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P62">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,13 +6034,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6286235</v>
+        <v>6286265</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,58 +6063,58 @@
         <v>45030.625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N63">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O63">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6123,13 +6123,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6286238</v>
+        <v>6286269</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45037.625</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
         <v>3</v>
       </c>
       <c r="N68">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
         <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6286268</v>
+        <v>6286238</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,10 +6597,10 @@
         <v>45037.625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6612,61 +6612,61 @@
         <v>49</v>
       </c>
       <c r="K69">
+        <v>2.05</v>
+      </c>
+      <c r="L69">
+        <v>3.5</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>2.4</v>
+      </c>
+      <c r="O69">
+        <v>3.6</v>
+      </c>
+      <c r="P69">
+        <v>2.45</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
         <v>1.85</v>
       </c>
-      <c r="L69">
-        <v>3.6</v>
-      </c>
-      <c r="M69">
-        <v>3.5</v>
-      </c>
-      <c r="N69">
-        <v>1.65</v>
-      </c>
-      <c r="O69">
-        <v>3.8</v>
-      </c>
-      <c r="P69">
-        <v>4.333</v>
-      </c>
-      <c r="Q69">
-        <v>-0.75</v>
-      </c>
-      <c r="R69">
-        <v>2</v>
-      </c>
       <c r="S69">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6286269</v>
+        <v>6286268</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45037.625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N70">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6286274</v>
+        <v>6286277</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45058.625</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L80">
+        <v>3.2</v>
+      </c>
+      <c r="M80">
+        <v>2.6</v>
+      </c>
+      <c r="N80">
+        <v>2.45</v>
+      </c>
+      <c r="O80">
         <v>3.5</v>
       </c>
-      <c r="M80">
-        <v>3.75</v>
-      </c>
-      <c r="N80">
-        <v>1.909</v>
-      </c>
-      <c r="O80">
-        <v>3.75</v>
-      </c>
       <c r="P80">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R80">
+        <v>1.85</v>
+      </c>
+      <c r="S80">
         <v>1.95</v>
-      </c>
-      <c r="S80">
-        <v>1.85</v>
       </c>
       <c r="T80">
         <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,13 +7636,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6286277</v>
+        <v>6286274</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,58 +7665,58 @@
         <v>45058.625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
+        <v>1.95</v>
+      </c>
+      <c r="S81">
         <v>1.85</v>
-      </c>
-      <c r="S81">
-        <v>1.95</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7725,13 +7725,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6286246</v>
+        <v>6286245</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45059.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
         <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="L84">
         <v>5.75</v>
       </c>
       <c r="M84">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="N84">
-        <v>1.125</v>
+        <v>1.166</v>
       </c>
       <c r="O84">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q84">
-        <v>-2.25</v>
+        <v>-2</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T84">
         <v>3.75</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W84">
-        <v>0.125</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6286245</v>
+        <v>6286246</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45059.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L85">
         <v>5.75</v>
       </c>
       <c r="M85">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="N85">
-        <v>1.166</v>
+        <v>1.125</v>
       </c>
       <c r="O85">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="P85">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q85">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>3.75</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>0.1659999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6809710</v>
+        <v>6809709</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45149.625</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>3</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6809709</v>
+        <v>6809710</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45149.625</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6809714</v>
+        <v>6809713</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45156.625</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94" t="s">
+        <v>48</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>3.1</v>
+      </c>
+      <c r="N94">
+        <v>1.833</v>
+      </c>
+      <c r="O94">
+        <v>3.4</v>
+      </c>
+      <c r="P94">
+        <v>3.6</v>
+      </c>
+      <c r="Q94">
+        <v>-0.5</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
+        <v>1.8</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>2.6</v>
+      </c>
+      <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>47</v>
-      </c>
-      <c r="K94">
-        <v>1.8</v>
-      </c>
-      <c r="L94">
-        <v>3.75</v>
-      </c>
-      <c r="M94">
-        <v>3.4</v>
-      </c>
-      <c r="N94">
-        <v>1.65</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
-      <c r="P94">
-        <v>3.75</v>
-      </c>
-      <c r="Q94">
-        <v>-0.75</v>
-      </c>
-      <c r="R94">
-        <v>1.85</v>
-      </c>
-      <c r="S94">
-        <v>1.95</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
-      </c>
-      <c r="U94">
-        <v>1.875</v>
-      </c>
-      <c r="V94">
-        <v>1.925</v>
-      </c>
-      <c r="W94">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>0.425</v>
-      </c>
-      <c r="AA94">
-        <v>-0.5</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6809713</v>
+        <v>6809714</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45156.625</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
+        <v>3.75</v>
+      </c>
+      <c r="M95">
         <v>3.4</v>
       </c>
-      <c r="M95">
-        <v>3.1</v>
-      </c>
       <c r="N95">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.85</v>
+      </c>
+      <c r="S95">
+        <v>1.95</v>
+      </c>
+      <c r="T95">
+        <v>3.25</v>
+      </c>
+      <c r="U95">
+        <v>1.875</v>
+      </c>
+      <c r="V95">
+        <v>1.925</v>
+      </c>
+      <c r="W95">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0.425</v>
+      </c>
+      <c r="AA95">
         <v>-0.5</v>
       </c>
-      <c r="R95">
-        <v>1.9</v>
-      </c>
-      <c r="S95">
-        <v>1.9</v>
-      </c>
-      <c r="T95">
-        <v>2.75</v>
-      </c>
-      <c r="U95">
-        <v>2</v>
-      </c>
-      <c r="V95">
-        <v>1.8</v>
-      </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>2.6</v>
-      </c>
-      <c r="Z95">
-        <v>-1</v>
-      </c>
-      <c r="AA95">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6811719</v>
+        <v>6809716</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45157.625</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
         <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6809716</v>
+        <v>6811719</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45157.625</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809727</v>
+        <v>6809726</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45170.625</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,61 +10172,61 @@
         <v>49</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N109">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6809726</v>
+        <v>6809727</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45170.625</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,61 +10261,61 @@
         <v>49</v>
       </c>
       <c r="K110">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6811715</v>
+        <v>6809728</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45171.625</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
+        <v>1.533</v>
+      </c>
+      <c r="O112">
+        <v>4.333</v>
+      </c>
+      <c r="P112">
+        <v>4.75</v>
+      </c>
+      <c r="Q112">
+        <v>-1</v>
+      </c>
+      <c r="R112">
+        <v>1.925</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
+        <v>3.25</v>
+      </c>
+      <c r="U112">
         <v>1.95</v>
       </c>
-      <c r="O112">
-        <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>3.25</v>
-      </c>
-      <c r="Q112">
+      <c r="V112">
+        <v>1.85</v>
+      </c>
+      <c r="W112">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>-0</v>
+      </c>
+      <c r="AB112">
         <v>-0.5</v>
       </c>
-      <c r="R112">
-        <v>1.975</v>
-      </c>
-      <c r="S112">
-        <v>1.825</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>2.6</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>-1</v>
-      </c>
-      <c r="AA112">
-        <v>0.825</v>
-      </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6809728</v>
+        <v>6811715</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45171.625</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N113">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,73 +10869,73 @@
         <v>45184.625</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R117">
         <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
         <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,73 +10958,73 @@
         <v>45184.625</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N118">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q118">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
         <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>0.925</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6809735</v>
+        <v>6809734</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45185.625</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L120">
         <v>3.4</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N120">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6809734</v>
+        <v>6809735</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45185.625</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
         <v>3.4</v>
       </c>
       <c r="M121">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N121">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45198.625</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N133">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
-        <v>1.85</v>
-      </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z133">
+        <v>0.425</v>
+      </c>
+      <c r="AA133">
         <v>-0.5</v>
       </c>
-      <c r="AA133">
-        <v>0.425</v>
-      </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45198.625</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q134">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
         <v>1.85</v>
       </c>
-      <c r="S134">
-        <v>1.95</v>
-      </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-0.5</v>
+      </c>
+      <c r="AA134">
         <v>0.425</v>
       </c>
-      <c r="AA134">
-        <v>-0.5</v>
-      </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6809759</v>
+        <v>6809760</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,49 +13717,49 @@
         <v>45219.625</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>47</v>
       </c>
       <c r="K149">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M149">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N149">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
         <v>1.775</v>
@@ -13768,7 +13768,7 @@
         <v>2.025</v>
       </c>
       <c r="W149">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,16 +13777,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6809760</v>
+        <v>6809759</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,49 +13806,49 @@
         <v>45219.625</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L150">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N150">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
         <v>1.775</v>
@@ -13857,7 +13857,7 @@
         <v>2.025</v>
       </c>
       <c r="W150">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,16 +13866,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
+        <v>0.3875</v>
+      </c>
+      <c r="AC150">
         <v>-0.5</v>
-      </c>
-      <c r="AB150">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6811704</v>
+        <v>6809764</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,16 +14429,16 @@
         <v>45226.625</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>49</v>
@@ -14453,52 +14453,52 @@
         <v>2.625</v>
       </c>
       <c r="N157">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O157">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
         <v>1.8</v>
       </c>
-      <c r="V157">
-        <v>2</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6809764</v>
+        <v>6811704</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,16 +14518,16 @@
         <v>45226.625</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>49</v>
@@ -14542,52 +14542,52 @@
         <v>2.625</v>
       </c>
       <c r="N158">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
+        <v>1.975</v>
+      </c>
+      <c r="S158">
+        <v>1.825</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
         <v>1.8</v>
       </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>3</v>
-      </c>
-      <c r="U158">
-        <v>2</v>
-      </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6809766</v>
+        <v>6809765</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45227.625</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L160">
         <v>3.8</v>
       </c>
       <c r="M160">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N160">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
         <v>1.825</v>
       </c>
-      <c r="S160">
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.875</v>
+      </c>
+      <c r="V160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>3.25</v>
-      </c>
-      <c r="U160">
-        <v>1.95</v>
-      </c>
-      <c r="V160">
-        <v>1.85</v>
-      </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6809765</v>
+        <v>6809766</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,76 +14785,76 @@
         <v>45227.625</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L161">
         <v>3.8</v>
       </c>
       <c r="M161">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N161">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
+        <v>1.85</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
         <v>1.875</v>
       </c>
-      <c r="V161">
-        <v>1.975</v>
-      </c>
-      <c r="W161">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
       <c r="Z161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811702</v>
+        <v>6811701</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,55 +15141,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N165">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,19 +15198,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6811701</v>
+        <v>6811702</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
+        <v>4.5</v>
+      </c>
+      <c r="Q166">
+        <v>-0.75</v>
+      </c>
+      <c r="R166">
+        <v>1.8</v>
+      </c>
+      <c r="S166">
         <v>2.05</v>
-      </c>
-      <c r="Q166">
-        <v>0.25</v>
-      </c>
-      <c r="R166">
-        <v>1.95</v>
-      </c>
-      <c r="S166">
-        <v>1.85</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,19 +15287,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
+        <v>3.5</v>
+      </c>
+      <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
         <v>1.05</v>
       </c>
-      <c r="Z166">
-        <v>-1</v>
-      </c>
-      <c r="AA166">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6809783</v>
+        <v>6809780</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,73 +16565,73 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N181">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
         <v>3.5</v>
       </c>
       <c r="P181">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6809780</v>
+        <v>6809783</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,73 +16654,73 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L182">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N182">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O182">
         <v>3.5</v>
       </c>
       <c r="P182">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S182">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z182">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB182">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6809787</v>
+        <v>6809789</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,52 +17277,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N189">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V189">
         <v>1.8</v>
@@ -17334,13 +17334,13 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>1.2</v>
       </c>
       <c r="AB189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6809789</v>
+        <v>6809787</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,52 +17366,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>48</v>
       </c>
       <c r="K190">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L190">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M190">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N190">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P190">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V190">
         <v>1.8</v>
@@ -17423,13 +17423,13 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1.2</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
         <v>-1</v>
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K198">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O198">
         <v>3.5</v>
       </c>
       <c r="P198">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z198">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N199">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O199">
         <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y199">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA199">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6809796</v>
+        <v>6809792</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,10 +18345,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18360,41 +18360,41 @@
         <v>48</v>
       </c>
       <c r="K201">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M201">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N201">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R201">
+        <v>1.775</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>3</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
         <v>1.8</v>
       </c>
-      <c r="S201">
-        <v>2</v>
-      </c>
-      <c r="T201">
-        <v>3.25</v>
-      </c>
-      <c r="U201">
-        <v>1.95</v>
-      </c>
-      <c r="V201">
-        <v>1.85</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6809792</v>
+        <v>6809796</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,10 +18434,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18449,61 +18449,61 @@
         <v>48</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L202">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M202">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N202">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P202">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q202">
+        <v>0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.8</v>
+      </c>
+      <c r="S202">
+        <v>2</v>
+      </c>
+      <c r="T202">
+        <v>3.25</v>
+      </c>
+      <c r="U202">
+        <v>1.95</v>
+      </c>
+      <c r="V202">
+        <v>1.85</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>0.75</v>
+      </c>
+      <c r="Z202">
+        <v>-0.5</v>
+      </c>
+      <c r="AA202">
         <v>0.5</v>
       </c>
-      <c r="R202">
-        <v>1.775</v>
-      </c>
-      <c r="S202">
-        <v>2.025</v>
-      </c>
-      <c r="T202">
-        <v>3</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
-      <c r="V202">
-        <v>1.8</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>1.1</v>
-      </c>
-      <c r="Z202">
-        <v>-1</v>
-      </c>
-      <c r="AA202">
-        <v>1.025</v>
-      </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K209">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L209">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M209">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N209">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P209">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC209">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K210">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L210">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N210">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O210">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q210">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6809809</v>
+        <v>6809804</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,56 +19769,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N217">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O217">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P217">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q217">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
+        <v>1.85</v>
+      </c>
+      <c r="V217">
         <v>1.95</v>
       </c>
-      <c r="V217">
-        <v>1.85</v>
-      </c>
       <c r="W217">
         <v>-1</v>
       </c>
@@ -19826,19 +19826,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6809804</v>
+        <v>6809809</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,56 +19858,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
         <v>48</v>
       </c>
       <c r="K218">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L218">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N218">
+        <v>5.25</v>
+      </c>
+      <c r="O218">
         <v>4.2</v>
       </c>
-      <c r="O218">
-        <v>3.8</v>
-      </c>
       <c r="P218">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q218">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R218">
+        <v>1.975</v>
+      </c>
+      <c r="S218">
+        <v>1.825</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>1.95</v>
+      </c>
+      <c r="V218">
         <v>1.85</v>
       </c>
-      <c r="S218">
-        <v>1.95</v>
-      </c>
-      <c r="T218">
-        <v>2.75</v>
-      </c>
-      <c r="U218">
-        <v>1.85</v>
-      </c>
-      <c r="V218">
-        <v>1.95</v>
-      </c>
       <c r="W218">
         <v>-1</v>
       </c>
@@ -19915,19 +19915,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC218">
-        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M226">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N226">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P226">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q226">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
         <v>1.825</v>
       </c>
       <c r="W226">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z226">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>47</v>
+      </c>
+      <c r="K227">
+        <v>4.2</v>
+      </c>
+      <c r="L227">
+        <v>3.6</v>
+      </c>
+      <c r="M227">
+        <v>1.8</v>
+      </c>
+      <c r="N227">
         <v>4</v>
       </c>
-      <c r="J227" t="s">
-        <v>48</v>
-      </c>
-      <c r="K227">
-        <v>6.5</v>
-      </c>
-      <c r="L227">
-        <v>4.5</v>
-      </c>
-      <c r="M227">
-        <v>1.444</v>
-      </c>
-      <c r="N227">
-        <v>7.5</v>
-      </c>
       <c r="O227">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q227">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
         <v>1.825</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6809825</v>
+        <v>6809823</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,10 +21282,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21297,25 +21297,25 @@
         <v>48</v>
       </c>
       <c r="K234">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L234">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N234">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O234">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P234">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="Q234">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R234">
         <v>1.775</v>
@@ -21324,13 +21324,13 @@
         <v>2.025</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -21339,19 +21339,19 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.615</v>
+        <v>1.05</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB234">
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6809823</v>
+        <v>6809825</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,10 +21371,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -21386,25 +21386,25 @@
         <v>48</v>
       </c>
       <c r="K235">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M235">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="N235">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O235">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P235">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="Q235">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R235">
         <v>1.775</v>
@@ -21413,13 +21413,13 @@
         <v>2.025</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21428,19 +21428,19 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.05</v>
+        <v>0.615</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA235">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7755427</v>
+        <v>7755425</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,58 +21994,58 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H242">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
         <v>47</v>
       </c>
       <c r="K242">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L242">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N242">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O242">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P242">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V242">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
-        <v>0.5329999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X242">
         <v>-1</v>
@@ -22054,16 +22054,16 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA242">
         <v>-1</v>
       </c>
       <c r="AB242">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7755426</v>
+        <v>7755427</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L243">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M243">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N243">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O243">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P243">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q243">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R243">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S243">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T243">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V243">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X243">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC243">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7755425</v>
+        <v>7755426</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,40 +22172,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L244">
         <v>3.5</v>
       </c>
       <c r="M244">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N244">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O244">
         <v>3.5</v>
       </c>
       <c r="P244">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R244">
         <v>1.85</v>
@@ -22217,31 +22217,31 @@
         <v>2.75</v>
       </c>
       <c r="U244">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W244">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB244">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6809839</v>
+        <v>6809838</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23062,73 +23062,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G254" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
         <v>3</v>
       </c>
-      <c r="I254">
+      <c r="J254" t="s">
+        <v>48</v>
+      </c>
+      <c r="K254">
+        <v>4.5</v>
+      </c>
+      <c r="L254">
+        <v>4</v>
+      </c>
+      <c r="M254">
+        <v>1.571</v>
+      </c>
+      <c r="N254">
+        <v>5.25</v>
+      </c>
+      <c r="O254">
+        <v>4.333</v>
+      </c>
+      <c r="P254">
+        <v>1.55</v>
+      </c>
+      <c r="Q254">
         <v>1</v>
       </c>
-      <c r="J254" t="s">
-        <v>47</v>
-      </c>
-      <c r="K254">
-        <v>2.875</v>
-      </c>
-      <c r="L254">
-        <v>3.6</v>
-      </c>
-      <c r="M254">
-        <v>2.05</v>
-      </c>
-      <c r="N254">
-        <v>3.5</v>
-      </c>
-      <c r="O254">
-        <v>3.8</v>
-      </c>
-      <c r="P254">
-        <v>1.95</v>
-      </c>
-      <c r="Q254">
-        <v>0.5</v>
-      </c>
       <c r="R254">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U254">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V254">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W254">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z254">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB254">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23139,7 +23139,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6809838</v>
+        <v>6809839</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,73 +23151,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H255">
+        <v>3</v>
+      </c>
+      <c r="I255">
         <v>1</v>
       </c>
-      <c r="I255">
-        <v>3</v>
-      </c>
       <c r="J255" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K255">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N255">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O255">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P255">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q255">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R255">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T255">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U255">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA255">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC255">
         <v>-1</v>
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6811680</v>
+        <v>6809835</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,76 +23329,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G257" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K257">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M257">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N257">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O257">
         <v>3.5</v>
       </c>
       <c r="P257">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R257">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S257">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA257">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23406,7 +23406,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6809835</v>
+        <v>6811680</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23418,76 +23418,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G258" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J258" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K258">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L258">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M258">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N258">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O258">
         <v>3.5</v>
       </c>
       <c r="P258">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q258">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R258">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S258">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T258">
         <v>2.75</v>
       </c>
       <c r="U258">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V258">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W258">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z258">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23755,6 +23755,598 @@
       </c>
       <c r="AC261">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>6809846</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45345.66666666666</v>
+      </c>
+      <c r="F262" t="s">
+        <v>33</v>
+      </c>
+      <c r="G262" t="s">
+        <v>29</v>
+      </c>
+      <c r="K262">
+        <v>1.909</v>
+      </c>
+      <c r="L262">
+        <v>3.5</v>
+      </c>
+      <c r="M262">
+        <v>3.5</v>
+      </c>
+      <c r="N262">
+        <v>1.95</v>
+      </c>
+      <c r="O262">
+        <v>3.5</v>
+      </c>
+      <c r="P262">
+        <v>3.4</v>
+      </c>
+      <c r="Q262">
+        <v>-0.5</v>
+      </c>
+      <c r="R262">
+        <v>2</v>
+      </c>
+      <c r="S262">
+        <v>1.85</v>
+      </c>
+      <c r="T262">
+        <v>2.75</v>
+      </c>
+      <c r="U262">
+        <v>1.95</v>
+      </c>
+      <c r="V262">
+        <v>1.9</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
+      <c r="AA262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>6809842</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45345.66666666666</v>
+      </c>
+      <c r="F263" t="s">
+        <v>42</v>
+      </c>
+      <c r="G263" t="s">
+        <v>38</v>
+      </c>
+      <c r="K263">
+        <v>1.533</v>
+      </c>
+      <c r="L263">
+        <v>4.2</v>
+      </c>
+      <c r="M263">
+        <v>5</v>
+      </c>
+      <c r="N263">
+        <v>1.533</v>
+      </c>
+      <c r="O263">
+        <v>4.2</v>
+      </c>
+      <c r="P263">
+        <v>5</v>
+      </c>
+      <c r="Q263">
+        <v>-1</v>
+      </c>
+      <c r="R263">
+        <v>1.975</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
+        <v>1.825</v>
+      </c>
+      <c r="V263">
+        <v>2.025</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>6809844</v>
+      </c>
+      <c r="C264" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F264" t="s">
+        <v>34</v>
+      </c>
+      <c r="G264" t="s">
+        <v>32</v>
+      </c>
+      <c r="K264">
+        <v>5</v>
+      </c>
+      <c r="L264">
+        <v>4.333</v>
+      </c>
+      <c r="M264">
+        <v>1.5</v>
+      </c>
+      <c r="N264">
+        <v>5</v>
+      </c>
+      <c r="O264">
+        <v>4.333</v>
+      </c>
+      <c r="P264">
+        <v>1.5</v>
+      </c>
+      <c r="Q264">
+        <v>1</v>
+      </c>
+      <c r="R264">
+        <v>2.025</v>
+      </c>
+      <c r="S264">
+        <v>1.825</v>
+      </c>
+      <c r="T264">
+        <v>3</v>
+      </c>
+      <c r="U264">
+        <v>1.975</v>
+      </c>
+      <c r="V264">
+        <v>1.875</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AA264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>6811678</v>
+      </c>
+      <c r="C265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45346.66666666666</v>
+      </c>
+      <c r="F265" t="s">
+        <v>44</v>
+      </c>
+      <c r="G265" t="s">
+        <v>30</v>
+      </c>
+      <c r="K265">
+        <v>1.615</v>
+      </c>
+      <c r="L265">
+        <v>3.75</v>
+      </c>
+      <c r="M265">
+        <v>4.75</v>
+      </c>
+      <c r="N265">
+        <v>1.615</v>
+      </c>
+      <c r="O265">
+        <v>3.75</v>
+      </c>
+      <c r="P265">
+        <v>4.75</v>
+      </c>
+      <c r="Q265">
+        <v>-0.75</v>
+      </c>
+      <c r="R265">
+        <v>1.825</v>
+      </c>
+      <c r="S265">
+        <v>2.025</v>
+      </c>
+      <c r="T265">
+        <v>2.75</v>
+      </c>
+      <c r="U265">
+        <v>1.9</v>
+      </c>
+      <c r="V265">
+        <v>1.95</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>6811679</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45346.66666666666</v>
+      </c>
+      <c r="F266" t="s">
+        <v>43</v>
+      </c>
+      <c r="G266" t="s">
+        <v>39</v>
+      </c>
+      <c r="K266">
+        <v>1.4</v>
+      </c>
+      <c r="L266">
+        <v>4.5</v>
+      </c>
+      <c r="M266">
+        <v>6</v>
+      </c>
+      <c r="N266">
+        <v>1.4</v>
+      </c>
+      <c r="O266">
+        <v>4.5</v>
+      </c>
+      <c r="P266">
+        <v>6</v>
+      </c>
+      <c r="Q266">
+        <v>-1.25</v>
+      </c>
+      <c r="R266">
+        <v>1.875</v>
+      </c>
+      <c r="S266">
+        <v>1.975</v>
+      </c>
+      <c r="T266">
+        <v>3</v>
+      </c>
+      <c r="U266">
+        <v>1.875</v>
+      </c>
+      <c r="V266">
+        <v>1.975</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AA266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>6809845</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45347.39583333334</v>
+      </c>
+      <c r="F267" t="s">
+        <v>35</v>
+      </c>
+      <c r="G267" t="s">
+        <v>41</v>
+      </c>
+      <c r="K267">
+        <v>1.4</v>
+      </c>
+      <c r="L267">
+        <v>4.5</v>
+      </c>
+      <c r="M267">
+        <v>6</v>
+      </c>
+      <c r="N267">
+        <v>1.4</v>
+      </c>
+      <c r="O267">
+        <v>4.5</v>
+      </c>
+      <c r="P267">
+        <v>6.5</v>
+      </c>
+      <c r="Q267">
+        <v>-1.25</v>
+      </c>
+      <c r="R267">
+        <v>1.875</v>
+      </c>
+      <c r="S267">
+        <v>1.975</v>
+      </c>
+      <c r="T267">
+        <v>3</v>
+      </c>
+      <c r="U267">
+        <v>1.825</v>
+      </c>
+      <c r="V267">
+        <v>2.025</v>
+      </c>
+      <c r="W267">
+        <v>0</v>
+      </c>
+      <c r="X267">
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <v>0</v>
+      </c>
+      <c r="Z267">
+        <v>0</v>
+      </c>
+      <c r="AA267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>6809843</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45347.5</v>
+      </c>
+      <c r="F268" t="s">
+        <v>40</v>
+      </c>
+      <c r="G268" t="s">
+        <v>37</v>
+      </c>
+      <c r="K268">
+        <v>3</v>
+      </c>
+      <c r="L268">
+        <v>3.5</v>
+      </c>
+      <c r="M268">
+        <v>2.1</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="O268">
+        <v>3.5</v>
+      </c>
+      <c r="P268">
+        <v>2.1</v>
+      </c>
+      <c r="Q268">
+        <v>0.25</v>
+      </c>
+      <c r="R268">
+        <v>1.925</v>
+      </c>
+      <c r="S268">
+        <v>1.925</v>
+      </c>
+      <c r="T268">
+        <v>3</v>
+      </c>
+      <c r="U268">
+        <v>1.9</v>
+      </c>
+      <c r="V268">
+        <v>1.95</v>
+      </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>6809841</v>
+      </c>
+      <c r="C269" t="s">
+        <v>28</v>
+      </c>
+      <c r="D269" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45347.63541666666</v>
+      </c>
+      <c r="F269" t="s">
+        <v>46</v>
+      </c>
+      <c r="G269" t="s">
+        <v>45</v>
+      </c>
+      <c r="K269">
+        <v>3.3</v>
+      </c>
+      <c r="L269">
+        <v>3.4</v>
+      </c>
+      <c r="M269">
+        <v>2</v>
+      </c>
+      <c r="N269">
+        <v>3.75</v>
+      </c>
+      <c r="O269">
+        <v>3.5</v>
+      </c>
+      <c r="P269">
+        <v>1.85</v>
+      </c>
+      <c r="Q269">
+        <v>0.5</v>
+      </c>
+      <c r="R269">
+        <v>1.925</v>
+      </c>
+      <c r="S269">
+        <v>1.925</v>
+      </c>
+      <c r="T269">
+        <v>2.75</v>
+      </c>
+      <c r="U269">
+        <v>1.8</v>
+      </c>
+      <c r="V269">
+        <v>2.05</v>
+      </c>
+      <c r="W269">
+        <v>0</v>
+      </c>
+      <c r="X269">
+        <v>0</v>
+      </c>
+      <c r="Y269">
+        <v>0</v>
+      </c>
+      <c r="Z269">
+        <v>0</v>
+      </c>
+      <c r="AA269">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -142,10 +142,10 @@
     <t>Seraing United</t>
   </si>
   <si>
-    <t>Patro Eisden Maasmechelen</t>
+    <t>RFC Liege</t>
   </si>
   <si>
-    <t>RFC Liege</t>
+    <t>Patro Eisden Maasmechelen</t>
   </si>
   <si>
     <t>KV Oostende</t>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6171231</v>
+        <v>6171232</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,58 +1257,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6171232</v>
+        <v>6171231</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1346,58 +1346,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N10">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>-0</v>
-      </c>
-      <c r="AB10">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5216168</v>
+        <v>5215180</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>2.2</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
+        <v>1.85</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
         <v>1.8</v>
       </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5215180</v>
+        <v>5216168</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N24">
         <v>2.2</v>
       </c>
       <c r="O24">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1.8</v>
+      </c>
+      <c r="T24">
+        <v>3.25</v>
+      </c>
+      <c r="U24">
         <v>1.95</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>1.8</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
+        <v>0.4</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6286248</v>
+        <v>6286247</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,58 +3037,58 @@
         <v>44981.66666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
       <c r="K29">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L29">
         <v>3.3</v>
       </c>
       <c r="M29">
+        <v>2.9</v>
+      </c>
+      <c r="N29">
         <v>2.25</v>
       </c>
-      <c r="N29">
+      <c r="O29">
+        <v>3.1</v>
+      </c>
+      <c r="P29">
         <v>2.9</v>
       </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>2.2</v>
-      </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3097,16 +3097,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6286247</v>
+        <v>6286248</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,58 +3126,58 @@
         <v>44981.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
       </c>
       <c r="K30">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L30">
         <v>3.3</v>
       </c>
       <c r="M30">
+        <v>2.25</v>
+      </c>
+      <c r="N30">
         <v>2.9</v>
       </c>
-      <c r="N30">
-        <v>2.25</v>
-      </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3186,16 +3186,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6286220</v>
+        <v>6286250</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
+        <v>1.9</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
+        <v>1.9</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
+        <v>-1</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.95</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6286250</v>
+        <v>6286220</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
         <v>1.95</v>
       </c>
-      <c r="S33">
-        <v>1.9</v>
-      </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>0.95</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6286253</v>
+        <v>6286223</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6286223</v>
+        <v>6286253</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N39">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6286256</v>
+        <v>6286226</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O44">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P44">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X44">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6286226</v>
+        <v>6286256</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6286262</v>
+        <v>6286263</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,55 +5440,55 @@
         <v>45023.625</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N56">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
         <v>3.5</v>
       </c>
       <c r="P56">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5497,19 +5497,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6286263</v>
+        <v>6286262</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,55 +5529,55 @@
         <v>45023.625</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
         <v>3.5</v>
       </c>
       <c r="P57">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5586,19 +5586,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6286235</v>
+        <v>6286265</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,58 +5974,58 @@
         <v>45030.625</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L62">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N62">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O62">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,13 +6034,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6286265</v>
+        <v>6286235</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,58 +6063,58 @@
         <v>45030.625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M63">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P63">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6123,13 +6123,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6286238</v>
+        <v>6286268</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,10 +6597,10 @@
         <v>45037.625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6612,61 +6612,61 @@
         <v>49</v>
       </c>
       <c r="K69">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
+        <v>3.6</v>
+      </c>
+      <c r="M69">
         <v>3.5</v>
       </c>
-      <c r="M69">
-        <v>3</v>
-      </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
         <v>1.85</v>
       </c>
-      <c r="S69">
-        <v>1.95</v>
-      </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6286268</v>
+        <v>6286238</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,10 +6686,10 @@
         <v>45037.625</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6701,61 +6701,61 @@
         <v>49</v>
       </c>
       <c r="K70">
+        <v>2.05</v>
+      </c>
+      <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
+      <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
+        <v>2.45</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.6</v>
-      </c>
-      <c r="M70">
-        <v>3.5</v>
-      </c>
-      <c r="N70">
-        <v>1.65</v>
-      </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
-      <c r="P70">
-        <v>4.333</v>
-      </c>
-      <c r="Q70">
-        <v>-0.75</v>
-      </c>
-      <c r="R70">
-        <v>2</v>
-      </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6286271</v>
+        <v>6286241</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45051.625</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q74">
         <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z74">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6286241</v>
+        <v>6286271</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45051.625</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N75">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q75">
         <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y75">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6286277</v>
+        <v>6286276</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,13 +7576,13 @@
         <v>45058.625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7591,43 +7591,43 @@
         <v>47</v>
       </c>
       <c r="K80">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N80">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P80">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="T80">
         <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W80">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,13 +7636,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6286274</v>
+        <v>6286277</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,58 +7665,58 @@
         <v>45058.625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L81">
+        <v>3.2</v>
+      </c>
+      <c r="M81">
+        <v>2.6</v>
+      </c>
+      <c r="N81">
+        <v>2.45</v>
+      </c>
+      <c r="O81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>3.75</v>
-      </c>
-      <c r="N81">
-        <v>1.909</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
       <c r="P81">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
         <v>1.95</v>
-      </c>
-      <c r="S81">
-        <v>1.85</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7725,13 +7725,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6286276</v>
+        <v>6286274</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,58 +7754,58 @@
         <v>45058.625</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>47</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
         <v>3.75</v>
       </c>
       <c r="N82">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.675</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7814,13 +7814,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.675</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6286245</v>
+        <v>6286246</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45059.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L84">
         <v>5.75</v>
       </c>
       <c r="M84">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="N84">
-        <v>1.166</v>
+        <v>1.125</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="P84">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R84">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T84">
         <v>3.75</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>0.1659999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6286246</v>
+        <v>6286245</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45059.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
         <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="L85">
         <v>5.75</v>
       </c>
       <c r="M85">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="N85">
-        <v>1.125</v>
+        <v>1.166</v>
       </c>
       <c r="O85">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="P85">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q85">
-        <v>-2.25</v>
+        <v>-2</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T85">
         <v>3.75</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W85">
-        <v>0.125</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6809711</v>
+        <v>6811722</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,43 +8380,43 @@
         <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N89">
+        <v>1.8</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
         <v>1.95</v>
-      </c>
-      <c r="O89">
-        <v>3.5</v>
-      </c>
-      <c r="P89">
-        <v>3.2</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>1.775</v>
-      </c>
-      <c r="S89">
-        <v>2.025</v>
       </c>
       <c r="T89">
         <v>2.75</v>
@@ -8428,25 +8428,25 @@
         <v>1.975</v>
       </c>
       <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>2.5</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
         <v>0.95</v>
       </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6811722</v>
+        <v>6809711</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,43 +8469,43 @@
         <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L90">
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.75</v>
@@ -8517,25 +8517,25 @@
         <v>1.975</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6809713</v>
+        <v>6809714</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45156.625</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
+        <v>3.75</v>
+      </c>
+      <c r="M94">
         <v>3.4</v>
       </c>
-      <c r="M94">
-        <v>3.1</v>
-      </c>
       <c r="N94">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P94">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.85</v>
+      </c>
+      <c r="S94">
+        <v>1.95</v>
+      </c>
+      <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
+        <v>1.925</v>
+      </c>
+      <c r="W94">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0.425</v>
+      </c>
+      <c r="AA94">
         <v>-0.5</v>
       </c>
-      <c r="R94">
-        <v>1.9</v>
-      </c>
-      <c r="S94">
-        <v>1.9</v>
-      </c>
-      <c r="T94">
-        <v>2.75</v>
-      </c>
-      <c r="U94">
-        <v>2</v>
-      </c>
-      <c r="V94">
-        <v>1.8</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>2.6</v>
-      </c>
-      <c r="Z94">
-        <v>-1</v>
-      </c>
-      <c r="AA94">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6809714</v>
+        <v>6809713</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45156.625</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>3.1</v>
+      </c>
+      <c r="N95">
+        <v>1.833</v>
+      </c>
+      <c r="O95">
+        <v>3.4</v>
+      </c>
+      <c r="P95">
+        <v>3.6</v>
+      </c>
+      <c r="Q95">
+        <v>-0.5</v>
+      </c>
+      <c r="R95">
+        <v>1.9</v>
+      </c>
+      <c r="S95">
+        <v>1.9</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>1.8</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>2.6</v>
+      </c>
+      <c r="Z95">
+        <v>-1</v>
+      </c>
+      <c r="AA95">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" t="s">
-        <v>47</v>
-      </c>
-      <c r="K95">
-        <v>1.8</v>
-      </c>
-      <c r="L95">
-        <v>3.75</v>
-      </c>
-      <c r="M95">
-        <v>3.4</v>
-      </c>
-      <c r="N95">
-        <v>1.65</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
-      <c r="P95">
-        <v>3.75</v>
-      </c>
-      <c r="Q95">
-        <v>-0.75</v>
-      </c>
-      <c r="R95">
-        <v>1.85</v>
-      </c>
-      <c r="S95">
-        <v>1.95</v>
-      </c>
-      <c r="T95">
-        <v>3.25</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
-      <c r="W95">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>0.425</v>
-      </c>
-      <c r="AA95">
-        <v>-0.5</v>
-      </c>
-      <c r="AB95">
-        <v>-1</v>
-      </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6809716</v>
+        <v>6811719</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45157.625</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L97">
         <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N97">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6811719</v>
+        <v>6809716</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45157.625</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9712,7 +9712,7 @@
         <v>45164.625</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -9979,7 +9979,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
         <v>44</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809726</v>
+        <v>6809727</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45170.625</v>
       </c>
       <c r="F109" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,61 +10172,61 @@
         <v>49</v>
       </c>
       <c r="K109">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N109">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6809727</v>
+        <v>6809726</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45170.625</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,61 +10261,61 @@
         <v>49</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10338,7 +10338,7 @@
         <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6809728</v>
+        <v>6811715</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45171.625</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N112">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6811715</v>
+        <v>6809728</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45171.625</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N113">
+        <v>1.533</v>
+      </c>
+      <c r="O113">
+        <v>4.333</v>
+      </c>
+      <c r="P113">
+        <v>4.75</v>
+      </c>
+      <c r="Q113">
+        <v>-1</v>
+      </c>
+      <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.875</v>
+      </c>
+      <c r="T113">
+        <v>3.25</v>
+      </c>
+      <c r="U113">
         <v>1.95</v>
       </c>
-      <c r="O113">
-        <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>3.25</v>
-      </c>
-      <c r="Q113">
+      <c r="V113">
+        <v>1.85</v>
+      </c>
+      <c r="W113">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>-0</v>
+      </c>
+      <c r="AB113">
         <v>-0.5</v>
       </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.6</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
-      <c r="AA113">
-        <v>0.825</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,73 +10869,73 @@
         <v>45184.625</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N117">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
         <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.925</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,73 +10958,73 @@
         <v>45184.625</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R118">
         <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
         <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11050,7 +11050,7 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6809734</v>
+        <v>6809735</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45185.625</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
         <v>3.4</v>
       </c>
       <c r="M120">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X120">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6809735</v>
+        <v>6809734</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45185.625</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L121">
         <v>3.4</v>
       </c>
       <c r="M121">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6809738</v>
+        <v>6809739</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45191.625</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
         <v>3.25</v>
       </c>
       <c r="N125">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O125">
+        <v>3.5</v>
+      </c>
+      <c r="P125">
         <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>3.4</v>
       </c>
       <c r="Q125">
         <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6809739</v>
+        <v>6809738</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45191.625</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
         <v>3.25</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q126">
         <v>-0.5</v>
       </c>
       <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
+        <v>3.25</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
         <v>1.8</v>
       </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>1.9</v>
-      </c>
-      <c r="V126">
-        <v>1.9</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X126">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45198.625</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q133">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
         <v>1.85</v>
       </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-0.5</v>
+      </c>
+      <c r="AA133">
         <v>0.425</v>
       </c>
-      <c r="AA133">
-        <v>-0.5</v>
-      </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45198.625</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N134">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R134">
+        <v>1.85</v>
+      </c>
+      <c r="S134">
         <v>1.95</v>
       </c>
-      <c r="S134">
-        <v>1.85</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z134">
+        <v>0.425</v>
+      </c>
+      <c r="AA134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.425</v>
-      </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6809749</v>
+        <v>6809744</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45199.625</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L136">
         <v>3.4</v>
       </c>
       <c r="M136">
+        <v>2.3</v>
+      </c>
+      <c r="N136">
+        <v>2.3</v>
+      </c>
+      <c r="O136">
+        <v>3.5</v>
+      </c>
+      <c r="P136">
+        <v>2.55</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
+        <v>1.975</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.9</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
         <v>2.5</v>
       </c>
-      <c r="N136">
-        <v>2.15</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
-      <c r="P136">
-        <v>2.8</v>
-      </c>
-      <c r="Q136">
-        <v>-0.25</v>
-      </c>
-      <c r="R136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>1.8</v>
-      </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
       <c r="Y136">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6809744</v>
+        <v>6809749</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45199.625</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
         <v>37</v>
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6809753</v>
+        <v>6809750</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,49 +13005,49 @@
         <v>45205.625</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N141">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13056,25 +13056,25 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809750</v>
+        <v>6809753</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,49 +13094,49 @@
         <v>45205.625</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
         <v>1.975</v>
@@ -13145,25 +13145,25 @@
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6811708</v>
+        <v>6809754</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45206.625</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M144">
+        <v>4.2</v>
+      </c>
+      <c r="N144">
+        <v>1.95</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>2.9</v>
+      </c>
+      <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
+        <v>1.975</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="N144">
-        <v>2.4</v>
-      </c>
-      <c r="O144">
-        <v>3.1</v>
-      </c>
-      <c r="P144">
-        <v>2.7</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6809754</v>
+        <v>6811708</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45206.625</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>48</v>
+      </c>
+      <c r="K145">
+        <v>2.1</v>
+      </c>
+      <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>2.4</v>
+      </c>
+      <c r="O145">
+        <v>3.1</v>
+      </c>
+      <c r="P145">
+        <v>2.7</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>1.7</v>
+      </c>
+      <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
         <v>1</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" t="s">
-        <v>47</v>
-      </c>
-      <c r="K145">
-        <v>1.615</v>
-      </c>
-      <c r="L145">
-        <v>3.9</v>
-      </c>
-      <c r="M145">
-        <v>4.2</v>
-      </c>
-      <c r="N145">
-        <v>1.95</v>
-      </c>
-      <c r="O145">
-        <v>3.75</v>
-      </c>
-      <c r="P145">
-        <v>2.9</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.875</v>
-      </c>
-      <c r="S145">
-        <v>1.975</v>
-      </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.95</v>
-      </c>
-      <c r="V145">
-        <v>1.9</v>
-      </c>
-      <c r="W145">
-        <v>0.95</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>0.875</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6809764</v>
+        <v>6811704</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,16 +14429,16 @@
         <v>45226.625</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>49</v>
@@ -14453,52 +14453,52 @@
         <v>2.625</v>
       </c>
       <c r="N157">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
+        <v>1.975</v>
+      </c>
+      <c r="S157">
+        <v>1.825</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
         <v>1.8</v>
       </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>3</v>
-      </c>
-      <c r="U157">
-        <v>2</v>
-      </c>
       <c r="V157">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6811704</v>
+        <v>6809764</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,16 +14518,16 @@
         <v>45226.625</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>49</v>
@@ -14542,52 +14542,52 @@
         <v>2.625</v>
       </c>
       <c r="N158">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
         <v>1.8</v>
       </c>
-      <c r="V158">
-        <v>2</v>
-      </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6809765</v>
+        <v>6809766</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45227.625</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
         <v>3</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K160">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L160">
         <v>3.8</v>
       </c>
       <c r="M160">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
+        <v>1.85</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
         <v>1.875</v>
       </c>
-      <c r="V160">
-        <v>1.975</v>
-      </c>
-      <c r="W160">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6809766</v>
+        <v>6809765</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,76 +14785,76 @@
         <v>45227.625</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L161">
         <v>3.8</v>
       </c>
       <c r="M161">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N161">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O161">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R161">
+        <v>2.025</v>
+      </c>
+      <c r="S161">
         <v>1.825</v>
       </c>
-      <c r="S161">
+      <c r="T161">
+        <v>2.75</v>
+      </c>
+      <c r="U161">
+        <v>1.875</v>
+      </c>
+      <c r="V161">
         <v>1.975</v>
       </c>
-      <c r="T161">
-        <v>3.25</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>45228.63541666666</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
         <v>34</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811701</v>
+        <v>6811702</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,55 +15141,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M165">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N165">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
+        <v>4.5</v>
+      </c>
+      <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
+        <v>1.8</v>
+      </c>
+      <c r="S165">
         <v>2.05</v>
-      </c>
-      <c r="Q165">
-        <v>0.25</v>
-      </c>
-      <c r="R165">
-        <v>1.95</v>
-      </c>
-      <c r="S165">
-        <v>1.85</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,19 +15198,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
+        <v>3.5</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
         <v>1.05</v>
       </c>
-      <c r="Z165">
-        <v>-1</v>
-      </c>
-      <c r="AA165">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6811702</v>
+        <v>6811701</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N166">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,19 +15287,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>45235.5</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6809776</v>
+        <v>6809779</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L173">
         <v>4</v>
       </c>
       <c r="M173">
+        <v>4.5</v>
+      </c>
+      <c r="N173">
+        <v>1.615</v>
+      </c>
+      <c r="O173">
+        <v>4</v>
+      </c>
+      <c r="P173">
+        <v>4.5</v>
+      </c>
+      <c r="Q173">
+        <v>-0.75</v>
+      </c>
+      <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>2.05</v>
+      </c>
+      <c r="V173">
         <v>1.8</v>
       </c>
-      <c r="N173">
-        <v>3.8</v>
-      </c>
-      <c r="O173">
-        <v>4.2</v>
-      </c>
-      <c r="P173">
-        <v>1.7</v>
-      </c>
-      <c r="Q173">
-        <v>0.75</v>
-      </c>
-      <c r="R173">
-        <v>1.9</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>3.25</v>
-      </c>
-      <c r="U173">
-        <v>1.925</v>
-      </c>
-      <c r="V173">
-        <v>1.925</v>
-      </c>
       <c r="W173">
-        <v>2.8</v>
+        <v>0.615</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6809779</v>
+        <v>6809776</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
         <v>4</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N174">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
-        <v>0.615</v>
+        <v>2.8</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6811700</v>
+        <v>6809774</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K176">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N176">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R176">
+        <v>1.9</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>2.025</v>
+      </c>
+      <c r="V176">
         <v>1.825</v>
       </c>
-      <c r="S176">
-        <v>1.975</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>1.85</v>
-      </c>
-      <c r="V176">
-        <v>1.95</v>
-      </c>
       <c r="W176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6809774</v>
+        <v>6811700</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M177">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N177">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O177">
+        <v>4</v>
+      </c>
+      <c r="P177">
         <v>3.6</v>
       </c>
-      <c r="P177">
-        <v>1.909</v>
-      </c>
       <c r="Q177">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S177">
+        <v>1.975</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.85</v>
+      </c>
+      <c r="V177">
         <v>1.95</v>
       </c>
-      <c r="T177">
-        <v>3</v>
-      </c>
-      <c r="U177">
-        <v>2.025</v>
-      </c>
-      <c r="V177">
-        <v>1.825</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.95</v>
-      </c>
-      <c r="AB177">
-        <v>1.025</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
         <v>38</v>
@@ -16476,7 +16476,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
         <v>45</v>
@@ -16657,7 +16657,7 @@
         <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -17102,7 +17102,7 @@
         <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17277,7 +17277,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
         <v>35</v>
@@ -17811,7 +17811,7 @@
         <v>45263.5</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
         <v>41</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,13 +17900,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -17915,34 +17915,34 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L196">
+        <v>3.6</v>
+      </c>
+      <c r="M196">
         <v>4</v>
       </c>
-      <c r="M196">
-        <v>1.55</v>
-      </c>
       <c r="N196">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
         <v>1.9</v>
@@ -17951,7 +17951,7 @@
         <v>1.9</v>
       </c>
       <c r="W196">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,7 +17960,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,13 +17989,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18004,34 +18004,34 @@
         <v>47</v>
       </c>
       <c r="K197">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N197">
+        <v>4.75</v>
+      </c>
+      <c r="O197">
+        <v>4.333</v>
+      </c>
+      <c r="P197">
         <v>1.5</v>
       </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
-      <c r="P197">
-        <v>5.75</v>
-      </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18040,7 +18040,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18049,7 +18049,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N198">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O198">
         <v>3.5</v>
       </c>
       <c r="P198">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA198">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N199">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O199">
         <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z199">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6809792</v>
+        <v>6809796</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,10 +18345,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18360,61 +18360,61 @@
         <v>48</v>
       </c>
       <c r="K201">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L201">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M201">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N201">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q201">
+        <v>0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.8</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
+        <v>3.25</v>
+      </c>
+      <c r="U201">
+        <v>1.95</v>
+      </c>
+      <c r="V201">
+        <v>1.85</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>0.75</v>
+      </c>
+      <c r="Z201">
+        <v>-0.5</v>
+      </c>
+      <c r="AA201">
         <v>0.5</v>
       </c>
-      <c r="R201">
-        <v>1.775</v>
-      </c>
-      <c r="S201">
-        <v>2.025</v>
-      </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>2</v>
-      </c>
-      <c r="V201">
-        <v>1.8</v>
-      </c>
-      <c r="W201">
-        <v>-1</v>
-      </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>1.1</v>
-      </c>
-      <c r="Z201">
-        <v>-1</v>
-      </c>
-      <c r="AA201">
-        <v>1.025</v>
-      </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6809796</v>
+        <v>6809792</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,10 +18434,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18449,41 +18449,41 @@
         <v>48</v>
       </c>
       <c r="K202">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M202">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N202">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O202">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q202">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R202">
+        <v>1.775</v>
+      </c>
+      <c r="S202">
+        <v>2.025</v>
+      </c>
+      <c r="T202">
+        <v>3</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
         <v>1.8</v>
       </c>
-      <c r="S202">
-        <v>2</v>
-      </c>
-      <c r="T202">
-        <v>3.25</v>
-      </c>
-      <c r="U202">
-        <v>1.95</v>
-      </c>
-      <c r="V202">
-        <v>1.85</v>
-      </c>
       <c r="W202">
         <v>-1</v>
       </c>
@@ -18491,19 +18491,19 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18612,7 +18612,7 @@
         <v>45270.5</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
         <v>46</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6811691</v>
+        <v>6809803</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G206" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M206">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N206">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O206">
         <v>4</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
         <v>1.95</v>
       </c>
-      <c r="V206">
-        <v>1.85</v>
-      </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X206">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6809803</v>
+        <v>6811691</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L207">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M207">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N207">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O207">
         <v>4</v>
       </c>
       <c r="P207">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
+        <v>1.975</v>
+      </c>
+      <c r="S207">
+        <v>1.825</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
         <v>1.95</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.85</v>
       </c>
-      <c r="T207">
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
         <v>3</v>
       </c>
-      <c r="U207">
-        <v>1.85</v>
-      </c>
-      <c r="V207">
-        <v>1.95</v>
-      </c>
-      <c r="W207">
-        <v>0.615</v>
-      </c>
-      <c r="X207">
-        <v>-1</v>
-      </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>45276.5</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
         <v>30</v>
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K209">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L209">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N209">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O209">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K210">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M210">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N210">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P210">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S210">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC210">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6811689</v>
+        <v>6809805</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L214">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N214">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
+        <v>2.025</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>2.05</v>
+      </c>
+      <c r="V214">
         <v>1.8</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>1.8</v>
-      </c>
-      <c r="V214">
-        <v>2.05</v>
-      </c>
       <c r="W214">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>1.025</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
         <v>0.8</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>-1</v>
-      </c>
-      <c r="AC214">
-        <v>1.05</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6809805</v>
+        <v>6811689</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K215">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M215">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N215">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O215">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P215">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
+        <v>1.8</v>
+      </c>
+      <c r="V215">
         <v>2.05</v>
       </c>
-      <c r="V215">
-        <v>1.8</v>
-      </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X215">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20392,7 +20392,7 @@
         <v>45312.5</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
         <v>39</v>
@@ -20929,7 +20929,7 @@
         <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21104,7 +21104,7 @@
         <v>45319.5</v>
       </c>
       <c r="F232" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G232" t="s">
         <v>45</v>
@@ -21816,7 +21816,7 @@
         <v>45326.5</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
         <v>46</v>
@@ -21905,7 +21905,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G241" t="s">
         <v>35</v>
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7755427</v>
+        <v>7755426</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H243">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L243">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M243">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N243">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O243">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P243">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q243">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R243">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB243">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7755426</v>
+        <v>7755427</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K244">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L244">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M244">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N244">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O244">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P244">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R244">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X244">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA244">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC244">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22353,7 +22353,7 @@
         <v>29</v>
       </c>
       <c r="G246" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6809828</v>
+        <v>6809834</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,55 +22528,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
         <v>48</v>
       </c>
       <c r="K248">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L248">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M248">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N248">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P248">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q248">
         <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
         <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V248">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W248">
         <v>-1</v>
@@ -22585,16 +22585,16 @@
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB248">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC248">
         <v>-0.5</v>
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6809834</v>
+        <v>6809828</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,55 +22617,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J249" t="s">
         <v>48</v>
       </c>
       <c r="K249">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L249">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M249">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N249">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O249">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P249">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T249">
         <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -22674,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB249">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC249">
         <v>-0.5</v>
@@ -22887,7 +22887,7 @@
         <v>44</v>
       </c>
       <c r="G252" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6809835</v>
+        <v>6811680</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,76 +23329,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J257" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K257">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L257">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M257">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N257">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O257">
         <v>3.5</v>
       </c>
       <c r="P257">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q257">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R257">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S257">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z257">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC257">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23406,7 +23406,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6811680</v>
+        <v>6809835</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23418,76 +23418,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G258" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K258">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L258">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M258">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N258">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O258">
         <v>3.5</v>
       </c>
       <c r="P258">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q258">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R258">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S258">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T258">
         <v>2.75</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V258">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA258">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23507,7 +23507,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G259" t="s">
         <v>34</v>
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6809846</v>
+        <v>6809842</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,46 +23774,46 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G262" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K262">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L262">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M262">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N262">
+        <v>1.533</v>
+      </c>
+      <c r="O262">
+        <v>4.2</v>
+      </c>
+      <c r="P262">
+        <v>5</v>
+      </c>
+      <c r="Q262">
+        <v>-1</v>
+      </c>
+      <c r="R262">
         <v>1.95</v>
       </c>
-      <c r="O262">
-        <v>3.5</v>
-      </c>
-      <c r="P262">
-        <v>3.4</v>
-      </c>
-      <c r="Q262">
-        <v>-0.5</v>
-      </c>
-      <c r="R262">
-        <v>2</v>
-      </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
         <v>2.75</v>
       </c>
       <c r="U262">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V262">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W262">
         <v>0</v>
@@ -23836,7 +23836,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6809842</v>
+        <v>6809846</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23848,46 +23848,46 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K263">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L263">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M263">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N263">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P263">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q263">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T263">
         <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W263">
         <v>0</v>
@@ -23949,19 +23949,19 @@
         <v>1</v>
       </c>
       <c r="R264">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W264">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V265">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24070,7 +24070,7 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G266" t="s">
         <v>39</v>
@@ -24085,31 +24085,31 @@
         <v>6</v>
       </c>
       <c r="N266">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O266">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P266">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q266">
         <v>-1.25</v>
       </c>
       <c r="R266">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S266">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T266">
         <v>3</v>
       </c>
       <c r="U266">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V266">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W266">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>-1.25</v>
       </c>
       <c r="R267">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S267">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T267">
         <v>3</v>
       </c>
       <c r="U267">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V267">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24254,10 +24254,10 @@
         <v>3</v>
       </c>
       <c r="U268">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V268">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W268">
         <v>0</v>
@@ -24307,31 +24307,31 @@
         <v>2</v>
       </c>
       <c r="N269">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O269">
         <v>3.5</v>
       </c>
       <c r="P269">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q269">
         <v>0.5</v>
       </c>
       <c r="R269">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S269">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T269">
         <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V269">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W269">
         <v>0</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -142,10 +142,10 @@
     <t>Seraing United</t>
   </si>
   <si>
-    <t>RFC Liege</t>
+    <t>Patro Eisden Maasmechelen</t>
   </si>
   <si>
-    <t>Patro Eisden Maasmechelen</t>
+    <t>RFC Liege</t>
   </si>
   <si>
     <t>KV Oostende</t>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6171232</v>
+        <v>6171231</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,58 +1257,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N9">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>-0</v>
-      </c>
-      <c r="AB9">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6171231</v>
+        <v>6171232</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1346,58 +1346,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5215180</v>
+        <v>5216168</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N23">
         <v>2.2</v>
       </c>
       <c r="O23">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>3.25</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.85</v>
       </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
+        <v>0.4</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5216168</v>
+        <v>5215180</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <v>2.2</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P24">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
+        <v>1.85</v>
+      </c>
+      <c r="T24">
+        <v>2.5</v>
+      </c>
+      <c r="U24">
         <v>1.8</v>
       </c>
-      <c r="T24">
-        <v>3.25</v>
-      </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6286223</v>
+        <v>6286253</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N38">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6286253</v>
+        <v>6286223</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6286226</v>
+        <v>6286256</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6286256</v>
+        <v>6286226</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6286263</v>
+        <v>6286262</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,55 +5440,55 @@
         <v>45023.625</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O56">
         <v>3.5</v>
       </c>
       <c r="P56">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5497,19 +5497,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6286262</v>
+        <v>6286263</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,55 +5529,55 @@
         <v>45023.625</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O57">
         <v>3.5</v>
       </c>
       <c r="P57">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5586,19 +5586,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6286269</v>
+        <v>6286238</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45037.625</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
         <v>3</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O68">
         <v>3.6</v>
       </c>
       <c r="P68">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6286238</v>
+        <v>6286269</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45037.625</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
         <v>3</v>
       </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
         <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6286276</v>
+        <v>6286274</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45058.625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
         <v>3.75</v>
       </c>
       <c r="N80">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.675</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
         <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,13 +7636,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.675</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6286274</v>
+        <v>6286276</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,58 +7754,58 @@
         <v>45058.625</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>47</v>
       </c>
       <c r="K82">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
         <v>3.75</v>
       </c>
       <c r="N82">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.675</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W82">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7814,13 +7814,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>0.675</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6286246</v>
+        <v>6286245</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45059.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
         <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="L84">
         <v>5.75</v>
       </c>
       <c r="M84">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="N84">
-        <v>1.125</v>
+        <v>1.166</v>
       </c>
       <c r="O84">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q84">
-        <v>-2.25</v>
+        <v>-2</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T84">
         <v>3.75</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W84">
-        <v>0.125</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6286245</v>
+        <v>6286246</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45059.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L85">
         <v>5.75</v>
       </c>
       <c r="M85">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="N85">
-        <v>1.166</v>
+        <v>1.125</v>
       </c>
       <c r="O85">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="P85">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q85">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>3.75</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>0.1659999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6811722</v>
+        <v>6809711</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,43 +8380,43 @@
         <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
         <v>2.75</v>
@@ -8428,25 +8428,25 @@
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6809711</v>
+        <v>6811722</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,43 +8469,43 @@
         <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N90">
+        <v>1.8</v>
+      </c>
+      <c r="O90">
+        <v>3.6</v>
+      </c>
+      <c r="P90">
+        <v>3.5</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>1.85</v>
+      </c>
+      <c r="S90">
         <v>1.95</v>
-      </c>
-      <c r="O90">
-        <v>3.5</v>
-      </c>
-      <c r="P90">
-        <v>3.2</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.775</v>
-      </c>
-      <c r="S90">
-        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.75</v>
@@ -8517,25 +8517,25 @@
         <v>1.975</v>
       </c>
       <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>2.5</v>
+      </c>
+      <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.95</v>
       </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6811719</v>
+        <v>6809716</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45157.625</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
         <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6809716</v>
+        <v>6811719</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45157.625</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6809719</v>
+        <v>6809720</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,40 +9534,40 @@
         <v>45163.625</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L102">
+        <v>4</v>
+      </c>
+      <c r="M102">
         <v>3.4</v>
       </c>
-      <c r="M102">
-        <v>2.5</v>
-      </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
         <v>1.9</v>
@@ -9576,14 +9576,14 @@
         <v>1.9</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
         <v>1.85</v>
       </c>
-      <c r="V102">
-        <v>1.95</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.909</v>
+        <v>2.2</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9600,10 +9600,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6809720</v>
+        <v>6809719</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,40 +9623,40 @@
         <v>45163.625</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N103">
+        <v>3.6</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
         <v>1.909</v>
       </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>3.2</v>
-      </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
         <v>1.9</v>
@@ -9665,14 +9665,14 @@
         <v>1.9</v>
       </c>
       <c r="T103">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
+        <v>1.85</v>
+      </c>
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.2</v>
+        <v>0.909</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9689,10 +9689,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6809722</v>
+        <v>6809723</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,58 +9712,58 @@
         <v>45164.625</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
         <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N104">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
         <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9778,10 +9778,10 @@
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.5625</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6809723</v>
+        <v>6809722</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,58 +9801,58 @@
         <v>45164.625</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
         <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>47</v>
       </c>
       <c r="K105">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L105">
         <v>3.4</v>
       </c>
       <c r="M105">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,10 +9867,10 @@
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.5625</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9979,7 +9979,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
         <v>44</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809727</v>
+        <v>6809726</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45170.625</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,61 +10172,61 @@
         <v>49</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N109">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6809726</v>
+        <v>6809727</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45170.625</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,61 +10261,61 @@
         <v>49</v>
       </c>
       <c r="K110">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10338,7 +10338,7 @@
         <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6811715</v>
+        <v>6809728</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45171.625</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
+        <v>1.533</v>
+      </c>
+      <c r="O112">
+        <v>4.333</v>
+      </c>
+      <c r="P112">
+        <v>4.75</v>
+      </c>
+      <c r="Q112">
+        <v>-1</v>
+      </c>
+      <c r="R112">
+        <v>1.925</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
+        <v>3.25</v>
+      </c>
+      <c r="U112">
         <v>1.95</v>
       </c>
-      <c r="O112">
-        <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>3.25</v>
-      </c>
-      <c r="Q112">
+      <c r="V112">
+        <v>1.85</v>
+      </c>
+      <c r="W112">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>-0</v>
+      </c>
+      <c r="AB112">
         <v>-0.5</v>
       </c>
-      <c r="R112">
-        <v>1.975</v>
-      </c>
-      <c r="S112">
-        <v>1.825</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>2.6</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>-1</v>
-      </c>
-      <c r="AA112">
-        <v>0.825</v>
-      </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6809728</v>
+        <v>6811715</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45171.625</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N113">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,73 +10869,73 @@
         <v>45184.625</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R117">
         <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
         <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,73 +10958,73 @@
         <v>45184.625</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N118">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q118">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
         <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>0.925</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11050,7 +11050,7 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11581,7 +11581,7 @@
         <v>45191.625</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
         <v>32</v>
@@ -12118,7 +12118,7 @@
         <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45198.625</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N133">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
-        <v>1.85</v>
-      </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z133">
+        <v>0.425</v>
+      </c>
+      <c r="AA133">
         <v>-0.5</v>
       </c>
-      <c r="AA133">
-        <v>0.425</v>
-      </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45198.625</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q134">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
         <v>1.85</v>
       </c>
-      <c r="S134">
-        <v>1.95</v>
-      </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-0.5</v>
+      </c>
+      <c r="AA134">
         <v>0.425</v>
       </c>
-      <c r="AA134">
-        <v>-0.5</v>
-      </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6809744</v>
+        <v>6809749</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45199.625</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L136">
         <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6809749</v>
+        <v>6809744</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45199.625</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
+        <v>2.3</v>
+      </c>
+      <c r="N137">
+        <v>2.3</v>
+      </c>
+      <c r="O137">
+        <v>3.5</v>
+      </c>
+      <c r="P137">
+        <v>2.55</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.825</v>
+      </c>
+      <c r="S137">
+        <v>1.975</v>
+      </c>
+      <c r="T137">
+        <v>3</v>
+      </c>
+      <c r="U137">
+        <v>1.9</v>
+      </c>
+      <c r="V137">
+        <v>1.9</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>2.5</v>
       </c>
-      <c r="N137">
-        <v>2.15</v>
-      </c>
-      <c r="O137">
-        <v>3.4</v>
-      </c>
-      <c r="P137">
-        <v>2.8</v>
-      </c>
-      <c r="Q137">
-        <v>-0.25</v>
-      </c>
-      <c r="R137">
-        <v>2</v>
-      </c>
-      <c r="S137">
-        <v>1.8</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
         <v>37</v>
@@ -13361,10 +13361,10 @@
         <v>45206.625</v>
       </c>
       <c r="F145" t="s">
+        <v>42</v>
+      </c>
+      <c r="G145" t="s">
         <v>43</v>
-      </c>
-      <c r="G145" t="s">
-        <v>42</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6809766</v>
+        <v>6809765</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45227.625</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L160">
         <v>3.8</v>
       </c>
       <c r="M160">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N160">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
         <v>1.825</v>
       </c>
-      <c r="S160">
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.875</v>
+      </c>
+      <c r="V160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>3.25</v>
-      </c>
-      <c r="U160">
-        <v>1.95</v>
-      </c>
-      <c r="V160">
-        <v>1.85</v>
-      </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6809765</v>
+        <v>6809766</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,76 +14785,76 @@
         <v>45227.625</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L161">
         <v>3.8</v>
       </c>
       <c r="M161">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N161">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
+        <v>1.85</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
         <v>1.875</v>
       </c>
-      <c r="V161">
-        <v>1.975</v>
-      </c>
-      <c r="W161">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
       <c r="Z161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>45228.63541666666</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G164" t="s">
         <v>34</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811702</v>
+        <v>6811701</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,55 +15141,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N165">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,19 +15198,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6811701</v>
+        <v>6811702</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
+        <v>4.5</v>
+      </c>
+      <c r="Q166">
+        <v>-0.75</v>
+      </c>
+      <c r="R166">
+        <v>1.8</v>
+      </c>
+      <c r="S166">
         <v>2.05</v>
-      </c>
-      <c r="Q166">
-        <v>0.25</v>
-      </c>
-      <c r="R166">
-        <v>1.95</v>
-      </c>
-      <c r="S166">
-        <v>1.85</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,19 +15287,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
+        <v>3.5</v>
+      </c>
+      <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
         <v>1.05</v>
       </c>
-      <c r="Z166">
-        <v>-1</v>
-      </c>
-      <c r="AA166">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>45235.5</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6809779</v>
+        <v>6809776</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L173">
         <v>4</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N173">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
-        <v>0.615</v>
+        <v>2.8</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC173">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6809776</v>
+        <v>6809779</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L174">
         <v>4</v>
       </c>
       <c r="M174">
+        <v>4.5</v>
+      </c>
+      <c r="N174">
+        <v>1.615</v>
+      </c>
+      <c r="O174">
+        <v>4</v>
+      </c>
+      <c r="P174">
+        <v>4.5</v>
+      </c>
+      <c r="Q174">
+        <v>-0.75</v>
+      </c>
+      <c r="R174">
+        <v>1.85</v>
+      </c>
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="U174">
+        <v>2.05</v>
+      </c>
+      <c r="V174">
         <v>1.8</v>
       </c>
-      <c r="N174">
-        <v>3.8</v>
-      </c>
-      <c r="O174">
-        <v>4.2</v>
-      </c>
-      <c r="P174">
-        <v>1.7</v>
-      </c>
-      <c r="Q174">
-        <v>0.75</v>
-      </c>
-      <c r="R174">
-        <v>1.9</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
-      </c>
-      <c r="T174">
-        <v>3.25</v>
-      </c>
-      <c r="U174">
-        <v>1.925</v>
-      </c>
-      <c r="V174">
-        <v>1.925</v>
-      </c>
       <c r="W174">
-        <v>2.8</v>
+        <v>0.615</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
         <v>38</v>
@@ -16476,7 +16476,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
         <v>45</v>
@@ -16657,7 +16657,7 @@
         <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6809785</v>
+        <v>6809782</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,49 +16832,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J184" t="s">
         <v>48</v>
       </c>
       <c r="K184">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M184">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N184">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P184">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U184">
         <v>1.8</v>
@@ -16889,19 +16889,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
+        <v>4.5</v>
+      </c>
+      <c r="Z184">
+        <v>-1</v>
+      </c>
+      <c r="AA184">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB184">
         <v>0.8</v>
       </c>
-      <c r="Z184">
-        <v>-1</v>
-      </c>
-      <c r="AA184">
-        <v>0.8</v>
-      </c>
-      <c r="AB184">
-        <v>-1</v>
-      </c>
       <c r="AC184">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6809782</v>
+        <v>6809785</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,49 +16921,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>48</v>
       </c>
       <c r="K185">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="L185">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N185">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="O185">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P185">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q185">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
         <v>1.8</v>
@@ -16978,19 +16978,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6809789</v>
+        <v>6809787</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,52 +17277,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N189">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V189">
         <v>1.8</v>
@@ -17334,13 +17334,13 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.2</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6809787</v>
+        <v>6809789</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,52 +17366,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
         <v>48</v>
       </c>
       <c r="K190">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V190">
         <v>1.8</v>
@@ -17423,13 +17423,13 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>1.2</v>
       </c>
       <c r="AB190">
         <v>-1</v>
@@ -17811,7 +17811,7 @@
         <v>45263.5</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
         <v>41</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,13 +17900,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -17915,34 +17915,34 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N196">
+        <v>4.75</v>
+      </c>
+      <c r="O196">
+        <v>4.333</v>
+      </c>
+      <c r="P196">
         <v>1.5</v>
       </c>
-      <c r="O196">
-        <v>4</v>
-      </c>
-      <c r="P196">
-        <v>5.75</v>
-      </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U196">
         <v>1.9</v>
@@ -17951,7 +17951,7 @@
         <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,7 +17960,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,13 +17989,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18004,34 +18004,34 @@
         <v>47</v>
       </c>
       <c r="K197">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
         <v>4</v>
       </c>
-      <c r="M197">
-        <v>1.55</v>
-      </c>
       <c r="N197">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O197">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18040,7 +18040,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18049,7 +18049,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18170,7 +18170,7 @@
         <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18612,7 +18612,7 @@
         <v>45270.5</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G204" t="s">
         <v>46</v>
@@ -18882,7 +18882,7 @@
         <v>32</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -18968,7 +18968,7 @@
         <v>45276.5</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
         <v>30</v>
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K209">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L209">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M209">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N209">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P209">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC209">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K210">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L210">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N210">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O210">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q210">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6809805</v>
+        <v>6811689</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N214">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O214">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
+        <v>1.8</v>
+      </c>
+      <c r="V214">
         <v>2.05</v>
       </c>
-      <c r="V214">
-        <v>1.8</v>
-      </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X214">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6811689</v>
+        <v>6809805</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L215">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N215">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P215">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
+        <v>2.025</v>
+      </c>
+      <c r="T215">
+        <v>3.25</v>
+      </c>
+      <c r="U215">
+        <v>2.05</v>
+      </c>
+      <c r="V215">
         <v>1.8</v>
       </c>
-      <c r="S215">
-        <v>2.05</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.8</v>
-      </c>
-      <c r="V215">
-        <v>2.05</v>
-      </c>
       <c r="W215">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>1.025</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
         <v>0.8</v>
-      </c>
-      <c r="AA215">
-        <v>-1</v>
-      </c>
-      <c r="AB215">
-        <v>-1</v>
-      </c>
-      <c r="AC215">
-        <v>1.05</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6809804</v>
+        <v>6809809</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,56 +19769,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N217">
+        <v>5.25</v>
+      </c>
+      <c r="O217">
         <v>4.2</v>
       </c>
-      <c r="O217">
-        <v>3.8</v>
-      </c>
       <c r="P217">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q217">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R217">
+        <v>1.975</v>
+      </c>
+      <c r="S217">
+        <v>1.825</v>
+      </c>
+      <c r="T217">
+        <v>3</v>
+      </c>
+      <c r="U217">
+        <v>1.95</v>
+      </c>
+      <c r="V217">
         <v>1.85</v>
       </c>
-      <c r="S217">
-        <v>1.95</v>
-      </c>
-      <c r="T217">
-        <v>2.75</v>
-      </c>
-      <c r="U217">
-        <v>1.85</v>
-      </c>
-      <c r="V217">
-        <v>1.95</v>
-      </c>
       <c r="W217">
         <v>-1</v>
       </c>
@@ -19826,19 +19826,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC217">
-        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6809809</v>
+        <v>6809804</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,56 +19858,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J218" t="s">
         <v>48</v>
       </c>
       <c r="K218">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N218">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O218">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P218">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q218">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
+        <v>1.85</v>
+      </c>
+      <c r="V218">
         <v>1.95</v>
       </c>
-      <c r="V218">
-        <v>1.85</v>
-      </c>
       <c r="W218">
         <v>-1</v>
       </c>
@@ -19915,19 +19915,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20392,7 +20392,7 @@
         <v>45312.5</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
         <v>39</v>
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>47</v>
+      </c>
+      <c r="K226">
+        <v>4.2</v>
+      </c>
+      <c r="L226">
+        <v>3.6</v>
+      </c>
+      <c r="M226">
+        <v>1.8</v>
+      </c>
+      <c r="N226">
         <v>4</v>
       </c>
-      <c r="J226" t="s">
-        <v>48</v>
-      </c>
-      <c r="K226">
-        <v>6.5</v>
-      </c>
-      <c r="L226">
-        <v>4.5</v>
-      </c>
-      <c r="M226">
-        <v>1.444</v>
-      </c>
-      <c r="N226">
-        <v>7.5</v>
-      </c>
       <c r="O226">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q226">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T226">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
         <v>1.825</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M227">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P227">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q227">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V227">
         <v>1.825</v>
       </c>
       <c r="W227">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21104,7 +21104,7 @@
         <v>45319.5</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G232" t="s">
         <v>45</v>
@@ -21816,7 +21816,7 @@
         <v>45326.5</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
         <v>46</v>
@@ -21905,7 +21905,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F241" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
         <v>35</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7755425</v>
+        <v>7755427</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,58 +21994,58 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
         <v>47</v>
       </c>
       <c r="K242">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M242">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N242">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O242">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P242">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R242">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S242">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T242">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U242">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W242">
-        <v>1.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X242">
         <v>-1</v>
@@ -22054,16 +22054,16 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA242">
         <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AC242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7755426</v>
+        <v>7755425</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,40 +22083,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L243">
         <v>3.5</v>
       </c>
       <c r="M243">
+        <v>3.3</v>
+      </c>
+      <c r="N243">
         <v>2.5</v>
-      </c>
-      <c r="N243">
-        <v>2.9</v>
       </c>
       <c r="O243">
         <v>3.5</v>
       </c>
       <c r="P243">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q243">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R243">
         <v>1.85</v>
@@ -22128,31 +22128,31 @@
         <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X243">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA243">
+        <v>-1</v>
+      </c>
+      <c r="AB243">
+        <v>0.45</v>
+      </c>
+      <c r="AC243">
         <v>-0.5</v>
-      </c>
-      <c r="AB243">
-        <v>-1</v>
-      </c>
-      <c r="AC243">
-        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7755427</v>
+        <v>7755426</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G244" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L244">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M244">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N244">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O244">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P244">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W244">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB244">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22353,7 +22353,7 @@
         <v>29</v>
       </c>
       <c r="G246" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22887,7 +22887,7 @@
         <v>44</v>
       </c>
       <c r="G252" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -23332,7 +23332,7 @@
         <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G259" t="s">
         <v>34</v>
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6809842</v>
+        <v>6809846</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,46 +23774,46 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G262" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K262">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L262">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M262">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N262">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O262">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P262">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q262">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S262">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T262">
         <v>2.75</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W262">
         <v>0</v>
@@ -23836,7 +23836,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6809846</v>
+        <v>6809842</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23848,46 +23848,46 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K263">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L263">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M263">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N263">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O263">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q263">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R263">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T263">
         <v>2.75</v>
       </c>
       <c r="U263">
+        <v>1.875</v>
+      </c>
+      <c r="V263">
         <v>1.975</v>
-      </c>
-      <c r="V263">
-        <v>1.875</v>
       </c>
       <c r="W263">
         <v>0</v>
@@ -23937,31 +23937,31 @@
         <v>1.5</v>
       </c>
       <c r="N264">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O264">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q264">
         <v>1</v>
       </c>
       <c r="R264">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S264">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V264">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W264">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>-0.75</v>
       </c>
       <c r="R265">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S265">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T265">
         <v>2.75</v>
@@ -24070,7 +24070,7 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G266" t="s">
         <v>39</v>
@@ -24097,19 +24097,19 @@
         <v>-1.25</v>
       </c>
       <c r="R266">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S266">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T266">
         <v>3</v>
       </c>
       <c r="U266">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V266">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W266">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>-1.25</v>
       </c>
       <c r="R267">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S267">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T267">
         <v>3</v>
       </c>
       <c r="U267">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V267">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24307,22 +24307,22 @@
         <v>2</v>
       </c>
       <c r="N269">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O269">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P269">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q269">
         <v>0.5</v>
       </c>
       <c r="R269">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S269">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T269">
         <v>2.75</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6171231</v>
+        <v>6171232</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,58 +1257,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6171232</v>
+        <v>6171231</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1346,58 +1346,58 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N10">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>-0</v>
-      </c>
-      <c r="AB10">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6204843</v>
+        <v>6204844</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,10 +1880,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1895,58 +1895,58 @@
         <v>49</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="N16">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6204844</v>
+        <v>6204843</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,10 +1969,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1984,58 +1984,58 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N17">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O17">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5216168</v>
+        <v>5216169</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S23">
+        <v>2.05</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
         <v>1.8</v>
       </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5216169</v>
+        <v>5216168</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
+        <v>2.8</v>
+      </c>
+      <c r="Q25">
+        <v>-0.25</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1.8</v>
+      </c>
+      <c r="T25">
+        <v>3.25</v>
+      </c>
+      <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
+        <v>1.85</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
         <v>2.6</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.75</v>
-      </c>
-      <c r="S25">
-        <v>2.05</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.8</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
       <c r="Y25">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6286250</v>
+        <v>6286220</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
         <v>1.95</v>
       </c>
-      <c r="S32">
-        <v>1.9</v>
-      </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>0.95</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6286220</v>
+        <v>6286250</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
+        <v>1.9</v>
+      </c>
+      <c r="T33">
+        <v>2.5</v>
+      </c>
+      <c r="U33">
+        <v>1.9</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.95</v>
-      </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.95</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6286256</v>
+        <v>6286226</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O44">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P44">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X44">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6286226</v>
+        <v>6286256</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6286229</v>
+        <v>6286259</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45016.625</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
+        <v>2.4</v>
+      </c>
+      <c r="L50">
         <v>3.2</v>
       </c>
-      <c r="L50">
-        <v>3.6</v>
-      </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N50">
+        <v>2.15</v>
+      </c>
+      <c r="O50">
+        <v>3.3</v>
+      </c>
+      <c r="P50">
         <v>2.9</v>
       </c>
-      <c r="O50">
-        <v>3.5</v>
-      </c>
-      <c r="P50">
-        <v>2.1</v>
-      </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
         <v>1.95</v>
@@ -4948,34 +4948,34 @@
         <v>1.85</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6286259</v>
+        <v>6286229</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45016.625</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
         <v>1.95</v>
@@ -5037,34 +5037,34 @@
         <v>1.85</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6286262</v>
+        <v>6286263</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,55 +5440,55 @@
         <v>45023.625</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N56">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
         <v>3.5</v>
       </c>
       <c r="P56">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5497,19 +5497,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6286263</v>
+        <v>6286262</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,55 +5529,55 @@
         <v>45023.625</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
         <v>3.5</v>
       </c>
       <c r="P57">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5586,19 +5586,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6286238</v>
+        <v>6286268</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,10 +6508,10 @@
         <v>45037.625</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6523,61 +6523,61 @@
         <v>49</v>
       </c>
       <c r="K68">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L68">
+        <v>3.6</v>
+      </c>
+      <c r="M68">
         <v>3.5</v>
       </c>
-      <c r="M68">
-        <v>3</v>
-      </c>
       <c r="N68">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
         <v>1.85</v>
       </c>
-      <c r="S68">
-        <v>1.95</v>
-      </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6286268</v>
+        <v>6286269</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45037.625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
+        <v>3.3</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>1.75</v>
+      </c>
+      <c r="O69">
         <v>3.6</v>
       </c>
-      <c r="M69">
-        <v>3.5</v>
-      </c>
-      <c r="N69">
-        <v>1.65</v>
-      </c>
-      <c r="O69">
-        <v>3.8</v>
-      </c>
       <c r="P69">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
+        <v>1.8</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
         <v>2.75</v>
       </c>
-      <c r="U69">
-        <v>1.875</v>
-      </c>
-      <c r="V69">
-        <v>1.975</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>2.8</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6286269</v>
+        <v>6286238</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45037.625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
         <v>3</v>
       </c>
       <c r="N70">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O70">
         <v>3.6</v>
       </c>
       <c r="P70">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6286239</v>
+        <v>6286240</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,70 +6864,70 @@
         <v>45038.625</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>3</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N72">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6286240</v>
+        <v>6286239</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,70 +6953,70 @@
         <v>45038.625</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>1.55</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>4.75</v>
+      </c>
+      <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
         <v>1.85</v>
-      </c>
-      <c r="N73">
-        <v>4.75</v>
-      </c>
-      <c r="O73">
-        <v>4.333</v>
-      </c>
-      <c r="P73">
-        <v>1.5</v>
-      </c>
-      <c r="Q73">
-        <v>1.25</v>
-      </c>
-      <c r="R73">
-        <v>1.775</v>
-      </c>
-      <c r="S73">
-        <v>2.025</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6286241</v>
+        <v>6286271</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45051.625</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N74">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q74">
         <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y74">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6286271</v>
+        <v>6286241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45051.625</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q75">
         <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z75">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6286273</v>
+        <v>6286242</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45052.625</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P77">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
+        <v>2</v>
+      </c>
+      <c r="T77">
+        <v>3.5</v>
+      </c>
+      <c r="U77">
         <v>1.85</v>
       </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
-      <c r="U77">
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.9</v>
-      </c>
       <c r="W77">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6286242</v>
+        <v>6286273</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45052.625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="I78">
+      <c r="J78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78">
+        <v>2.1</v>
+      </c>
+      <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="J78" t="s">
-        <v>48</v>
-      </c>
-      <c r="K78">
-        <v>3.8</v>
-      </c>
-      <c r="L78">
-        <v>3.75</v>
-      </c>
-      <c r="M78">
-        <v>1.7</v>
-      </c>
       <c r="N78">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="O78">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
+        <v>2.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.85</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
         <v>1.2</v>
       </c>
-      <c r="Q78">
-        <v>2</v>
-      </c>
-      <c r="R78">
-        <v>1.8</v>
-      </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
-      <c r="T78">
-        <v>3.5</v>
-      </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6286274</v>
+        <v>6286276</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45058.625</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
         <v>3.75</v>
       </c>
       <c r="N80">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P80">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.675</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="T80">
         <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W80">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,13 +7636,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>0.675</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6286277</v>
+        <v>6286274</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,58 +7665,58 @@
         <v>45058.625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
+        <v>1.95</v>
+      </c>
+      <c r="S81">
         <v>1.85</v>
-      </c>
-      <c r="S81">
-        <v>1.95</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7725,13 +7725,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6286276</v>
+        <v>6286277</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,13 +7754,13 @@
         <v>45058.625</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -7769,43 +7769,43 @@
         <v>47</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N82">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.675</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7814,13 +7814,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.675</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6809720</v>
+        <v>6809719</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,40 +9534,40 @@
         <v>45163.625</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N102">
+        <v>3.6</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
         <v>1.909</v>
       </c>
-      <c r="O102">
-        <v>4</v>
-      </c>
-      <c r="P102">
-        <v>3.2</v>
-      </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
         <v>1.9</v>
@@ -9576,14 +9576,14 @@
         <v>1.9</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
+        <v>1.85</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.2</v>
+        <v>0.909</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9600,10 +9600,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6809719</v>
+        <v>6809720</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,40 +9623,40 @@
         <v>45163.625</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>2.5</v>
-      </c>
       <c r="N103">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
         <v>1.9</v>
@@ -9665,14 +9665,14 @@
         <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="V103">
-        <v>1.95</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.909</v>
+        <v>2.2</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9689,10 +9689,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45198.625</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q133">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
         <v>1.85</v>
       </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-0.5</v>
+      </c>
+      <c r="AA133">
         <v>0.425</v>
       </c>
-      <c r="AA133">
-        <v>-0.5</v>
-      </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45198.625</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N134">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R134">
+        <v>1.85</v>
+      </c>
+      <c r="S134">
         <v>1.95</v>
       </c>
-      <c r="S134">
-        <v>1.85</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z134">
+        <v>0.425</v>
+      </c>
+      <c r="AA134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.425</v>
-      </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6809749</v>
+        <v>6809744</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45199.625</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L136">
         <v>3.4</v>
       </c>
       <c r="M136">
+        <v>2.3</v>
+      </c>
+      <c r="N136">
+        <v>2.3</v>
+      </c>
+      <c r="O136">
+        <v>3.5</v>
+      </c>
+      <c r="P136">
+        <v>2.55</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
+        <v>1.975</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.9</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
         <v>2.5</v>
       </c>
-      <c r="N136">
-        <v>2.15</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
-      <c r="P136">
-        <v>2.8</v>
-      </c>
-      <c r="Q136">
-        <v>-0.25</v>
-      </c>
-      <c r="R136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>1.8</v>
-      </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
       <c r="Y136">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6809744</v>
+        <v>6809749</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45199.625</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6809750</v>
+        <v>6809753</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,49 +13005,49 @@
         <v>45205.625</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L141">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N141">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13056,25 +13056,25 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809753</v>
+        <v>6809750</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,49 +13094,49 @@
         <v>45205.625</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N142">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
         <v>1.975</v>
@@ -13145,25 +13145,25 @@
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6809760</v>
+        <v>6809759</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,49 +13717,49 @@
         <v>45219.625</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>47</v>
       </c>
       <c r="K149">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L149">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N149">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
         <v>1.775</v>
@@ -13768,7 +13768,7 @@
         <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,16 +13777,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>0.3875</v>
+      </c>
+      <c r="AC149">
         <v>-0.5</v>
-      </c>
-      <c r="AB149">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC149">
-        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6809759</v>
+        <v>6809760</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,49 +13806,49 @@
         <v>45219.625</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M150">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
         <v>1.775</v>
@@ -13857,7 +13857,7 @@
         <v>2.025</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,16 +13866,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6809761</v>
+        <v>6811706</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,10 +13984,10 @@
         <v>45220.625</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13999,43 +13999,43 @@
         <v>47</v>
       </c>
       <c r="K152">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N152">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14044,16 +14044,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6811706</v>
+        <v>6809761</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,10 +14073,10 @@
         <v>45220.625</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14088,43 +14088,43 @@
         <v>47</v>
       </c>
       <c r="K153">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N153">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14133,16 +14133,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6809791</v>
+        <v>6809788</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,49 +17544,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>48</v>
       </c>
       <c r="K192">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L192">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N192">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O192">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q192">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>2.2</v>
       </c>
       <c r="T192">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U192">
         <v>1.975</v>
@@ -17601,19 +17601,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.9750000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB192">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6809788</v>
+        <v>6809791</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,49 +17633,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
         <v>48</v>
       </c>
       <c r="K193">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M193">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N193">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P193">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="Q193">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R193">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U193">
         <v>1.975</v>
@@ -17690,19 +17690,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.8500000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1.2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC193">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K198">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O198">
         <v>3.5</v>
       </c>
       <c r="P198">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z198">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N199">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O199">
         <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y199">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA199">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6809803</v>
+        <v>6811691</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N206">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O206">
         <v>4</v>
       </c>
       <c r="P206">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
+        <v>1.975</v>
+      </c>
+      <c r="S206">
+        <v>1.825</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
         <v>1.95</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.85</v>
       </c>
-      <c r="T206">
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
         <v>3</v>
       </c>
-      <c r="U206">
-        <v>1.85</v>
-      </c>
-      <c r="V206">
-        <v>1.95</v>
-      </c>
-      <c r="W206">
-        <v>0.615</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6811691</v>
+        <v>6809803</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K207">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L207">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M207">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N207">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O207">
         <v>4</v>
       </c>
       <c r="P207">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="V207">
-        <v>1.85</v>
-      </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X207">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA207">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K209">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L209">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N209">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O209">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K210">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M210">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N210">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P210">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S210">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC210">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M226">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N226">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P226">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q226">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
         <v>1.825</v>
       </c>
       <c r="W226">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z226">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>47</v>
+      </c>
+      <c r="K227">
+        <v>4.2</v>
+      </c>
+      <c r="L227">
+        <v>3.6</v>
+      </c>
+      <c r="M227">
+        <v>1.8</v>
+      </c>
+      <c r="N227">
         <v>4</v>
       </c>
-      <c r="J227" t="s">
-        <v>48</v>
-      </c>
-      <c r="K227">
-        <v>6.5</v>
-      </c>
-      <c r="L227">
-        <v>4.5</v>
-      </c>
-      <c r="M227">
-        <v>1.444</v>
-      </c>
-      <c r="N227">
-        <v>7.5</v>
-      </c>
       <c r="O227">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q227">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
         <v>1.825</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6809823</v>
+        <v>6809825</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,10 +21282,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21297,25 +21297,25 @@
         <v>48</v>
       </c>
       <c r="K234">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M234">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="N234">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="Q234">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R234">
         <v>1.775</v>
@@ -21324,13 +21324,13 @@
         <v>2.025</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U234">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -21339,19 +21339,19 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>1.05</v>
+        <v>0.615</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA234">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB234">
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6809825</v>
+        <v>6809823</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,10 +21371,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -21386,25 +21386,25 @@
         <v>48</v>
       </c>
       <c r="K235">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L235">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N235">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O235">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P235">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="Q235">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R235">
         <v>1.775</v>
@@ -21413,13 +21413,13 @@
         <v>2.025</v>
       </c>
       <c r="T235">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21428,19 +21428,19 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0.615</v>
+        <v>1.05</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6809832</v>
+        <v>6809831</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,40 +22261,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>49</v>
       </c>
       <c r="K245">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L245">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M245">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N245">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O245">
+        <v>3.5</v>
+      </c>
+      <c r="P245">
         <v>3.8</v>
       </c>
-      <c r="P245">
-        <v>4.5</v>
-      </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
         <v>1.95</v>
@@ -22303,19 +22303,19 @@
         <v>1.85</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y245">
         <v>-1</v>
@@ -22327,10 +22327,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB245">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6809831</v>
+        <v>6809832</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,40 +22350,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G246" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>49</v>
       </c>
       <c r="K246">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N246">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O246">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P246">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
         <v>1.95</v>
@@ -22392,19 +22392,19 @@
         <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22416,10 +22416,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC246">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6809834</v>
+        <v>6809828</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,55 +22528,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J248" t="s">
         <v>48</v>
       </c>
       <c r="K248">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M248">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N248">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O248">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q248">
         <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
         <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V248">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W248">
         <v>-1</v>
@@ -22585,16 +22585,16 @@
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB248">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC248">
         <v>-0.5</v>
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6809828</v>
+        <v>6809834</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,55 +22617,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G249" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J249" t="s">
         <v>48</v>
       </c>
       <c r="K249">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M249">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N249">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P249">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
         <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -22674,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB249">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC249">
         <v>-0.5</v>
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6811680</v>
+        <v>6809835</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,76 +23329,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G257" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K257">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M257">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N257">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O257">
         <v>3.5</v>
       </c>
       <c r="P257">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R257">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S257">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA257">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23406,7 +23406,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6809835</v>
+        <v>6811680</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23418,76 +23418,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G258" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J258" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K258">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L258">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M258">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N258">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O258">
         <v>3.5</v>
       </c>
       <c r="P258">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q258">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R258">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S258">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T258">
         <v>2.75</v>
       </c>
       <c r="U258">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V258">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W258">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z258">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23789,22 +23789,22 @@
         <v>3.5</v>
       </c>
       <c r="N262">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O262">
         <v>3.4</v>
       </c>
       <c r="P262">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q262">
         <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S262">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T262">
         <v>2.75</v>
@@ -23863,22 +23863,22 @@
         <v>5</v>
       </c>
       <c r="N263">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P263">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q263">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S263">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T263">
         <v>2.75</v>
@@ -23937,22 +23937,22 @@
         <v>1.5</v>
       </c>
       <c r="N264">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O264">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P264">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="Q264">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R264">
+        <v>2.025</v>
+      </c>
+      <c r="S264">
         <v>1.825</v>
-      </c>
-      <c r="S264">
-        <v>2.025</v>
       </c>
       <c r="T264">
         <v>3</v>
@@ -24328,10 +24328,10 @@
         <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V269">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W269">
         <v>0</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6204844</v>
+        <v>6204843</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,10 +1880,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1895,58 +1895,58 @@
         <v>49</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N16">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O16">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6204843</v>
+        <v>6204844</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,10 +1969,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1984,58 +1984,58 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M17">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="N17">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5215180</v>
+        <v>5216168</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N24">
         <v>2.2</v>
       </c>
       <c r="O24">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1.8</v>
+      </c>
+      <c r="T24">
+        <v>3.25</v>
+      </c>
+      <c r="U24">
         <v>1.95</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>1.8</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
+        <v>0.4</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5216168</v>
+        <v>5215180</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>2.2</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P25">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
+        <v>1.85</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
         <v>1.8</v>
       </c>
-      <c r="T25">
-        <v>3.25</v>
-      </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6286253</v>
+        <v>6286223</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="I38">
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.4</v>
+      </c>
+      <c r="M38">
+        <v>3.1</v>
+      </c>
+      <c r="N38">
+        <v>2.4</v>
+      </c>
+      <c r="O38">
+        <v>3.3</v>
+      </c>
+      <c r="P38">
+        <v>2.7</v>
+      </c>
+      <c r="Q38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>2.8</v>
-      </c>
-      <c r="L38">
-        <v>3.25</v>
-      </c>
-      <c r="M38">
-        <v>2.25</v>
-      </c>
-      <c r="N38">
-        <v>2.875</v>
-      </c>
-      <c r="O38">
-        <v>3.2</v>
-      </c>
-      <c r="P38">
-        <v>2.25</v>
-      </c>
-      <c r="Q38">
-        <v>0.25</v>
-      </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6286223</v>
+        <v>6286253</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N39">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6286226</v>
+        <v>6286256</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6286256</v>
+        <v>6286226</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6286263</v>
+        <v>6286262</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,55 +5440,55 @@
         <v>45023.625</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O56">
         <v>3.5</v>
       </c>
       <c r="P56">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5497,19 +5497,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6286262</v>
+        <v>6286263</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,55 +5529,55 @@
         <v>45023.625</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O57">
         <v>3.5</v>
       </c>
       <c r="P57">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5586,19 +5586,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6286265</v>
+        <v>6286235</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,58 +5974,58 @@
         <v>45030.625</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M62">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N62">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P62">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,13 +6034,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6286235</v>
+        <v>6286265</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,58 +6063,58 @@
         <v>45030.625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N63">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O63">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6123,13 +6123,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6286240</v>
+        <v>6286239</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,70 +6864,70 @@
         <v>45038.625</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>1.55</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>4.75</v>
+      </c>
+      <c r="Q72">
+        <v>-1</v>
+      </c>
+      <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
-      </c>
-      <c r="N72">
-        <v>4.75</v>
-      </c>
-      <c r="O72">
-        <v>4.333</v>
-      </c>
-      <c r="P72">
-        <v>1.5</v>
-      </c>
-      <c r="Q72">
-        <v>1.25</v>
-      </c>
-      <c r="R72">
-        <v>1.775</v>
-      </c>
-      <c r="S72">
-        <v>2.025</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6286239</v>
+        <v>6286240</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,70 +6953,70 @@
         <v>45038.625</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>3</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N73">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P73">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6286271</v>
+        <v>6286241</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45051.625</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q74">
         <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z74">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6286241</v>
+        <v>6286271</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45051.625</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N75">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q75">
         <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y75">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6286242</v>
+        <v>6286273</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45052.625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77">
+        <v>2.1</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
         <v>3</v>
       </c>
-      <c r="J77" t="s">
-        <v>48</v>
-      </c>
-      <c r="K77">
-        <v>3.8</v>
-      </c>
-      <c r="L77">
-        <v>3.75</v>
-      </c>
-      <c r="M77">
-        <v>1.7</v>
-      </c>
       <c r="N77">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="O77">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
+        <v>2.75</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
+        <v>2.75</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
         <v>1.2</v>
       </c>
-      <c r="Q77">
-        <v>2</v>
-      </c>
-      <c r="R77">
-        <v>1.8</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>3.5</v>
-      </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6286273</v>
+        <v>6286242</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45052.625</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P78">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
+        <v>3.5</v>
+      </c>
+      <c r="U78">
         <v>1.85</v>
       </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
-      <c r="U78">
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.9</v>
-      </c>
       <c r="W78">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6286276</v>
+        <v>6286277</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,13 +7576,13 @@
         <v>45058.625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7591,43 +7591,43 @@
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N80">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>1.675</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
         <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,13 +7636,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.675</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6286277</v>
+        <v>6286276</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,13 +7754,13 @@
         <v>45058.625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -7769,43 +7769,43 @@
         <v>47</v>
       </c>
       <c r="K82">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N82">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W82">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7814,13 +7814,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8500000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6809716</v>
+        <v>6811719</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45157.625</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L97">
         <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N97">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6811719</v>
+        <v>6809716</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45157.625</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6809719</v>
+        <v>6809720</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,40 +9534,40 @@
         <v>45163.625</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L102">
+        <v>4</v>
+      </c>
+      <c r="M102">
         <v>3.4</v>
       </c>
-      <c r="M102">
-        <v>2.5</v>
-      </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
         <v>1.9</v>
@@ -9576,14 +9576,14 @@
         <v>1.9</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
         <v>1.85</v>
       </c>
-      <c r="V102">
-        <v>1.95</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.909</v>
+        <v>2.2</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9600,10 +9600,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6809720</v>
+        <v>6809719</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,40 +9623,40 @@
         <v>45163.625</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N103">
+        <v>3.6</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
         <v>1.909</v>
       </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>3.2</v>
-      </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
         <v>1.9</v>
@@ -9665,14 +9665,14 @@
         <v>1.9</v>
       </c>
       <c r="T103">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
+        <v>1.85</v>
+      </c>
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.2</v>
+        <v>0.909</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9689,10 +9689,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,73 +10869,73 @@
         <v>45184.625</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N117">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
         <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.925</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,73 +10958,73 @@
         <v>45184.625</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R118">
         <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
         <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6809739</v>
+        <v>6809738</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45191.625</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
         <v>3.25</v>
       </c>
       <c r="N125">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q125">
         <v>-0.5</v>
       </c>
       <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>3.25</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>1.9</v>
-      </c>
-      <c r="V125">
-        <v>1.9</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X125">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6809738</v>
+        <v>6809739</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45191.625</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K126">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
         <v>3.25</v>
       </c>
       <c r="N126">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O126">
+        <v>3.5</v>
+      </c>
+      <c r="P126">
         <v>3.75</v>
-      </c>
-      <c r="P126">
-        <v>3.4</v>
       </c>
       <c r="Q126">
         <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45198.625</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N133">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
-        <v>1.85</v>
-      </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z133">
+        <v>0.425</v>
+      </c>
+      <c r="AA133">
         <v>-0.5</v>
       </c>
-      <c r="AA133">
-        <v>0.425</v>
-      </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45198.625</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q134">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
         <v>1.85</v>
       </c>
-      <c r="S134">
-        <v>1.95</v>
-      </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-0.5</v>
+      </c>
+      <c r="AA134">
         <v>0.425</v>
       </c>
-      <c r="AA134">
-        <v>-0.5</v>
-      </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6809744</v>
+        <v>6809749</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45199.625</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L136">
         <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6809749</v>
+        <v>6809744</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45199.625</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
+        <v>2.3</v>
+      </c>
+      <c r="N137">
+        <v>2.3</v>
+      </c>
+      <c r="O137">
+        <v>3.5</v>
+      </c>
+      <c r="P137">
+        <v>2.55</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.825</v>
+      </c>
+      <c r="S137">
+        <v>1.975</v>
+      </c>
+      <c r="T137">
+        <v>3</v>
+      </c>
+      <c r="U137">
+        <v>1.9</v>
+      </c>
+      <c r="V137">
+        <v>1.9</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>2.5</v>
       </c>
-      <c r="N137">
-        <v>2.15</v>
-      </c>
-      <c r="O137">
-        <v>3.4</v>
-      </c>
-      <c r="P137">
-        <v>2.8</v>
-      </c>
-      <c r="Q137">
-        <v>-0.25</v>
-      </c>
-      <c r="R137">
-        <v>2</v>
-      </c>
-      <c r="S137">
-        <v>1.8</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6809754</v>
+        <v>6811708</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45206.625</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>48</v>
+      </c>
+      <c r="K144">
+        <v>2.1</v>
+      </c>
+      <c r="L144">
+        <v>3.25</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>2.4</v>
+      </c>
+      <c r="O144">
+        <v>3.1</v>
+      </c>
+      <c r="P144">
+        <v>2.7</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>1.7</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" t="s">
-        <v>47</v>
-      </c>
-      <c r="K144">
-        <v>1.615</v>
-      </c>
-      <c r="L144">
-        <v>3.9</v>
-      </c>
-      <c r="M144">
-        <v>4.2</v>
-      </c>
-      <c r="N144">
-        <v>1.95</v>
-      </c>
-      <c r="O144">
-        <v>3.75</v>
-      </c>
-      <c r="P144">
-        <v>2.9</v>
-      </c>
-      <c r="Q144">
-        <v>-0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.875</v>
-      </c>
-      <c r="S144">
-        <v>1.975</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.95</v>
-      </c>
-      <c r="V144">
-        <v>1.9</v>
-      </c>
-      <c r="W144">
-        <v>0.95</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>0.875</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6811708</v>
+        <v>6809754</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45206.625</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>2</v>
-      </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M145">
+        <v>4.2</v>
+      </c>
+      <c r="N145">
+        <v>1.95</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>2.9</v>
+      </c>
+      <c r="Q145">
+        <v>-0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
+        <v>1.975</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="N145">
-        <v>2.4</v>
-      </c>
-      <c r="O145">
-        <v>3.1</v>
-      </c>
-      <c r="P145">
-        <v>2.7</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6811706</v>
+        <v>6809761</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,10 +13984,10 @@
         <v>45220.625</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13999,43 +13999,43 @@
         <v>47</v>
       </c>
       <c r="K152">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N152">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W152">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14044,16 +14044,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6809761</v>
+        <v>6811706</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,10 +14073,10 @@
         <v>45220.625</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14088,43 +14088,43 @@
         <v>47</v>
       </c>
       <c r="K153">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M153">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N153">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14133,16 +14133,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6809765</v>
+        <v>6809766</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45227.625</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
         <v>3</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K160">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L160">
         <v>3.8</v>
       </c>
       <c r="M160">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
+        <v>1.85</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
         <v>1.875</v>
       </c>
-      <c r="V160">
-        <v>1.975</v>
-      </c>
-      <c r="W160">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6809766</v>
+        <v>6809765</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,76 +14785,76 @@
         <v>45227.625</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L161">
         <v>3.8</v>
       </c>
       <c r="M161">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N161">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O161">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R161">
+        <v>2.025</v>
+      </c>
+      <c r="S161">
         <v>1.825</v>
       </c>
-      <c r="S161">
+      <c r="T161">
+        <v>2.75</v>
+      </c>
+      <c r="U161">
+        <v>1.875</v>
+      </c>
+      <c r="V161">
         <v>1.975</v>
       </c>
-      <c r="T161">
-        <v>3.25</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811701</v>
+        <v>6811702</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,55 +15141,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M165">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N165">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
+        <v>4.5</v>
+      </c>
+      <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
+        <v>1.8</v>
+      </c>
+      <c r="S165">
         <v>2.05</v>
-      </c>
-      <c r="Q165">
-        <v>0.25</v>
-      </c>
-      <c r="R165">
-        <v>1.95</v>
-      </c>
-      <c r="S165">
-        <v>1.85</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,19 +15198,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
+        <v>3.5</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
         <v>1.05</v>
       </c>
-      <c r="Z165">
-        <v>-1</v>
-      </c>
-      <c r="AA165">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6811702</v>
+        <v>6811701</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N166">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,19 +15287,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6809788</v>
+        <v>6809791</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,49 +17544,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J192" t="s">
         <v>48</v>
       </c>
       <c r="K192">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M192">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N192">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P192">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="Q192">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R192">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S192">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U192">
         <v>1.975</v>
@@ -17601,19 +17601,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.8500000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>1.2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6809791</v>
+        <v>6809788</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,49 +17633,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>48</v>
       </c>
       <c r="K193">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N193">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O193">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q193">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S193">
-        <v>1.975</v>
+        <v>2.2</v>
       </c>
       <c r="T193">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U193">
         <v>1.975</v>
@@ -17690,19 +17690,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.9750000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB193">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,13 +17900,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -17915,34 +17915,34 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L196">
+        <v>3.6</v>
+      </c>
+      <c r="M196">
         <v>4</v>
       </c>
-      <c r="M196">
-        <v>1.55</v>
-      </c>
       <c r="N196">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
         <v>1.9</v>
@@ -17951,7 +17951,7 @@
         <v>1.9</v>
       </c>
       <c r="W196">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,7 +17960,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,13 +17989,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18004,34 +18004,34 @@
         <v>47</v>
       </c>
       <c r="K197">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N197">
+        <v>4.75</v>
+      </c>
+      <c r="O197">
+        <v>4.333</v>
+      </c>
+      <c r="P197">
         <v>1.5</v>
       </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
-      <c r="P197">
-        <v>5.75</v>
-      </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18040,7 +18040,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18049,7 +18049,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N198">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O198">
         <v>3.5</v>
       </c>
       <c r="P198">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA198">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N199">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O199">
         <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z199">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K209">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L209">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M209">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N209">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P209">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC209">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K210">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L210">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N210">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O210">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q210">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6811689</v>
+        <v>6809805</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L214">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N214">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
+        <v>2.025</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>2.05</v>
+      </c>
+      <c r="V214">
         <v>1.8</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>1.8</v>
-      </c>
-      <c r="V214">
-        <v>2.05</v>
-      </c>
       <c r="W214">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>1.025</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
         <v>0.8</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>-1</v>
-      </c>
-      <c r="AC214">
-        <v>1.05</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6809805</v>
+        <v>6811689</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K215">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M215">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N215">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O215">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P215">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
+        <v>1.8</v>
+      </c>
+      <c r="V215">
         <v>2.05</v>
       </c>
-      <c r="V215">
-        <v>1.8</v>
-      </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X215">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6809809</v>
+        <v>6809804</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,56 +19769,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N217">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O217">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P217">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q217">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
+        <v>1.85</v>
+      </c>
+      <c r="V217">
         <v>1.95</v>
       </c>
-      <c r="V217">
-        <v>1.85</v>
-      </c>
       <c r="W217">
         <v>-1</v>
       </c>
@@ -19826,19 +19826,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6809804</v>
+        <v>6809809</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,56 +19858,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
         <v>48</v>
       </c>
       <c r="K218">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L218">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N218">
+        <v>5.25</v>
+      </c>
+      <c r="O218">
         <v>4.2</v>
       </c>
-      <c r="O218">
-        <v>3.8</v>
-      </c>
       <c r="P218">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q218">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R218">
+        <v>1.975</v>
+      </c>
+      <c r="S218">
+        <v>1.825</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>1.95</v>
+      </c>
+      <c r="V218">
         <v>1.85</v>
       </c>
-      <c r="S218">
-        <v>1.95</v>
-      </c>
-      <c r="T218">
-        <v>2.75</v>
-      </c>
-      <c r="U218">
-        <v>1.85</v>
-      </c>
-      <c r="V218">
-        <v>1.95</v>
-      </c>
       <c r="W218">
         <v>-1</v>
       </c>
@@ -19915,19 +19915,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC218">
-        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7755425</v>
+        <v>7755426</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,40 +22083,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L243">
         <v>3.5</v>
       </c>
       <c r="M243">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N243">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O243">
         <v>3.5</v>
       </c>
       <c r="P243">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R243">
         <v>1.85</v>
@@ -22128,31 +22128,31 @@
         <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB243">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7755426</v>
+        <v>7755425</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,40 +22172,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K244">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L244">
         <v>3.5</v>
       </c>
       <c r="M244">
+        <v>3.3</v>
+      </c>
+      <c r="N244">
         <v>2.5</v>
-      </c>
-      <c r="N244">
-        <v>2.9</v>
       </c>
       <c r="O244">
         <v>3.5</v>
       </c>
       <c r="P244">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R244">
         <v>1.85</v>
@@ -22217,31 +22217,31 @@
         <v>2.75</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X244">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>0.45</v>
+      </c>
+      <c r="AC244">
         <v>-0.5</v>
-      </c>
-      <c r="AB244">
-        <v>-1</v>
-      </c>
-      <c r="AC244">
-        <v>0.875</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6809831</v>
+        <v>6809832</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,40 +22261,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G245" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J245" t="s">
         <v>49</v>
       </c>
       <c r="K245">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L245">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M245">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N245">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O245">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P245">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R245">
         <v>1.95</v>
@@ -22303,19 +22303,19 @@
         <v>1.85</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y245">
         <v>-1</v>
@@ -22327,10 +22327,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC245">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6809832</v>
+        <v>6809831</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,40 +22350,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>49</v>
       </c>
       <c r="K246">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L246">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M246">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N246">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O246">
+        <v>3.5</v>
+      </c>
+      <c r="P246">
         <v>3.8</v>
       </c>
-      <c r="P246">
-        <v>4.5</v>
-      </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
         <v>1.95</v>
@@ -22392,19 +22392,19 @@
         <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22416,10 +22416,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB246">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6809828</v>
+        <v>6809834</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,55 +22528,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
         <v>48</v>
       </c>
       <c r="K248">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L248">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M248">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N248">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P248">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q248">
         <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
         <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V248">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W248">
         <v>-1</v>
@@ -22585,16 +22585,16 @@
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB248">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC248">
         <v>-0.5</v>
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6809834</v>
+        <v>6809828</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,55 +22617,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J249" t="s">
         <v>48</v>
       </c>
       <c r="K249">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L249">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M249">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N249">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O249">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P249">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T249">
         <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -22674,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB249">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC249">
         <v>-0.5</v>
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6809838</v>
+        <v>6809839</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23062,73 +23062,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F254" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H254">
+        <v>3</v>
+      </c>
+      <c r="I254">
         <v>1</v>
       </c>
-      <c r="I254">
-        <v>3</v>
-      </c>
       <c r="J254" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K254">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M254">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N254">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O254">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P254">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q254">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R254">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S254">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T254">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U254">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V254">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA254">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23139,7 +23139,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6809839</v>
+        <v>6809838</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,73 +23151,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
         <v>3</v>
       </c>
-      <c r="I255">
+      <c r="J255" t="s">
+        <v>48</v>
+      </c>
+      <c r="K255">
+        <v>4.5</v>
+      </c>
+      <c r="L255">
+        <v>4</v>
+      </c>
+      <c r="M255">
+        <v>1.571</v>
+      </c>
+      <c r="N255">
+        <v>5.25</v>
+      </c>
+      <c r="O255">
+        <v>4.333</v>
+      </c>
+      <c r="P255">
+        <v>1.55</v>
+      </c>
+      <c r="Q255">
         <v>1</v>
       </c>
-      <c r="J255" t="s">
-        <v>47</v>
-      </c>
-      <c r="K255">
-        <v>2.875</v>
-      </c>
-      <c r="L255">
-        <v>3.6</v>
-      </c>
-      <c r="M255">
-        <v>2.05</v>
-      </c>
-      <c r="N255">
-        <v>3.5</v>
-      </c>
-      <c r="O255">
-        <v>3.8</v>
-      </c>
-      <c r="P255">
-        <v>1.95</v>
-      </c>
-      <c r="Q255">
-        <v>0.5</v>
-      </c>
       <c r="R255">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S255">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W255">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z255">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB255">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC255">
         <v>-1</v>
@@ -23779,6 +23779,15 @@
       <c r="G262" t="s">
         <v>29</v>
       </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262" t="s">
+        <v>49</v>
+      </c>
       <c r="K262">
         <v>1.909</v>
       </c>
@@ -23804,31 +23813,37 @@
         <v>1.975</v>
       </c>
       <c r="S262">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
         <v>2.75</v>
       </c>
       <c r="U262">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V262">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA262">
-        <v>0</v>
+        <v>0.4125</v>
+      </c>
+      <c r="AB262">
+        <v>0.95</v>
+      </c>
+      <c r="AC262">
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23853,6 +23868,15 @@
       <c r="G263" t="s">
         <v>38</v>
       </c>
+      <c r="H263">
+        <v>3</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263" t="s">
+        <v>47</v>
+      </c>
       <c r="K263">
         <v>1.533</v>
       </c>
@@ -23863,46 +23887,52 @@
         <v>5</v>
       </c>
       <c r="N263">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O263">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P263">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q263">
         <v>-0.75</v>
       </c>
       <c r="R263">
+        <v>1.925</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
+        <v>2.5</v>
+      </c>
+      <c r="U263">
         <v>1.8</v>
       </c>
-      <c r="S263">
-        <v>2.05</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.875</v>
-      </c>
       <c r="V263">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA263">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB263">
+        <v>0.8</v>
+      </c>
+      <c r="AC263">
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23949,19 +23979,19 @@
         <v>0.75</v>
       </c>
       <c r="R264">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T264">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U264">
+        <v>1.8</v>
+      </c>
+      <c r="V264">
         <v>2.05</v>
-      </c>
-      <c r="V264">
-        <v>1.8</v>
       </c>
       <c r="W264">
         <v>0</v>
@@ -24097,19 +24127,19 @@
         <v>-1.25</v>
       </c>
       <c r="R266">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S266">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T266">
         <v>3</v>
       </c>
       <c r="U266">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V266">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W266">
         <v>0</v>
@@ -24328,10 +24358,10 @@
         <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W269">
         <v>0</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6286220</v>
+        <v>6286250</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
+        <v>1.9</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
+        <v>1.9</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
+        <v>-1</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.95</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6286250</v>
+        <v>6286220</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
         <v>1.95</v>
       </c>
-      <c r="S33">
-        <v>1.9</v>
-      </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>0.95</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6286262</v>
+        <v>6286263</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,55 +5440,55 @@
         <v>45023.625</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N56">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
         <v>3.5</v>
       </c>
       <c r="P56">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5497,19 +5497,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6286263</v>
+        <v>6286262</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,55 +5529,55 @@
         <v>45023.625</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
         <v>3.5</v>
       </c>
       <c r="P57">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5586,19 +5586,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6286268</v>
+        <v>6286269</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45037.625</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L68">
+        <v>3.3</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>1.75</v>
+      </c>
+      <c r="O68">
         <v>3.6</v>
       </c>
-      <c r="M68">
-        <v>3.5</v>
-      </c>
-      <c r="N68">
-        <v>1.65</v>
-      </c>
-      <c r="O68">
-        <v>3.8</v>
-      </c>
       <c r="P68">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
+        <v>1.8</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
         <v>2.75</v>
       </c>
-      <c r="U68">
-        <v>1.875</v>
-      </c>
-      <c r="V68">
-        <v>1.975</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>2.8</v>
-      </c>
-      <c r="Y68">
-        <v>-1</v>
-      </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6286269</v>
+        <v>6286238</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45037.625</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
         <v>3</v>
       </c>
       <c r="N69">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O69">
         <v>3.6</v>
       </c>
       <c r="P69">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6286238</v>
+        <v>6286268</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,10 +6686,10 @@
         <v>45037.625</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6701,61 +6701,61 @@
         <v>49</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
         <v>3.5</v>
       </c>
-      <c r="M70">
-        <v>3</v>
-      </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
         <v>1.85</v>
       </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6809709</v>
+        <v>6809710</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45149.625</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6809710</v>
+        <v>6809709</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45149.625</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>3</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6811719</v>
+        <v>6809716</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45157.625</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
         <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6809716</v>
+        <v>6811719</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45157.625</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6809740</v>
+        <v>6811711</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,34 +11848,34 @@
         <v>45192.625</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
         <v>1.727</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
         <v>3.8</v>
@@ -11884,37 +11884,37 @@
         <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811711</v>
+        <v>6809740</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,34 +11937,34 @@
         <v>45192.625</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N129">
         <v>1.727</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P129">
         <v>3.8</v>
@@ -11973,37 +11973,37 @@
         <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>3.25</v>
+      </c>
+      <c r="U129">
         <v>1.95</v>
       </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3</v>
-      </c>
-      <c r="U129">
+      <c r="V129">
         <v>1.85</v>
       </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X129">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6809749</v>
+        <v>6809744</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45199.625</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L136">
         <v>3.4</v>
       </c>
       <c r="M136">
+        <v>2.3</v>
+      </c>
+      <c r="N136">
+        <v>2.3</v>
+      </c>
+      <c r="O136">
+        <v>3.5</v>
+      </c>
+      <c r="P136">
+        <v>2.55</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
+        <v>1.975</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.9</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
         <v>2.5</v>
       </c>
-      <c r="N136">
-        <v>2.15</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
-      <c r="P136">
-        <v>2.8</v>
-      </c>
-      <c r="Q136">
-        <v>-0.25</v>
-      </c>
-      <c r="R136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>1.8</v>
-      </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
       <c r="Y136">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6809744</v>
+        <v>6809749</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45199.625</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6809770</v>
+        <v>6809768</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="L168">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N168">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="O168">
         <v>3.8</v>
       </c>
       <c r="P168">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6809768</v>
+        <v>6809770</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="L169">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M169">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="O169">
         <v>3.8</v>
       </c>
       <c r="P169">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q169">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X169">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6809776</v>
+        <v>6809779</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L173">
         <v>4</v>
       </c>
       <c r="M173">
+        <v>4.5</v>
+      </c>
+      <c r="N173">
+        <v>1.615</v>
+      </c>
+      <c r="O173">
+        <v>4</v>
+      </c>
+      <c r="P173">
+        <v>4.5</v>
+      </c>
+      <c r="Q173">
+        <v>-0.75</v>
+      </c>
+      <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>2.05</v>
+      </c>
+      <c r="V173">
         <v>1.8</v>
       </c>
-      <c r="N173">
-        <v>3.8</v>
-      </c>
-      <c r="O173">
-        <v>4.2</v>
-      </c>
-      <c r="P173">
-        <v>1.7</v>
-      </c>
-      <c r="Q173">
-        <v>0.75</v>
-      </c>
-      <c r="R173">
-        <v>1.9</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>3.25</v>
-      </c>
-      <c r="U173">
-        <v>1.925</v>
-      </c>
-      <c r="V173">
-        <v>1.925</v>
-      </c>
       <c r="W173">
-        <v>2.8</v>
+        <v>0.615</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6809779</v>
+        <v>6809776</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
         <v>4</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N174">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
-        <v>0.615</v>
+        <v>2.8</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6809780</v>
+        <v>6809783</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,73 +16565,73 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K181">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O181">
         <v>3.5</v>
       </c>
       <c r="P181">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W181">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6809783</v>
+        <v>6809780</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,73 +16654,73 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L182">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N182">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O182">
         <v>3.5</v>
       </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,13 +17900,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -17915,34 +17915,34 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N196">
+        <v>4.75</v>
+      </c>
+      <c r="O196">
+        <v>4.333</v>
+      </c>
+      <c r="P196">
         <v>1.5</v>
       </c>
-      <c r="O196">
-        <v>4</v>
-      </c>
-      <c r="P196">
-        <v>5.75</v>
-      </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U196">
         <v>1.9</v>
@@ -17951,7 +17951,7 @@
         <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,7 +17960,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,13 +17989,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18004,34 +18004,34 @@
         <v>47</v>
       </c>
       <c r="K197">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
         <v>4</v>
       </c>
-      <c r="M197">
-        <v>1.55</v>
-      </c>
       <c r="N197">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O197">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18040,7 +18040,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18049,7 +18049,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K209">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L209">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N209">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O209">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K210">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M210">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N210">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P210">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S210">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC210">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6809804</v>
+        <v>6809809</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,56 +19769,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N217">
+        <v>5.25</v>
+      </c>
+      <c r="O217">
         <v>4.2</v>
       </c>
-      <c r="O217">
-        <v>3.8</v>
-      </c>
       <c r="P217">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q217">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R217">
+        <v>1.975</v>
+      </c>
+      <c r="S217">
+        <v>1.825</v>
+      </c>
+      <c r="T217">
+        <v>3</v>
+      </c>
+      <c r="U217">
+        <v>1.95</v>
+      </c>
+      <c r="V217">
         <v>1.85</v>
       </c>
-      <c r="S217">
-        <v>1.95</v>
-      </c>
-      <c r="T217">
-        <v>2.75</v>
-      </c>
-      <c r="U217">
-        <v>1.85</v>
-      </c>
-      <c r="V217">
-        <v>1.95</v>
-      </c>
       <c r="W217">
         <v>-1</v>
       </c>
@@ -19826,19 +19826,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC217">
-        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6809809</v>
+        <v>6809804</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,56 +19858,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J218" t="s">
         <v>48</v>
       </c>
       <c r="K218">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N218">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O218">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P218">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q218">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
+        <v>1.85</v>
+      </c>
+      <c r="V218">
         <v>1.95</v>
       </c>
-      <c r="V218">
-        <v>1.85</v>
-      </c>
       <c r="W218">
         <v>-1</v>
       </c>
@@ -19915,19 +19915,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H226">
+        <v>3</v>
+      </c>
+      <c r="I226">
         <v>0</v>
       </c>
-      <c r="I226">
+      <c r="J226" t="s">
+        <v>47</v>
+      </c>
+      <c r="K226">
+        <v>4.2</v>
+      </c>
+      <c r="L226">
+        <v>3.6</v>
+      </c>
+      <c r="M226">
+        <v>1.8</v>
+      </c>
+      <c r="N226">
         <v>4</v>
       </c>
-      <c r="J226" t="s">
-        <v>48</v>
-      </c>
-      <c r="K226">
-        <v>6.5</v>
-      </c>
-      <c r="L226">
-        <v>4.5</v>
-      </c>
-      <c r="M226">
-        <v>1.444</v>
-      </c>
-      <c r="N226">
-        <v>7.5</v>
-      </c>
       <c r="O226">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q226">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T226">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
         <v>1.825</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M227">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P227">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q227">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V227">
         <v>1.825</v>
       </c>
       <c r="W227">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7755427</v>
+        <v>7755425</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,58 +21994,58 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H242">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
         <v>47</v>
       </c>
       <c r="K242">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L242">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N242">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O242">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P242">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V242">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
-        <v>0.5329999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X242">
         <v>-1</v>
@@ -22054,16 +22054,16 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA242">
         <v>-1</v>
       </c>
       <c r="AB242">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7755425</v>
+        <v>7755427</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,58 +22172,58 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
         <v>47</v>
       </c>
       <c r="K244">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="L244">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M244">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N244">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O244">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P244">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R244">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
-        <v>1.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22232,16 +22232,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AC244">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6809832</v>
+        <v>6809831</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,40 +22261,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>49</v>
       </c>
       <c r="K245">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L245">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M245">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N245">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O245">
+        <v>3.5</v>
+      </c>
+      <c r="P245">
         <v>3.8</v>
       </c>
-      <c r="P245">
-        <v>4.5</v>
-      </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
         <v>1.95</v>
@@ -22303,19 +22303,19 @@
         <v>1.85</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y245">
         <v>-1</v>
@@ -22327,10 +22327,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB245">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6809831</v>
+        <v>6809832</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,40 +22350,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G246" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>49</v>
       </c>
       <c r="K246">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N246">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O246">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P246">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
         <v>1.95</v>
@@ -22392,19 +22392,19 @@
         <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22416,10 +22416,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC246">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23979,19 +23979,19 @@
         <v>0.75</v>
       </c>
       <c r="R264">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S264">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W264">
         <v>0</v>
@@ -24041,31 +24041,31 @@
         <v>4.75</v>
       </c>
       <c r="N265">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O265">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P265">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q265">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S265">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V265">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24115,13 +24115,13 @@
         <v>6</v>
       </c>
       <c r="N266">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O266">
         <v>4.75</v>
       </c>
       <c r="P266">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q266">
         <v>-1.25</v>
@@ -24133,13 +24133,13 @@
         <v>2.025</v>
       </c>
       <c r="T266">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U266">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V266">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W266">
         <v>0</v>
@@ -24210,10 +24210,10 @@
         <v>3</v>
       </c>
       <c r="U267">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V267">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W267">
         <v>0</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Seraing United</t>
   </si>
   <si>
-    <t>Patro Eisden Maasmechelen</t>
+    <t>RFC Liege</t>
   </si>
   <si>
-    <t>RFC Liege</t>
+    <t>Patro Eisden Maasmechelen</t>
   </si>
   <si>
     <t>KV Oostende</t>
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6204843</v>
+        <v>6204844</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,10 +1880,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1895,58 +1895,58 @@
         <v>49</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="N16">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6204844</v>
+        <v>6204843</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,10 +1969,10 @@
         <v>44960.66666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1984,58 +1984,58 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N17">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O17">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5216168</v>
+        <v>5215180</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <v>2.2</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P24">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
+        <v>1.85</v>
+      </c>
+      <c r="T24">
+        <v>2.5</v>
+      </c>
+      <c r="U24">
         <v>1.8</v>
       </c>
-      <c r="T24">
-        <v>3.25</v>
-      </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5215180</v>
+        <v>5216168</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>44968.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N25">
         <v>2.2</v>
       </c>
       <c r="O25">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1.8</v>
+      </c>
+      <c r="T25">
+        <v>3.25</v>
+      </c>
+      <c r="U25">
         <v>1.95</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>1.85</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.8</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.4</v>
+      </c>
+      <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
-      <c r="AC25">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6286250</v>
+        <v>6286220</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
         <v>1.95</v>
       </c>
-      <c r="S32">
-        <v>1.9</v>
-      </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>0.95</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6286220</v>
+        <v>6286250</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
+        <v>1.9</v>
+      </c>
+      <c r="T33">
+        <v>2.5</v>
+      </c>
+      <c r="U33">
+        <v>1.9</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.95</v>
-      </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.95</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6286223</v>
+        <v>6286253</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N38">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6286253</v>
+        <v>6286223</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>44995.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39">
+        <v>2.1</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>3.1</v>
+      </c>
+      <c r="N39">
+        <v>2.4</v>
+      </c>
+      <c r="O39">
+        <v>3.3</v>
+      </c>
+      <c r="P39">
+        <v>2.7</v>
+      </c>
+      <c r="Q39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>47</v>
-      </c>
-      <c r="K39">
-        <v>2.8</v>
-      </c>
-      <c r="L39">
-        <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>2.25</v>
-      </c>
-      <c r="N39">
-        <v>2.875</v>
-      </c>
-      <c r="O39">
-        <v>3.2</v>
-      </c>
-      <c r="P39">
-        <v>2.25</v>
-      </c>
-      <c r="Q39">
-        <v>0.25</v>
-      </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6286259</v>
+        <v>6286229</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45016.625</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
         <v>1.95</v>
@@ -4948,34 +4948,34 @@
         <v>1.85</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6286229</v>
+        <v>6286259</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45016.625</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>4</v>
-      </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
+        <v>2.4</v>
+      </c>
+      <c r="L51">
         <v>3.2</v>
       </c>
-      <c r="L51">
-        <v>3.6</v>
-      </c>
       <c r="M51">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N51">
+        <v>2.15</v>
+      </c>
+      <c r="O51">
+        <v>3.3</v>
+      </c>
+      <c r="P51">
         <v>2.9</v>
       </c>
-      <c r="O51">
-        <v>3.5</v>
-      </c>
-      <c r="P51">
-        <v>2.1</v>
-      </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
         <v>1.95</v>
@@ -5037,34 +5037,34 @@
         <v>1.85</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6286235</v>
+        <v>6286265</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,58 +5974,58 @@
         <v>45030.625</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L62">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N62">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O62">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,13 +6034,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6286265</v>
+        <v>6286235</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,58 +6063,58 @@
         <v>45030.625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M63">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P63">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6123,13 +6123,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6286238</v>
+        <v>6286268</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,10 +6597,10 @@
         <v>45037.625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6612,61 +6612,61 @@
         <v>49</v>
       </c>
       <c r="K69">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
+        <v>3.6</v>
+      </c>
+      <c r="M69">
         <v>3.5</v>
       </c>
-      <c r="M69">
-        <v>3</v>
-      </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
         <v>1.85</v>
       </c>
-      <c r="S69">
-        <v>1.95</v>
-      </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6286268</v>
+        <v>6286238</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,10 +6686,10 @@
         <v>45037.625</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6701,61 +6701,61 @@
         <v>49</v>
       </c>
       <c r="K70">
+        <v>2.05</v>
+      </c>
+      <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
+      <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
+        <v>2.45</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.6</v>
-      </c>
-      <c r="M70">
-        <v>3.5</v>
-      </c>
-      <c r="N70">
-        <v>1.65</v>
-      </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
-      <c r="P70">
-        <v>4.333</v>
-      </c>
-      <c r="Q70">
-        <v>-0.75</v>
-      </c>
-      <c r="R70">
-        <v>2</v>
-      </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6286239</v>
+        <v>6286240</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,70 +6864,70 @@
         <v>45038.625</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>3</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N72">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6286240</v>
+        <v>6286239</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,70 +6953,70 @@
         <v>45038.625</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>1.55</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>4.75</v>
+      </c>
+      <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
         <v>1.85</v>
-      </c>
-      <c r="N73">
-        <v>4.75</v>
-      </c>
-      <c r="O73">
-        <v>4.333</v>
-      </c>
-      <c r="P73">
-        <v>1.5</v>
-      </c>
-      <c r="Q73">
-        <v>1.25</v>
-      </c>
-      <c r="R73">
-        <v>1.775</v>
-      </c>
-      <c r="S73">
-        <v>2.025</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6286241</v>
+        <v>6286271</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45051.625</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N74">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q74">
         <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y74">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6286271</v>
+        <v>6286241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45051.625</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q75">
         <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z75">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6286277</v>
+        <v>6286274</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45058.625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N80">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
         <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>1.95</v>
       </c>
       <c r="T80">
         <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,13 +7636,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6286274</v>
+        <v>6286277</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,58 +7665,58 @@
         <v>45058.625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L81">
+        <v>3.2</v>
+      </c>
+      <c r="M81">
+        <v>2.6</v>
+      </c>
+      <c r="N81">
+        <v>2.45</v>
+      </c>
+      <c r="O81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>3.75</v>
-      </c>
-      <c r="N81">
-        <v>1.909</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
       <c r="P81">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
         <v>1.95</v>
-      </c>
-      <c r="S81">
-        <v>1.85</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7725,13 +7725,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6286245</v>
+        <v>6286246</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45059.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L84">
         <v>5.75</v>
       </c>
       <c r="M84">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="N84">
-        <v>1.166</v>
+        <v>1.125</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="P84">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R84">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T84">
         <v>3.75</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>0.1659999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6286246</v>
+        <v>6286245</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45059.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
         <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="L85">
         <v>5.75</v>
       </c>
       <c r="M85">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="N85">
-        <v>1.125</v>
+        <v>1.166</v>
       </c>
       <c r="O85">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="P85">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q85">
-        <v>-2.25</v>
+        <v>-2</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T85">
         <v>3.75</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W85">
-        <v>0.125</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6809711</v>
+        <v>6811722</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,43 +8380,43 @@
         <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N89">
+        <v>1.8</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
         <v>1.95</v>
-      </c>
-      <c r="O89">
-        <v>3.5</v>
-      </c>
-      <c r="P89">
-        <v>3.2</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>1.775</v>
-      </c>
-      <c r="S89">
-        <v>2.025</v>
       </c>
       <c r="T89">
         <v>2.75</v>
@@ -8428,25 +8428,25 @@
         <v>1.975</v>
       </c>
       <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>2.5</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
         <v>0.95</v>
       </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6811722</v>
+        <v>6809711</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,43 +8469,43 @@
         <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L90">
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.75</v>
@@ -8517,25 +8517,25 @@
         <v>1.975</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6809716</v>
+        <v>6811719</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45157.625</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L97">
         <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N97">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6811719</v>
+        <v>6809716</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45157.625</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6809720</v>
+        <v>6809719</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,40 +9534,40 @@
         <v>45163.625</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N102">
+        <v>3.6</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
         <v>1.909</v>
       </c>
-      <c r="O102">
-        <v>4</v>
-      </c>
-      <c r="P102">
-        <v>3.2</v>
-      </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
         <v>1.9</v>
@@ -9576,14 +9576,14 @@
         <v>1.9</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
+        <v>1.85</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.2</v>
+        <v>0.909</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9600,10 +9600,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6809719</v>
+        <v>6809720</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,40 +9623,40 @@
         <v>45163.625</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>2.5</v>
-      </c>
       <c r="N103">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
         <v>1.9</v>
@@ -9665,14 +9665,14 @@
         <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="V103">
-        <v>1.95</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.909</v>
+        <v>2.2</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9689,10 +9689,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6809723</v>
+        <v>6809722</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,58 +9712,58 @@
         <v>45164.625</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
         <v>3.4</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9778,10 +9778,10 @@
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.5625</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6809722</v>
+        <v>6809723</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,58 +9801,58 @@
         <v>45164.625</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>47</v>
       </c>
       <c r="K105">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L105">
         <v>3.4</v>
       </c>
       <c r="M105">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N105">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
         <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,10 +9867,10 @@
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.5625</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9979,7 +9979,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
         <v>44</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809726</v>
+        <v>6809727</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45170.625</v>
       </c>
       <c r="F109" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,61 +10172,61 @@
         <v>49</v>
       </c>
       <c r="K109">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N109">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6809727</v>
+        <v>6809726</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45170.625</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,61 +10261,61 @@
         <v>49</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10338,7 +10338,7 @@
         <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6809728</v>
+        <v>6811715</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45171.625</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N112">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6811715</v>
+        <v>6809728</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45171.625</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N113">
+        <v>1.533</v>
+      </c>
+      <c r="O113">
+        <v>4.333</v>
+      </c>
+      <c r="P113">
+        <v>4.75</v>
+      </c>
+      <c r="Q113">
+        <v>-1</v>
+      </c>
+      <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.875</v>
+      </c>
+      <c r="T113">
+        <v>3.25</v>
+      </c>
+      <c r="U113">
         <v>1.95</v>
       </c>
-      <c r="O113">
-        <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>3.25</v>
-      </c>
-      <c r="Q113">
+      <c r="V113">
+        <v>1.85</v>
+      </c>
+      <c r="W113">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>-0</v>
+      </c>
+      <c r="AB113">
         <v>-0.5</v>
       </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.6</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
-      <c r="AA113">
-        <v>0.825</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45184.625</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -11050,7 +11050,7 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6809738</v>
+        <v>6809739</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45191.625</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
         <v>3.25</v>
       </c>
       <c r="N125">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O125">
+        <v>3.5</v>
+      </c>
+      <c r="P125">
         <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>3.4</v>
       </c>
       <c r="Q125">
         <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6809739</v>
+        <v>6809738</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45191.625</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
         <v>3.25</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q126">
         <v>-0.5</v>
       </c>
       <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
+        <v>3.25</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
         <v>1.8</v>
       </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>1.9</v>
-      </c>
-      <c r="V126">
-        <v>1.9</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X126">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12296,7 +12296,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6809744</v>
+        <v>6809749</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45199.625</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L136">
         <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6809749</v>
+        <v>6809744</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45199.625</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
+        <v>2.3</v>
+      </c>
+      <c r="N137">
+        <v>2.3</v>
+      </c>
+      <c r="O137">
+        <v>3.5</v>
+      </c>
+      <c r="P137">
+        <v>2.55</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.825</v>
+      </c>
+      <c r="S137">
+        <v>1.975</v>
+      </c>
+      <c r="T137">
+        <v>3</v>
+      </c>
+      <c r="U137">
+        <v>1.9</v>
+      </c>
+      <c r="V137">
+        <v>1.9</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>2.5</v>
       </c>
-      <c r="N137">
-        <v>2.15</v>
-      </c>
-      <c r="O137">
-        <v>3.4</v>
-      </c>
-      <c r="P137">
-        <v>2.8</v>
-      </c>
-      <c r="Q137">
-        <v>-0.25</v>
-      </c>
-      <c r="R137">
-        <v>2</v>
-      </c>
-      <c r="S137">
-        <v>1.8</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
         <v>37</v>
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6809753</v>
+        <v>6809750</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,49 +13005,49 @@
         <v>45205.625</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N141">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13056,25 +13056,25 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809750</v>
+        <v>6809753</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,49 +13094,49 @@
         <v>45205.625</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
         <v>1.975</v>
@@ -13145,25 +13145,25 @@
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13272,10 +13272,10 @@
         <v>45206.625</v>
       </c>
       <c r="F144" t="s">
+        <v>43</v>
+      </c>
+      <c r="G144" t="s">
         <v>42</v>
-      </c>
-      <c r="G144" t="s">
-        <v>43</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6809759</v>
+        <v>6809760</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,49 +13717,49 @@
         <v>45219.625</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>47</v>
       </c>
       <c r="K149">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M149">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N149">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
         <v>1.775</v>
@@ -13768,7 +13768,7 @@
         <v>2.025</v>
       </c>
       <c r="W149">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,16 +13777,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6809760</v>
+        <v>6809759</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,49 +13806,49 @@
         <v>45219.625</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L150">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N150">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
         <v>1.775</v>
@@ -13857,7 +13857,7 @@
         <v>2.025</v>
       </c>
       <c r="W150">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,16 +13866,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
+        <v>0.3875</v>
+      </c>
+      <c r="AC150">
         <v>-0.5</v>
-      </c>
-      <c r="AB150">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6809766</v>
+        <v>6809765</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45227.625</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L160">
         <v>3.8</v>
       </c>
       <c r="M160">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N160">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
         <v>1.825</v>
       </c>
-      <c r="S160">
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.875</v>
+      </c>
+      <c r="V160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>3.25</v>
-      </c>
-      <c r="U160">
-        <v>1.95</v>
-      </c>
-      <c r="V160">
-        <v>1.85</v>
-      </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6809765</v>
+        <v>6809766</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,76 +14785,76 @@
         <v>45227.625</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L161">
         <v>3.8</v>
       </c>
       <c r="M161">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N161">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
+        <v>1.85</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
         <v>1.875</v>
       </c>
-      <c r="V161">
-        <v>1.975</v>
-      </c>
-      <c r="W161">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
       <c r="Z161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>45228.63541666666</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
         <v>34</v>
@@ -15233,7 +15233,7 @@
         <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15675,7 +15675,7 @@
         <v>45235.5</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6809779</v>
+        <v>6809776</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L173">
         <v>4</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N173">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
-        <v>0.615</v>
+        <v>2.8</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC173">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6809776</v>
+        <v>6809779</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L174">
         <v>4</v>
       </c>
       <c r="M174">
+        <v>4.5</v>
+      </c>
+      <c r="N174">
+        <v>1.615</v>
+      </c>
+      <c r="O174">
+        <v>4</v>
+      </c>
+      <c r="P174">
+        <v>4.5</v>
+      </c>
+      <c r="Q174">
+        <v>-0.75</v>
+      </c>
+      <c r="R174">
+        <v>1.85</v>
+      </c>
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="U174">
+        <v>2.05</v>
+      </c>
+      <c r="V174">
         <v>1.8</v>
       </c>
-      <c r="N174">
-        <v>3.8</v>
-      </c>
-      <c r="O174">
-        <v>4.2</v>
-      </c>
-      <c r="P174">
-        <v>1.7</v>
-      </c>
-      <c r="Q174">
-        <v>0.75</v>
-      </c>
-      <c r="R174">
-        <v>1.9</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
-      </c>
-      <c r="T174">
-        <v>3.25</v>
-      </c>
-      <c r="U174">
-        <v>1.925</v>
-      </c>
-      <c r="V174">
-        <v>1.925</v>
-      </c>
       <c r="W174">
-        <v>2.8</v>
+        <v>0.615</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6809774</v>
+        <v>6811700</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M176">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O176">
+        <v>4</v>
+      </c>
+      <c r="P176">
         <v>3.6</v>
       </c>
-      <c r="P176">
-        <v>1.909</v>
-      </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
+        <v>1.975</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.85</v>
+      </c>
+      <c r="V176">
         <v>1.95</v>
       </c>
-      <c r="T176">
-        <v>3</v>
-      </c>
-      <c r="U176">
-        <v>2.025</v>
-      </c>
-      <c r="V176">
-        <v>1.825</v>
-      </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
+        <v>-1</v>
+      </c>
+      <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.95</v>
-      </c>
-      <c r="AB176">
-        <v>1.025</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6811700</v>
+        <v>6809774</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K177">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N177">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
+        <v>1.9</v>
+      </c>
+      <c r="S177">
+        <v>1.95</v>
+      </c>
+      <c r="T177">
+        <v>3</v>
+      </c>
+      <c r="U177">
+        <v>2.025</v>
+      </c>
+      <c r="V177">
         <v>1.825</v>
       </c>
-      <c r="S177">
-        <v>1.975</v>
-      </c>
-      <c r="T177">
-        <v>2.75</v>
-      </c>
-      <c r="U177">
-        <v>1.85</v>
-      </c>
-      <c r="V177">
-        <v>1.95</v>
-      </c>
       <c r="W177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
         <v>38</v>
@@ -16476,7 +16476,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
         <v>45</v>
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6809783</v>
+        <v>6809780</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,73 +16565,73 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N181">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
         <v>3.5</v>
       </c>
       <c r="P181">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6809780</v>
+        <v>6809783</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,73 +16654,73 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L182">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N182">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O182">
         <v>3.5</v>
       </c>
       <c r="P182">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S182">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z182">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB182">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6809782</v>
+        <v>6809785</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,49 +16832,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>48</v>
       </c>
       <c r="K184">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="L184">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N184">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="O184">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
         <v>1.8</v>
@@ -16889,19 +16889,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6809785</v>
+        <v>6809782</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,49 +16921,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J185" t="s">
         <v>48</v>
       </c>
       <c r="K185">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M185">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N185">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="O185">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P185">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U185">
         <v>1.8</v>
@@ -16978,19 +16978,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
+        <v>4.5</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB185">
         <v>0.8</v>
       </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
-      <c r="AA185">
-        <v>0.8</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
       <c r="AC185">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17366,7 +17366,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
         <v>35</v>
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6809791</v>
+        <v>6809788</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,49 +17544,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>48</v>
       </c>
       <c r="K192">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L192">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N192">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O192">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q192">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>2.2</v>
       </c>
       <c r="T192">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U192">
         <v>1.975</v>
@@ -17601,19 +17601,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.9750000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB192">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6809788</v>
+        <v>6809791</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,49 +17633,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
         <v>48</v>
       </c>
       <c r="K193">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M193">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N193">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P193">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="Q193">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R193">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U193">
         <v>1.975</v>
@@ -17690,19 +17690,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.8500000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1.2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC193">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17811,7 +17811,7 @@
         <v>45263.5</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
         <v>41</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,13 +17900,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -17915,34 +17915,34 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L196">
+        <v>3.6</v>
+      </c>
+      <c r="M196">
         <v>4</v>
       </c>
-      <c r="M196">
-        <v>1.55</v>
-      </c>
       <c r="N196">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
         <v>1.9</v>
@@ -17951,7 +17951,7 @@
         <v>1.9</v>
       </c>
       <c r="W196">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,7 +17960,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,13 +17989,13 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18004,34 +18004,34 @@
         <v>47</v>
       </c>
       <c r="K197">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N197">
+        <v>4.75</v>
+      </c>
+      <c r="O197">
+        <v>4.333</v>
+      </c>
+      <c r="P197">
         <v>1.5</v>
       </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
-      <c r="P197">
-        <v>5.75</v>
-      </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18040,7 +18040,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18049,7 +18049,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K198">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O198">
         <v>3.5</v>
       </c>
       <c r="P198">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z198">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N199">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O199">
         <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y199">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA199">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6809796</v>
+        <v>6809792</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,10 +18345,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18360,41 +18360,41 @@
         <v>48</v>
       </c>
       <c r="K201">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M201">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N201">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R201">
+        <v>1.775</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>3</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
         <v>1.8</v>
       </c>
-      <c r="S201">
-        <v>2</v>
-      </c>
-      <c r="T201">
-        <v>3.25</v>
-      </c>
-      <c r="U201">
-        <v>1.95</v>
-      </c>
-      <c r="V201">
-        <v>1.85</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6809792</v>
+        <v>6809796</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,10 +18434,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18449,61 +18449,61 @@
         <v>48</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L202">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M202">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N202">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P202">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q202">
+        <v>0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.8</v>
+      </c>
+      <c r="S202">
+        <v>2</v>
+      </c>
+      <c r="T202">
+        <v>3.25</v>
+      </c>
+      <c r="U202">
+        <v>1.95</v>
+      </c>
+      <c r="V202">
+        <v>1.85</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>0.75</v>
+      </c>
+      <c r="Z202">
+        <v>-0.5</v>
+      </c>
+      <c r="AA202">
         <v>0.5</v>
       </c>
-      <c r="R202">
-        <v>1.775</v>
-      </c>
-      <c r="S202">
-        <v>2.025</v>
-      </c>
-      <c r="T202">
-        <v>3</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
-      <c r="V202">
-        <v>1.8</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>1.1</v>
-      </c>
-      <c r="Z202">
-        <v>-1</v>
-      </c>
-      <c r="AA202">
-        <v>1.025</v>
-      </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18612,7 +18612,7 @@
         <v>45270.5</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
         <v>46</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6811691</v>
+        <v>6809803</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G206" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M206">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N206">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O206">
         <v>4</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
         <v>1.95</v>
       </c>
-      <c r="V206">
-        <v>1.85</v>
-      </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X206">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6809803</v>
+        <v>6811691</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L207">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M207">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N207">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O207">
         <v>4</v>
       </c>
       <c r="P207">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
+        <v>1.975</v>
+      </c>
+      <c r="S207">
+        <v>1.825</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
         <v>1.95</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.85</v>
       </c>
-      <c r="T207">
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
         <v>3</v>
       </c>
-      <c r="U207">
-        <v>1.85</v>
-      </c>
-      <c r="V207">
-        <v>1.95</v>
-      </c>
-      <c r="W207">
-        <v>0.615</v>
-      </c>
-      <c r="X207">
-        <v>-1</v>
-      </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>45276.5</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
         <v>30</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6809805</v>
+        <v>6811689</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N214">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O214">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
+        <v>1.8</v>
+      </c>
+      <c r="V214">
         <v>2.05</v>
       </c>
-      <c r="V214">
-        <v>1.8</v>
-      </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X214">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6811689</v>
+        <v>6809805</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L215">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N215">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P215">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
+        <v>2.025</v>
+      </c>
+      <c r="T215">
+        <v>3.25</v>
+      </c>
+      <c r="U215">
+        <v>2.05</v>
+      </c>
+      <c r="V215">
         <v>1.8</v>
       </c>
-      <c r="S215">
-        <v>2.05</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.8</v>
-      </c>
-      <c r="V215">
-        <v>2.05</v>
-      </c>
       <c r="W215">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>1.025</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
         <v>0.8</v>
-      </c>
-      <c r="AA215">
-        <v>-1</v>
-      </c>
-      <c r="AB215">
-        <v>-1</v>
-      </c>
-      <c r="AC215">
-        <v>1.05</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20392,7 +20392,7 @@
         <v>45312.5</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
         <v>39</v>
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M226">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N226">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P226">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q226">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
         <v>1.825</v>
       </c>
       <c r="W226">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z226">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227">
         <v>0</v>
       </c>
-      <c r="I227">
+      <c r="J227" t="s">
+        <v>47</v>
+      </c>
+      <c r="K227">
+        <v>4.2</v>
+      </c>
+      <c r="L227">
+        <v>3.6</v>
+      </c>
+      <c r="M227">
+        <v>1.8</v>
+      </c>
+      <c r="N227">
         <v>4</v>
       </c>
-      <c r="J227" t="s">
-        <v>48</v>
-      </c>
-      <c r="K227">
-        <v>6.5</v>
-      </c>
-      <c r="L227">
-        <v>4.5</v>
-      </c>
-      <c r="M227">
-        <v>1.444</v>
-      </c>
-      <c r="N227">
-        <v>7.5</v>
-      </c>
       <c r="O227">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q227">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
         <v>1.825</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21104,7 +21104,7 @@
         <v>45319.5</v>
       </c>
       <c r="F232" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G232" t="s">
         <v>45</v>
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6809825</v>
+        <v>6809823</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,10 +21282,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21297,25 +21297,25 @@
         <v>48</v>
       </c>
       <c r="K234">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L234">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N234">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O234">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P234">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="Q234">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R234">
         <v>1.775</v>
@@ -21324,13 +21324,13 @@
         <v>2.025</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -21339,19 +21339,19 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.615</v>
+        <v>1.05</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB234">
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6809823</v>
+        <v>6809825</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,10 +21371,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -21386,25 +21386,25 @@
         <v>48</v>
       </c>
       <c r="K235">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M235">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="N235">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O235">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P235">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="Q235">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R235">
         <v>1.775</v>
@@ -21413,13 +21413,13 @@
         <v>2.025</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21428,19 +21428,19 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.05</v>
+        <v>0.615</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA235">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21816,7 +21816,7 @@
         <v>45326.5</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
         <v>46</v>
@@ -21905,7 +21905,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G241" t="s">
         <v>35</v>
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7755426</v>
+        <v>7755427</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L243">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M243">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N243">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O243">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P243">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q243">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R243">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S243">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T243">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V243">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X243">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC243">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7755427</v>
+        <v>7755426</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G244" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L244">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M244">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N244">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O244">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P244">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W244">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB244">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6809831</v>
+        <v>6809832</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,40 +22261,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G245" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J245" t="s">
         <v>49</v>
       </c>
       <c r="K245">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L245">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M245">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N245">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O245">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P245">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R245">
         <v>1.95</v>
@@ -22303,19 +22303,19 @@
         <v>1.85</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y245">
         <v>-1</v>
@@ -22327,10 +22327,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC245">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6809832</v>
+        <v>6809831</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,40 +22350,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>49</v>
       </c>
       <c r="K246">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L246">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M246">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N246">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O246">
+        <v>3.5</v>
+      </c>
+      <c r="P246">
         <v>3.8</v>
       </c>
-      <c r="P246">
-        <v>4.5</v>
-      </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
         <v>1.95</v>
@@ -22392,19 +22392,19 @@
         <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22416,10 +22416,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB246">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6809834</v>
+        <v>6809828</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,55 +22528,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J248" t="s">
         <v>48</v>
       </c>
       <c r="K248">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M248">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N248">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O248">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q248">
         <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
         <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V248">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W248">
         <v>-1</v>
@@ -22585,16 +22585,16 @@
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB248">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC248">
         <v>-0.5</v>
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6809828</v>
+        <v>6809834</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,55 +22617,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G249" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J249" t="s">
         <v>48</v>
       </c>
       <c r="K249">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M249">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N249">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P249">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
         <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -22674,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB249">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC249">
         <v>-0.5</v>
@@ -22887,7 +22887,7 @@
         <v>44</v>
       </c>
       <c r="G252" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6809835</v>
+        <v>6811680</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,76 +23329,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J257" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K257">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L257">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M257">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N257">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O257">
         <v>3.5</v>
       </c>
       <c r="P257">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q257">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R257">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S257">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z257">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC257">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23406,7 +23406,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6811680</v>
+        <v>6809835</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23418,76 +23418,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G258" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
         <v>0</v>
       </c>
-      <c r="I258">
-        <v>4</v>
-      </c>
       <c r="J258" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K258">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L258">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M258">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N258">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O258">
         <v>3.5</v>
       </c>
       <c r="P258">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q258">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R258">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S258">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T258">
         <v>2.75</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V258">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA258">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23507,7 +23507,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G259" t="s">
         <v>34</v>
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6809846</v>
+        <v>6809842</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,73 +23774,73 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G262" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K262">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L262">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M262">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N262">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O262">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P262">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R262">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S262">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T262">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U262">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V262">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X262">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA262">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6809842</v>
+        <v>6809846</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,73 +23863,73 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K263">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L263">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M263">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N263">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O263">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P263">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V263">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W263">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB263">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -23957,6 +23957,15 @@
       <c r="G264" t="s">
         <v>32</v>
       </c>
+      <c r="H264">
+        <v>2</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>47</v>
+      </c>
       <c r="K264">
         <v>5</v>
       </c>
@@ -23994,19 +24003,25 @@
         <v>2</v>
       </c>
       <c r="W264">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="X264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA264">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB264">
+        <v>0.425</v>
+      </c>
+      <c r="AC264">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24014,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6811678</v>
+        <v>6811679</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24026,61 +24041,76 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265" t="s">
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L265">
+        <v>4.5</v>
+      </c>
+      <c r="M265">
+        <v>6</v>
+      </c>
+      <c r="N265">
+        <v>1.363</v>
+      </c>
+      <c r="O265">
+        <v>4.75</v>
+      </c>
+      <c r="P265">
+        <v>6.5</v>
+      </c>
+      <c r="Q265">
+        <v>-1.5</v>
+      </c>
+      <c r="R265">
+        <v>2</v>
+      </c>
+      <c r="S265">
+        <v>1.8</v>
+      </c>
+      <c r="T265">
+        <v>3.25</v>
+      </c>
+      <c r="U265">
+        <v>1.95</v>
+      </c>
+      <c r="V265">
+        <v>1.85</v>
+      </c>
+      <c r="W265">
+        <v>-1</v>
+      </c>
+      <c r="X265">
         <v>3.75</v>
       </c>
-      <c r="M265">
-        <v>4.75</v>
-      </c>
-      <c r="N265">
-        <v>1.533</v>
-      </c>
-      <c r="O265">
-        <v>4</v>
-      </c>
-      <c r="P265">
-        <v>5.25</v>
-      </c>
-      <c r="Q265">
-        <v>-1</v>
-      </c>
-      <c r="R265">
-        <v>1.95</v>
-      </c>
-      <c r="S265">
-        <v>1.9</v>
-      </c>
-      <c r="T265">
-        <v>2.75</v>
-      </c>
-      <c r="U265">
-        <v>1.85</v>
-      </c>
-      <c r="V265">
-        <v>2</v>
-      </c>
-      <c r="W265">
-        <v>0</v>
-      </c>
-      <c r="X265">
-        <v>0</v>
-      </c>
       <c r="Y265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB265">
+        <v>-1</v>
+      </c>
+      <c r="AC265">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24088,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6811679</v>
+        <v>6811678</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24100,61 +24130,76 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G266" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>4</v>
+      </c>
+      <c r="J266" t="s">
+        <v>48</v>
       </c>
       <c r="K266">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L266">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M266">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N266">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="O266">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P266">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q266">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R266">
+        <v>1.975</v>
+      </c>
+      <c r="S266">
         <v>1.825</v>
       </c>
-      <c r="S266">
-        <v>2.025</v>
-      </c>
       <c r="T266">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U266">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB266">
+        <v>0.8</v>
+      </c>
+      <c r="AC266">
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24210,10 +24255,10 @@
         <v>3</v>
       </c>
       <c r="U267">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V267">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24263,13 +24308,13 @@
         <v>2.1</v>
       </c>
       <c r="N268">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O268">
         <v>3.5</v>
       </c>
       <c r="P268">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q268">
         <v>0.25</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N198">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O198">
         <v>3.5</v>
       </c>
       <c r="P198">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA198">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N199">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O199">
         <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z199">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H226">
+        <v>3</v>
+      </c>
+      <c r="I226">
         <v>0</v>
       </c>
-      <c r="I226">
+      <c r="J226" t="s">
+        <v>47</v>
+      </c>
+      <c r="K226">
+        <v>4.2</v>
+      </c>
+      <c r="L226">
+        <v>3.6</v>
+      </c>
+      <c r="M226">
+        <v>1.8</v>
+      </c>
+      <c r="N226">
         <v>4</v>
       </c>
-      <c r="J226" t="s">
-        <v>48</v>
-      </c>
-      <c r="K226">
-        <v>6.5</v>
-      </c>
-      <c r="L226">
-        <v>4.5</v>
-      </c>
-      <c r="M226">
-        <v>1.444</v>
-      </c>
-      <c r="N226">
-        <v>7.5</v>
-      </c>
       <c r="O226">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q226">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T226">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
         <v>1.825</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M227">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P227">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q227">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V227">
         <v>1.825</v>
       </c>
       <c r="W227">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6809828</v>
+        <v>6809834</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,55 +22528,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
         <v>48</v>
       </c>
       <c r="K248">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L248">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M248">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N248">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P248">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q248">
         <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
         <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V248">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W248">
         <v>-1</v>
@@ -22585,16 +22585,16 @@
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB248">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC248">
         <v>-0.5</v>
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6809834</v>
+        <v>6809828</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,55 +22617,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J249" t="s">
         <v>48</v>
       </c>
       <c r="K249">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L249">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M249">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N249">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O249">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P249">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T249">
         <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -22674,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB249">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC249">
         <v>-0.5</v>
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6809839</v>
+        <v>6809838</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23062,73 +23062,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G254" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
         <v>3</v>
       </c>
-      <c r="I254">
+      <c r="J254" t="s">
+        <v>48</v>
+      </c>
+      <c r="K254">
+        <v>4.5</v>
+      </c>
+      <c r="L254">
+        <v>4</v>
+      </c>
+      <c r="M254">
+        <v>1.571</v>
+      </c>
+      <c r="N254">
+        <v>5.25</v>
+      </c>
+      <c r="O254">
+        <v>4.333</v>
+      </c>
+      <c r="P254">
+        <v>1.55</v>
+      </c>
+      <c r="Q254">
         <v>1</v>
       </c>
-      <c r="J254" t="s">
-        <v>47</v>
-      </c>
-      <c r="K254">
-        <v>2.875</v>
-      </c>
-      <c r="L254">
-        <v>3.6</v>
-      </c>
-      <c r="M254">
-        <v>2.05</v>
-      </c>
-      <c r="N254">
-        <v>3.5</v>
-      </c>
-      <c r="O254">
-        <v>3.8</v>
-      </c>
-      <c r="P254">
-        <v>1.95</v>
-      </c>
-      <c r="Q254">
-        <v>0.5</v>
-      </c>
       <c r="R254">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U254">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V254">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W254">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z254">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB254">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23139,7 +23139,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6809838</v>
+        <v>6809839</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,73 +23151,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H255">
+        <v>3</v>
+      </c>
+      <c r="I255">
         <v>1</v>
       </c>
-      <c r="I255">
-        <v>3</v>
-      </c>
       <c r="J255" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K255">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N255">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O255">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P255">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q255">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R255">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T255">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U255">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA255">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC255">
         <v>-1</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Club Brugge II</t>
   </si>
   <si>
-    <t>RFC Liege</t>
+    <t>Patro Eisden Maasmechelen</t>
   </si>
   <si>
-    <t>Patro Eisden Maasmechelen</t>
+    <t>RFC Liege</t>
   </si>
   <si>
     <t>Genk II</t>
@@ -127,10 +127,10 @@
     <t>ZulteWaregem</t>
   </si>
   <si>
-    <t>Lommel</t>
+    <t>FCV Dender EH</t>
   </si>
   <si>
-    <t>FCV Dender EH</t>
+    <t>Lommel</t>
   </si>
   <si>
     <t>KFCO Beerschot Wilrijk</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6811722</v>
+        <v>6809711</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,43 +898,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.75</v>
@@ -946,25 +946,25 @@
         <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6809711</v>
+        <v>6811722</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,43 +987,43 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
+        <v>1.8</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
+        <v>3.5</v>
+      </c>
+      <c r="Q6">
+        <v>-0.5</v>
+      </c>
+      <c r="R6">
+        <v>1.85</v>
+      </c>
+      <c r="S6">
         <v>1.95</v>
-      </c>
-      <c r="O6">
-        <v>3.5</v>
-      </c>
-      <c r="P6">
-        <v>3.2</v>
-      </c>
-      <c r="Q6">
-        <v>-0.25</v>
-      </c>
-      <c r="R6">
-        <v>1.775</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
       </c>
       <c r="T6">
         <v>2.75</v>
@@ -1035,25 +1035,25 @@
         <v>1.975</v>
       </c>
       <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>2.5</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
         <v>0.95</v>
       </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6809714</v>
+        <v>6809713</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10">
+        <v>3.1</v>
+      </c>
+      <c r="N10">
+        <v>1.833</v>
+      </c>
+      <c r="O10">
+        <v>3.4</v>
+      </c>
+      <c r="P10">
+        <v>3.6</v>
+      </c>
+      <c r="Q10">
+        <v>-0.5</v>
+      </c>
+      <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>1.8</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>2.6</v>
+      </c>
+      <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10">
-        <v>1.8</v>
-      </c>
-      <c r="L10">
-        <v>3.75</v>
-      </c>
-      <c r="M10">
-        <v>3.4</v>
-      </c>
-      <c r="N10">
-        <v>1.65</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>3.75</v>
-      </c>
-      <c r="Q10">
-        <v>-0.75</v>
-      </c>
-      <c r="R10">
-        <v>1.85</v>
-      </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>3.25</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
-      <c r="V10">
-        <v>1.925</v>
-      </c>
-      <c r="W10">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.425</v>
-      </c>
-      <c r="AA10">
-        <v>-0.5</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6809713</v>
+        <v>6809714</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
+        <v>3.75</v>
+      </c>
+      <c r="M11">
         <v>3.4</v>
       </c>
-      <c r="M11">
-        <v>3.1</v>
-      </c>
       <c r="N11">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q11">
+        <v>-0.75</v>
+      </c>
+      <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>3.25</v>
+      </c>
+      <c r="U11">
+        <v>1.875</v>
+      </c>
+      <c r="V11">
+        <v>1.925</v>
+      </c>
+      <c r="W11">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>0.425</v>
+      </c>
+      <c r="AA11">
         <v>-0.5</v>
       </c>
-      <c r="R11">
-        <v>1.9</v>
-      </c>
-      <c r="S11">
-        <v>1.9</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>1.8</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>2.6</v>
-      </c>
-      <c r="Z11">
-        <v>-1</v>
-      </c>
-      <c r="AA11">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2230,7 +2230,7 @@
         <v>45164.625</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2319,7 +2319,7 @@
         <v>45164.625</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -2408,7 +2408,7 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -2497,7 +2497,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6809726</v>
+        <v>6809727</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,10 +2675,10 @@
         <v>45170.625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2690,61 +2690,61 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
+        <v>1.8</v>
+      </c>
+      <c r="V25">
         <v>2</v>
       </c>
-      <c r="V25">
-        <v>1.85</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6809727</v>
+        <v>6809726</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,10 +2764,10 @@
         <v>45170.625</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2779,61 +2779,61 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.25</v>
+      </c>
+      <c r="U26">
         <v>2</v>
       </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2856,7 +2856,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6809728</v>
+        <v>6811715</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45171.625</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6811715</v>
+        <v>6809728</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45171.625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N29">
+        <v>1.533</v>
+      </c>
+      <c r="O29">
+        <v>4.333</v>
+      </c>
+      <c r="P29">
+        <v>4.75</v>
+      </c>
+      <c r="Q29">
+        <v>-1</v>
+      </c>
+      <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.25</v>
+      </c>
+      <c r="U29">
         <v>1.95</v>
       </c>
-      <c r="O29">
-        <v>3.6</v>
-      </c>
-      <c r="P29">
-        <v>3.25</v>
-      </c>
-      <c r="Q29">
+      <c r="V29">
+        <v>1.85</v>
+      </c>
+      <c r="W29">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>-0</v>
+      </c>
+      <c r="AB29">
         <v>-0.5</v>
       </c>
-      <c r="R29">
-        <v>1.975</v>
-      </c>
-      <c r="S29">
-        <v>1.825</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
-      <c r="V29">
-        <v>1.975</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>2.6</v>
-      </c>
-      <c r="Y29">
-        <v>-1</v>
-      </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>0.825</v>
-      </c>
-      <c r="AB29">
-        <v>-1</v>
-      </c>
       <c r="AC29">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,73 +3387,73 @@
         <v>45184.625</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>0.925</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45184.625</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3568,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6809735</v>
+        <v>6809734</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45185.625</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L36">
         <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N36">
+        <v>2.6</v>
+      </c>
+      <c r="O36">
+        <v>3.4</v>
+      </c>
+      <c r="P36">
+        <v>2.3</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
         <v>2</v>
       </c>
-      <c r="O36">
-        <v>3.5</v>
-      </c>
-      <c r="P36">
-        <v>3.1</v>
-      </c>
-      <c r="Q36">
-        <v>-0.25</v>
-      </c>
-      <c r="R36">
-        <v>1.95</v>
-      </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6809734</v>
+        <v>6809735</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45185.625</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L37">
         <v>3.4</v>
       </c>
       <c r="M37">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N37">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6809739</v>
+        <v>6809738</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45191.625</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
         <v>3.25</v>
       </c>
       <c r="N41">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
+        <v>1.85</v>
+      </c>
+      <c r="S41">
+        <v>1.95</v>
+      </c>
+      <c r="T41">
+        <v>3.25</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
         <v>1.8</v>
       </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
-      <c r="T41">
-        <v>2.75</v>
-      </c>
-      <c r="U41">
-        <v>1.9</v>
-      </c>
-      <c r="V41">
-        <v>1.9</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X41">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6809738</v>
+        <v>6809739</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45191.625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
         <v>3.25</v>
       </c>
       <c r="N42">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O42">
+        <v>3.5</v>
+      </c>
+      <c r="P42">
         <v>3.75</v>
-      </c>
-      <c r="P42">
-        <v>3.4</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811711</v>
+        <v>6809740</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,34 +4366,34 @@
         <v>45192.625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
         <v>1.727</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P44">
         <v>3.8</v>
@@ -4402,37 +4402,37 @@
         <v>-0.75</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.8</v>
+      </c>
+      <c r="T44">
+        <v>3.25</v>
+      </c>
+      <c r="U44">
         <v>1.95</v>
       </c>
-      <c r="S44">
-        <v>1.9</v>
-      </c>
-      <c r="T44">
-        <v>3</v>
-      </c>
-      <c r="U44">
+      <c r="V44">
         <v>1.85</v>
       </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6809740</v>
+        <v>6811711</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,34 +4455,34 @@
         <v>45192.625</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
         <v>1.727</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
         <v>3.8</v>
@@ -4491,37 +4491,37 @@
         <v>-0.75</v>
       </c>
       <c r="R45">
+        <v>1.95</v>
+      </c>
+      <c r="S45">
+        <v>1.9</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
         <v>2</v>
       </c>
-      <c r="S45">
-        <v>1.8</v>
-      </c>
-      <c r="T45">
-        <v>3.25</v>
-      </c>
-      <c r="U45">
-        <v>1.95</v>
-      </c>
-      <c r="V45">
-        <v>1.85</v>
-      </c>
       <c r="W45">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4544,7 +4544,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6809753</v>
+        <v>6809750</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,49 +5523,49 @@
         <v>45205.625</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M57">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P57">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
         <v>1.975</v>
@@ -5574,25 +5574,25 @@
         <v>1.825</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6809750</v>
+        <v>6809753</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,49 +5612,49 @@
         <v>45205.625</v>
       </c>
       <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
         <v>37</v>
-      </c>
-      <c r="G58" t="s">
-        <v>44</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O58">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>1.975</v>
@@ -5663,25 +5663,25 @@
         <v>1.825</v>
       </c>
       <c r="W58">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5879,10 +5879,10 @@
         <v>45206.625</v>
       </c>
       <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
         <v>33</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6809761</v>
+        <v>6811706</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,10 +6502,10 @@
         <v>45220.625</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6517,43 +6517,43 @@
         <v>46</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M68">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6811706</v>
+        <v>6809761</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,10 +6591,10 @@
         <v>45220.625</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6606,43 +6606,43 @@
         <v>46</v>
       </c>
       <c r="K69">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N69">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -6861,7 +6861,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6809764</v>
+        <v>6811704</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,16 +6947,16 @@
         <v>45226.625</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
@@ -6971,52 +6971,52 @@
         <v>2.625</v>
       </c>
       <c r="N73">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
+        <v>1.975</v>
+      </c>
+      <c r="S73">
+        <v>1.825</v>
+      </c>
+      <c r="T73">
+        <v>2.25</v>
+      </c>
+      <c r="U73">
         <v>1.8</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>2</v>
       </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>2</v>
-      </c>
-      <c r="V73">
-        <v>1.8</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6811704</v>
+        <v>6809764</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,16 +7036,16 @@
         <v>45226.625</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
@@ -7060,52 +7060,52 @@
         <v>2.625</v>
       </c>
       <c r="N74">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O74">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
         <v>1.8</v>
       </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6809765</v>
+        <v>6809766</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45227.625</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>3</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L76">
         <v>3.8</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N76">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P76">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
+        <v>1.85</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>1.875</v>
       </c>
-      <c r="V76">
-        <v>1.975</v>
-      </c>
-      <c r="W76">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>-1</v>
-      </c>
       <c r="Z76">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6809766</v>
+        <v>6809765</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45227.625</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L77">
         <v>3.8</v>
       </c>
       <c r="M77">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N77">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R77">
+        <v>2.025</v>
+      </c>
+      <c r="S77">
         <v>1.825</v>
       </c>
-      <c r="S77">
+      <c r="T77">
+        <v>2.75</v>
+      </c>
+      <c r="U77">
+        <v>1.875</v>
+      </c>
+      <c r="V77">
         <v>1.975</v>
       </c>
-      <c r="T77">
-        <v>3.25</v>
-      </c>
-      <c r="U77">
-        <v>1.95</v>
-      </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7395,7 +7395,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>45228.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>29</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6811702</v>
+        <v>6811701</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,55 +7659,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
         <v>45</v>
       </c>
       <c r="K81">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="L81">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N81">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7716,19 +7716,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6811701</v>
+        <v>6811702</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,55 +7748,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>45</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
+        <v>4.5</v>
+      </c>
+      <c r="Q82">
+        <v>-0.75</v>
+      </c>
+      <c r="R82">
+        <v>1.8</v>
+      </c>
+      <c r="S82">
         <v>2.05</v>
-      </c>
-      <c r="Q82">
-        <v>0.25</v>
-      </c>
-      <c r="R82">
-        <v>1.95</v>
-      </c>
-      <c r="S82">
-        <v>1.85</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7805,19 +7805,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
+        <v>3.5</v>
+      </c>
+      <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
         <v>1.05</v>
       </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8193,7 +8193,7 @@
         <v>45235.5</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -8460,7 +8460,7 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>31</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6811700</v>
+        <v>6809774</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N92">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
+        <v>1.9</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>2.025</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="S92">
-        <v>1.975</v>
-      </c>
-      <c r="T92">
-        <v>2.75</v>
-      </c>
-      <c r="U92">
-        <v>1.85</v>
-      </c>
-      <c r="V92">
-        <v>1.95</v>
-      </c>
       <c r="W92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6809774</v>
+        <v>6811700</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N93">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
         <v>3.6</v>
       </c>
-      <c r="P93">
-        <v>1.909</v>
-      </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
+        <v>1.975</v>
+      </c>
+      <c r="T93">
+        <v>2.75</v>
+      </c>
+      <c r="U93">
+        <v>1.85</v>
+      </c>
+      <c r="V93">
         <v>1.95</v>
       </c>
-      <c r="T93">
-        <v>3</v>
-      </c>
-      <c r="U93">
-        <v>2.025</v>
-      </c>
-      <c r="V93">
-        <v>1.825</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.95</v>
-      </c>
-      <c r="AB93">
-        <v>1.025</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8816,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>42</v>
@@ -8908,7 +8908,7 @@
         <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>36</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6809783</v>
+        <v>6809780</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,73 +9083,73 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F97" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" t="s">
         <v>37</v>
       </c>
-      <c r="G97" t="s">
-        <v>33</v>
-      </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N97">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6809780</v>
+        <v>6809783</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,73 +9172,73 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O98">
         <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6809782</v>
+        <v>6809785</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,49 +9350,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>45</v>
       </c>
       <c r="K100">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="L100">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="O100">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
         <v>1.8</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6809785</v>
+        <v>6809782</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,49 +9439,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J101" t="s">
         <v>45</v>
       </c>
       <c r="K101">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M101">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U101">
         <v>1.8</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
+        <v>4.5</v>
+      </c>
+      <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB101">
         <v>0.8</v>
       </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
-      <c r="AA101">
-        <v>0.8</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6809787</v>
+        <v>6809789</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,52 +9795,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L105">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P105">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V105">
         <v>1.8</v>
@@ -9852,13 +9852,13 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>1.2</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6809789</v>
+        <v>6809787</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,52 +9884,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N106">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P106">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V106">
         <v>1.8</v>
@@ -9941,13 +9941,13 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>1.2</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6809791</v>
+        <v>6809788</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,49 +10062,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>45</v>
       </c>
       <c r="K108">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N108">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.2</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U108">
         <v>1.975</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809788</v>
+        <v>6809791</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,49 +10151,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>45</v>
       </c>
       <c r="K109">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M109">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N109">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R109">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
         <v>1.975</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.8500000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>45263.5</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>30</v>
@@ -10418,7 +10418,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N114">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O114">
         <v>3.5</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y114">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA114">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L115">
         <v>3.5</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N115">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
         <v>3.5</v>
       </c>
       <c r="P115">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z115">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>45270.5</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
         <v>43</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6809803</v>
+        <v>6811691</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L122">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O122">
         <v>4</v>
       </c>
       <c r="P122">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
+        <v>1.975</v>
+      </c>
+      <c r="S122">
+        <v>1.825</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
         <v>1.95</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="T122">
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
         <v>3</v>
       </c>
-      <c r="U122">
-        <v>1.85</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
-      <c r="W122">
-        <v>0.615</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6811691</v>
+        <v>6809803</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O123">
         <v>4</v>
       </c>
       <c r="P123">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45276.5</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N125">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O125">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
         <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K126">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N126">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P126">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
         <v>1.975</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X126">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>45277.63541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
         <v>42</v>
@@ -12109,10 +12109,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" t="s">
         <v>32</v>
-      </c>
-      <c r="G131" t="s">
-        <v>33</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12290,7 +12290,7 @@
         <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12379,7 +12379,7 @@
         <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12910,7 +12910,7 @@
         <v>45312.5</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
         <v>44</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M142">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N142">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>46</v>
+      </c>
+      <c r="K143">
+        <v>4.2</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>1.8</v>
+      </c>
+      <c r="N143">
         <v>4</v>
       </c>
-      <c r="J143" t="s">
-        <v>45</v>
-      </c>
-      <c r="K143">
-        <v>6.5</v>
-      </c>
-      <c r="L143">
-        <v>4.5</v>
-      </c>
-      <c r="M143">
-        <v>1.444</v>
-      </c>
-      <c r="N143">
-        <v>7.5</v>
-      </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q143">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
         <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13444,10 +13444,10 @@
         <v>45318.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13622,7 +13622,7 @@
         <v>45319.5</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -14067,10 +14067,10 @@
         <v>45325.66666666666</v>
       </c>
       <c r="F153" t="s">
+        <v>38</v>
+      </c>
+      <c r="G153" t="s">
         <v>37</v>
-      </c>
-      <c r="G153" t="s">
-        <v>38</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14334,7 +14334,7 @@
         <v>45326.5</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>43</v>
@@ -14423,7 +14423,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
         <v>39</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7755426</v>
+        <v>7755427</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N158">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P158">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X158">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7755425</v>
+        <v>7755426</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,40 +14601,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K159">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
         <v>3.5</v>
       </c>
       <c r="M159">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O159">
         <v>3.5</v>
       </c>
       <c r="P159">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
         <v>1.85</v>
@@ -14646,31 +14646,31 @@
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7755427</v>
+        <v>7755425</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14693,55 +14693,55 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P160">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>0.5329999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14750,16 +14750,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6809831</v>
+        <v>6809832</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,40 +14779,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O161">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
         <v>1.95</v>
@@ -14821,19 +14821,19 @@
         <v>1.85</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14845,10 +14845,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6809832</v>
+        <v>6809831</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,40 +14868,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>47</v>
       </c>
       <c r="K162">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N162">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O162">
+        <v>3.5</v>
+      </c>
+      <c r="P162">
         <v>3.8</v>
       </c>
-      <c r="P162">
-        <v>4.5</v>
-      </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
         <v>1.95</v>
@@ -14910,19 +14910,19 @@
         <v>1.85</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14934,10 +14934,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6809834</v>
+        <v>6809828</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,55 +15046,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>45</v>
       </c>
       <c r="K164">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15103,16 +15103,16 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB164">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC164">
         <v>-0.5</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6809828</v>
+        <v>6809834</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,55 +15135,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>45</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M165">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N165">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P165">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15192,16 +15192,16 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC165">
         <v>-0.5</v>
@@ -15227,7 +15227,7 @@
         <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15405,7 +15405,7 @@
         <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6809839</v>
+        <v>6809838</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,73 +15580,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
         <v>3</v>
       </c>
-      <c r="I170">
+      <c r="J170" t="s">
+        <v>45</v>
+      </c>
+      <c r="K170">
+        <v>4.5</v>
+      </c>
+      <c r="L170">
+        <v>4</v>
+      </c>
+      <c r="M170">
+        <v>1.571</v>
+      </c>
+      <c r="N170">
+        <v>5.25</v>
+      </c>
+      <c r="O170">
+        <v>4.333</v>
+      </c>
+      <c r="P170">
+        <v>1.55</v>
+      </c>
+      <c r="Q170">
         <v>1</v>
       </c>
-      <c r="J170" t="s">
-        <v>46</v>
-      </c>
-      <c r="K170">
-        <v>2.875</v>
-      </c>
-      <c r="L170">
-        <v>3.6</v>
-      </c>
-      <c r="M170">
-        <v>2.05</v>
-      </c>
-      <c r="N170">
-        <v>3.5</v>
-      </c>
-      <c r="O170">
-        <v>3.8</v>
-      </c>
-      <c r="P170">
-        <v>1.95</v>
-      </c>
-      <c r="Q170">
-        <v>0.5</v>
-      </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6809838</v>
+        <v>6809839</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,73 +15669,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>3</v>
-      </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K171">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N171">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O171">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P171">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15758,7 +15758,7 @@
         <v>45339.5</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
         <v>35</v>
@@ -15850,7 +15850,7 @@
         <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15936,7 +15936,7 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16025,7 +16025,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
         <v>29</v>
@@ -16381,7 +16381,7 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16473,7 +16473,7 @@
         <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16648,7 +16648,7 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16829,7 +16829,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16985,6 +16985,598 @@
       </c>
       <c r="AC185">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>6809847</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45352.66666666666</v>
+      </c>
+      <c r="F186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186" t="s">
+        <v>44</v>
+      </c>
+      <c r="K186">
+        <v>1.25</v>
+      </c>
+      <c r="L186">
+        <v>6.5</v>
+      </c>
+      <c r="M186">
+        <v>8.5</v>
+      </c>
+      <c r="N186">
+        <v>1.25</v>
+      </c>
+      <c r="O186">
+        <v>6.5</v>
+      </c>
+      <c r="P186">
+        <v>8.5</v>
+      </c>
+      <c r="Q186">
+        <v>-1.75</v>
+      </c>
+      <c r="R186">
+        <v>1.875</v>
+      </c>
+      <c r="S186">
+        <v>1.975</v>
+      </c>
+      <c r="T186">
+        <v>3.5</v>
+      </c>
+      <c r="U186">
+        <v>1.975</v>
+      </c>
+      <c r="V186">
+        <v>1.875</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>6809850</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45352.66666666666</v>
+      </c>
+      <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
+        <v>34</v>
+      </c>
+      <c r="K187">
+        <v>3.75</v>
+      </c>
+      <c r="L187">
+        <v>3.8</v>
+      </c>
+      <c r="M187">
+        <v>1.8</v>
+      </c>
+      <c r="N187">
+        <v>3.75</v>
+      </c>
+      <c r="O187">
+        <v>3.8</v>
+      </c>
+      <c r="P187">
+        <v>1.8</v>
+      </c>
+      <c r="Q187">
+        <v>0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.975</v>
+      </c>
+      <c r="S187">
+        <v>1.875</v>
+      </c>
+      <c r="T187">
+        <v>3.25</v>
+      </c>
+      <c r="U187">
+        <v>1.975</v>
+      </c>
+      <c r="V187">
+        <v>1.875</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>6809851</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F188" t="s">
+        <v>42</v>
+      </c>
+      <c r="G188" t="s">
+        <v>43</v>
+      </c>
+      <c r="K188">
+        <v>2.4</v>
+      </c>
+      <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>2.7</v>
+      </c>
+      <c r="N188">
+        <v>2.4</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
+        <v>2.7</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>1.875</v>
+      </c>
+      <c r="S188">
+        <v>1.975</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.975</v>
+      </c>
+      <c r="V188">
+        <v>1.875</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>6809849</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45353.66666666666</v>
+      </c>
+      <c r="F189" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" t="s">
+        <v>29</v>
+      </c>
+      <c r="K189">
+        <v>1.5</v>
+      </c>
+      <c r="L189">
+        <v>4.333</v>
+      </c>
+      <c r="M189">
+        <v>5.75</v>
+      </c>
+      <c r="N189">
+        <v>1.5</v>
+      </c>
+      <c r="O189">
+        <v>4.333</v>
+      </c>
+      <c r="P189">
+        <v>5.75</v>
+      </c>
+      <c r="Q189">
+        <v>-1</v>
+      </c>
+      <c r="R189">
+        <v>1.8</v>
+      </c>
+      <c r="S189">
+        <v>2.05</v>
+      </c>
+      <c r="T189">
+        <v>3</v>
+      </c>
+      <c r="U189">
+        <v>2</v>
+      </c>
+      <c r="V189">
+        <v>1.85</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>6811676</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45353.66666666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>38</v>
+      </c>
+      <c r="G190" t="s">
+        <v>33</v>
+      </c>
+      <c r="K190">
+        <v>1.85</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>3.8</v>
+      </c>
+      <c r="N190">
+        <v>1.85</v>
+      </c>
+      <c r="O190">
+        <v>3.6</v>
+      </c>
+      <c r="P190">
+        <v>3.8</v>
+      </c>
+      <c r="Q190">
+        <v>-0.5</v>
+      </c>
+      <c r="R190">
+        <v>1.9</v>
+      </c>
+      <c r="S190">
+        <v>1.95</v>
+      </c>
+      <c r="T190">
+        <v>2.75</v>
+      </c>
+      <c r="U190">
+        <v>1.975</v>
+      </c>
+      <c r="V190">
+        <v>1.875</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>6809852</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45354.39583333334</v>
+      </c>
+      <c r="F191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G191" t="s">
+        <v>39</v>
+      </c>
+      <c r="K191">
+        <v>2.45</v>
+      </c>
+      <c r="L191">
+        <v>3.5</v>
+      </c>
+      <c r="M191">
+        <v>2.7</v>
+      </c>
+      <c r="N191">
+        <v>2.45</v>
+      </c>
+      <c r="O191">
+        <v>3.5</v>
+      </c>
+      <c r="P191">
+        <v>2.7</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>1.825</v>
+      </c>
+      <c r="S191">
+        <v>2.025</v>
+      </c>
+      <c r="T191">
+        <v>2.75</v>
+      </c>
+      <c r="U191">
+        <v>1.925</v>
+      </c>
+      <c r="V191">
+        <v>1.925</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>6809848</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45354.5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>30</v>
+      </c>
+      <c r="G192" t="s">
+        <v>32</v>
+      </c>
+      <c r="K192">
+        <v>4.2</v>
+      </c>
+      <c r="L192">
+        <v>3.6</v>
+      </c>
+      <c r="M192">
+        <v>1.8</v>
+      </c>
+      <c r="N192">
+        <v>4.2</v>
+      </c>
+      <c r="O192">
+        <v>3.6</v>
+      </c>
+      <c r="P192">
+        <v>1.8</v>
+      </c>
+      <c r="Q192">
+        <v>0.5</v>
+      </c>
+      <c r="R192">
+        <v>2.05</v>
+      </c>
+      <c r="S192">
+        <v>1.8</v>
+      </c>
+      <c r="T192">
+        <v>2.5</v>
+      </c>
+      <c r="U192">
+        <v>1.875</v>
+      </c>
+      <c r="V192">
+        <v>1.975</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6811677</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45354.63541666666</v>
+      </c>
+      <c r="F193" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" t="s">
+        <v>35</v>
+      </c>
+      <c r="K193">
+        <v>1.909</v>
+      </c>
+      <c r="L193">
+        <v>3.6</v>
+      </c>
+      <c r="M193">
+        <v>3.75</v>
+      </c>
+      <c r="N193">
+        <v>1.909</v>
+      </c>
+      <c r="O193">
+        <v>3.6</v>
+      </c>
+      <c r="P193">
+        <v>3.75</v>
+      </c>
+      <c r="Q193">
+        <v>-0.5</v>
+      </c>
+      <c r="R193">
+        <v>1.925</v>
+      </c>
+      <c r="S193">
+        <v>1.925</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
+        <v>2.025</v>
+      </c>
+      <c r="V193">
+        <v>1.825</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -103,10 +103,10 @@
     <t>Belgium First Division B</t>
   </si>
   <si>
-    <t>Anderlecht II</t>
+    <t>Seraing United</t>
   </si>
   <si>
-    <t>Seraing United</t>
+    <t>Anderlecht II</t>
   </si>
   <si>
     <t>Club Brugge II</t>
@@ -136,10 +136,10 @@
     <t>KFCO Beerschot Wilrijk</t>
   </si>
   <si>
-    <t>Deinze</t>
+    <t>WaaslandBeveren</t>
   </si>
   <si>
-    <t>WaaslandBeveren</t>
+    <t>Deinze</t>
   </si>
   <si>
     <t>Lierse Kempenzonen</t>
@@ -151,10 +151,10 @@
     <t>Standard Liege II</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6809709</v>
+        <v>6809710</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6809710</v>
+        <v>6809709</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>3</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>3.1</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>2.3</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>2.2</v>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>4.333</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>1.727</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>1.444</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1352,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>1.8</v>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>1.95</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6811719</v>
+        <v>6809716</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6809716</v>
+        <v>6811719</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,73 +1699,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>2.3</v>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>2.2</v>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>2.375</v>
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>1.833</v>
@@ -2141,7 +2141,7 @@
         <v>45163.625</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2153,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2233,7 +2233,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>3.1</v>
@@ -2322,7 +2322,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>2.1</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2589,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2675,7 +2675,7 @@
         <v>45170.625</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -2853,7 +2853,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2945,7 +2945,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>1.833</v>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3298,7 +3298,7 @@
         <v>45172.625</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>1.2</v>
@@ -3399,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>3.1</v>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>2.3</v>
@@ -3565,7 +3565,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>2.5</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6809734</v>
+        <v>6809735</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45185.625</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
         <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N36">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6809735</v>
+        <v>6809734</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45185.625</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L37">
         <v>3.4</v>
       </c>
       <c r="M37">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N37">
+        <v>2.6</v>
+      </c>
+      <c r="O37">
+        <v>3.4</v>
+      </c>
+      <c r="P37">
+        <v>2.3</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="O37">
-        <v>3.5</v>
-      </c>
-      <c r="P37">
-        <v>3.1</v>
-      </c>
-      <c r="Q37">
-        <v>-0.25</v>
-      </c>
-      <c r="R37">
-        <v>1.95</v>
-      </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3832,10 +3832,10 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>2.25</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6809738</v>
+        <v>6809739</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45191.625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
         <v>3.25</v>
       </c>
       <c r="N41">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O41">
+        <v>3.5</v>
+      </c>
+      <c r="P41">
         <v>3.75</v>
-      </c>
-      <c r="P41">
-        <v>3.4</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6809739</v>
+        <v>6809738</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45191.625</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
         <v>3.25</v>
       </c>
       <c r="N42">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P42">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
+        <v>1.95</v>
+      </c>
+      <c r="T42">
+        <v>3.25</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
         <v>1.8</v>
       </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="T42">
-        <v>2.75</v>
-      </c>
-      <c r="U42">
-        <v>1.9</v>
-      </c>
-      <c r="V42">
-        <v>1.9</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X42">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,10 +4277,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
         <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6809740</v>
+        <v>6811711</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,34 +4366,34 @@
         <v>45192.625</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
         <v>1.727</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
         <v>3.8</v>
@@ -4402,37 +4402,37 @@
         <v>-0.75</v>
       </c>
       <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>1.85</v>
+      </c>
+      <c r="V44">
         <v>2</v>
       </c>
-      <c r="S44">
-        <v>1.8</v>
-      </c>
-      <c r="T44">
-        <v>3.25</v>
-      </c>
-      <c r="U44">
-        <v>1.95</v>
-      </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
       <c r="W44">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811711</v>
+        <v>6809740</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,34 +4455,34 @@
         <v>45192.625</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L45">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
         <v>1.727</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P45">
         <v>3.8</v>
@@ -4491,37 +4491,37 @@
         <v>-0.75</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.8</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
         <v>1.95</v>
       </c>
-      <c r="S45">
-        <v>1.9</v>
-      </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
+      <c r="V45">
         <v>1.85</v>
       </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4633,7 +4633,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4645,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>1.444</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>2.55</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45198.625</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N49">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
+        <v>1.95</v>
+      </c>
+      <c r="S49">
         <v>1.85</v>
       </c>
-      <c r="S49">
-        <v>1.95</v>
-      </c>
       <c r="T49">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y49">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
+        <v>-0.5</v>
+      </c>
+      <c r="AA49">
         <v>0.425</v>
       </c>
-      <c r="AA49">
-        <v>-0.5</v>
-      </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45198.625</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N50">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
+        <v>1.85</v>
+      </c>
+      <c r="S50">
         <v>1.95</v>
       </c>
-      <c r="S50">
-        <v>1.85</v>
-      </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z50">
+        <v>0.425</v>
+      </c>
+      <c r="AA50">
         <v>-0.5</v>
       </c>
-      <c r="AA50">
-        <v>0.425</v>
-      </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>2.375</v>
@@ -5167,7 +5167,7 @@
         <v>45199.625</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>42</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>1.833</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>3.8</v>
@@ -5446,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>1.8</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6809750</v>
+        <v>6809753</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,49 +5523,49 @@
         <v>45205.625</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>46</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>1.975</v>
@@ -5574,25 +5574,25 @@
         <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6809753</v>
+        <v>6809750</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,49 +5612,49 @@
         <v>45205.625</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N58">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P58">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
         <v>1.975</v>
@@ -5663,25 +5663,25 @@
         <v>1.825</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>2.7</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>1.615</v>
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>2.1</v>
@@ -5968,7 +5968,7 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>36</v>
@@ -5980,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6060,7 +6060,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>1.8</v>
@@ -6149,7 +6149,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6809759</v>
+        <v>6809760</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,49 +6235,49 @@
         <v>45219.625</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
         <v>2</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M65">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
         <v>1.775</v>
@@ -6286,7 +6286,7 @@
         <v>2.025</v>
       </c>
       <c r="W65">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6295,16 +6295,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6809760</v>
+        <v>6809759</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,49 +6324,49 @@
         <v>45219.625</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66">
+        <v>2.45</v>
+      </c>
+      <c r="L66">
+        <v>3.4</v>
+      </c>
+      <c r="M66">
+        <v>2.55</v>
+      </c>
+      <c r="N66">
+        <v>2.375</v>
+      </c>
+      <c r="O66">
+        <v>3.4</v>
+      </c>
+      <c r="P66">
+        <v>2.7</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>1.8</v>
+      </c>
+      <c r="S66">
         <v>2</v>
       </c>
-      <c r="J66" t="s">
-        <v>46</v>
-      </c>
-      <c r="K66">
-        <v>1.533</v>
-      </c>
-      <c r="L66">
-        <v>4.2</v>
-      </c>
-      <c r="M66">
-        <v>5</v>
-      </c>
-      <c r="N66">
-        <v>1.75</v>
-      </c>
-      <c r="O66">
-        <v>3.8</v>
-      </c>
-      <c r="P66">
-        <v>3.8</v>
-      </c>
-      <c r="Q66">
-        <v>-0.75</v>
-      </c>
-      <c r="R66">
-        <v>1.975</v>
-      </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.775</v>
@@ -6375,7 +6375,7 @@
         <v>2.025</v>
       </c>
       <c r="W66">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6384,16 +6384,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
+        <v>0.3875</v>
+      </c>
+      <c r="AC66">
         <v>-0.5</v>
-      </c>
-      <c r="AB66">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>1.666</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>1.65</v>
@@ -6594,7 +6594,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6772,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6811704</v>
+        <v>6809764</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,16 +6947,16 @@
         <v>45226.625</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
@@ -6971,52 +6971,52 @@
         <v>2.625</v>
       </c>
       <c r="N73">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
         <v>1.8</v>
       </c>
-      <c r="V73">
-        <v>2</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6809764</v>
+        <v>6811704</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,16 +7036,16 @@
         <v>45226.625</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
@@ -7060,52 +7060,52 @@
         <v>2.625</v>
       </c>
       <c r="N74">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
+        <v>2.25</v>
+      </c>
+      <c r="U74">
         <v>1.8</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>2</v>
       </c>
-      <c r="T74">
-        <v>3</v>
-      </c>
-      <c r="U74">
-        <v>2</v>
-      </c>
-      <c r="V74">
-        <v>1.8</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>2.1</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6809766</v>
+        <v>6809765</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45227.625</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>45</v>
       </c>
       <c r="K76">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L76">
         <v>3.8</v>
       </c>
       <c r="M76">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R76">
+        <v>2.025</v>
+      </c>
+      <c r="S76">
         <v>1.825</v>
       </c>
-      <c r="S76">
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>1.875</v>
+      </c>
+      <c r="V76">
         <v>1.975</v>
       </c>
-      <c r="T76">
-        <v>3.25</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6809765</v>
+        <v>6809766</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45227.625</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>3</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>46</v>
       </c>
       <c r="K77">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
         <v>3.8</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N77">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
+        <v>1.85</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
         <v>1.875</v>
       </c>
-      <c r="V77">
-        <v>1.975</v>
-      </c>
-      <c r="W77">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>-1</v>
-      </c>
       <c r="Z77">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7484,7 +7484,7 @@
         <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>5.25</v>
@@ -7573,7 +7573,7 @@
         <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>1.95</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6811701</v>
+        <v>6811702</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,55 +7659,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M81">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P81">
+        <v>4.5</v>
+      </c>
+      <c r="Q81">
+        <v>-0.75</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
         <v>2.05</v>
-      </c>
-      <c r="Q81">
-        <v>0.25</v>
-      </c>
-      <c r="R81">
-        <v>1.95</v>
-      </c>
-      <c r="S81">
-        <v>1.85</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7716,19 +7716,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
+        <v>3.5</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
         <v>1.05</v>
       </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6811702</v>
+        <v>6811701</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,55 +7748,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="L82">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N82">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7805,19 +7805,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>45234.5</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
         <v>38</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6809768</v>
+        <v>6809770</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="O84">
         <v>3.8</v>
       </c>
       <c r="P84">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6809770</v>
+        <v>6809768</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N85">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="O85">
         <v>3.8</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8196,7 +8196,7 @@
         <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>1.65</v>
@@ -8294,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>3.1</v>
@@ -8383,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>3.5</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>1.615</v>
@@ -8549,7 +8549,7 @@
         <v>45241.5</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>3.25</v>
@@ -8638,10 +8638,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8650,7 +8650,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>1.7</v>
@@ -8828,7 +8828,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.65</v>
@@ -8905,7 +8905,7 @@
         <v>45242.5</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
         <v>38</v>
@@ -9006,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>2.7</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6809780</v>
+        <v>6809783</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,13 +9083,13 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -9098,58 +9098,58 @@
         <v>46</v>
       </c>
       <c r="K97">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M97">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6809783</v>
+        <v>6809780</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,13 +9172,13 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -9187,58 +9187,58 @@
         <v>45</v>
       </c>
       <c r="K98">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N98">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O98">
         <v>3.5</v>
       </c>
       <c r="P98">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6809785</v>
+        <v>6809782</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,49 +9350,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M100">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U100">
         <v>1.8</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
+        <v>4.5</v>
+      </c>
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB100">
         <v>0.8</v>
       </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0.8</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6809782</v>
+        <v>6809785</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,49 +9439,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>46</v>
+      </c>
+      <c r="K101">
+        <v>4.2</v>
+      </c>
+      <c r="L101">
+        <v>3.6</v>
+      </c>
+      <c r="M101">
+        <v>1.727</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>3.5</v>
+      </c>
+      <c r="P101">
+        <v>1.8</v>
+      </c>
+      <c r="Q101">
+        <v>0.5</v>
+      </c>
+      <c r="R101">
         <v>2</v>
       </c>
-      <c r="I101">
-        <v>5</v>
-      </c>
-      <c r="J101" t="s">
-        <v>45</v>
-      </c>
-      <c r="K101">
-        <v>1.444</v>
-      </c>
-      <c r="L101">
-        <v>4.75</v>
-      </c>
-      <c r="M101">
-        <v>5.5</v>
-      </c>
-      <c r="N101">
-        <v>1.444</v>
-      </c>
-      <c r="O101">
-        <v>4.75</v>
-      </c>
-      <c r="P101">
-        <v>5.5</v>
-      </c>
-      <c r="Q101">
-        <v>-1.25</v>
-      </c>
-      <c r="R101">
-        <v>1.95</v>
-      </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
         <v>1.8</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9718,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>1.6</v>
@@ -9807,7 +9807,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.7</v>
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>1.571</v>
@@ -9985,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>6</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6809788</v>
+        <v>6809791</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,49 +10062,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R108">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
         <v>1.975</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8500000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1.2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809791</v>
+        <v>6809788</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,49 +10151,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F109" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" t="s">
         <v>40</v>
       </c>
-      <c r="G109" t="s">
-        <v>31</v>
-      </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>46</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>3.75</v>
+      </c>
+      <c r="M109">
+        <v>1.75</v>
+      </c>
+      <c r="N109">
+        <v>3.75</v>
+      </c>
+      <c r="O109">
+        <v>3.6</v>
+      </c>
+      <c r="P109">
+        <v>1.85</v>
+      </c>
+      <c r="Q109">
+        <v>0.75</v>
+      </c>
+      <c r="R109">
+        <v>1.7</v>
+      </c>
+      <c r="S109">
+        <v>2.2</v>
+      </c>
+      <c r="T109">
         <v>3</v>
-      </c>
-      <c r="J109" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109">
-        <v>1.55</v>
-      </c>
-      <c r="L109">
-        <v>4.333</v>
-      </c>
-      <c r="M109">
-        <v>4.75</v>
-      </c>
-      <c r="N109">
-        <v>1.4</v>
-      </c>
-      <c r="O109">
-        <v>4.75</v>
-      </c>
-      <c r="P109">
-        <v>6</v>
-      </c>
-      <c r="Q109">
-        <v>-1.25</v>
-      </c>
-      <c r="R109">
-        <v>1.875</v>
-      </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
-      <c r="T109">
-        <v>3.25</v>
       </c>
       <c r="U109">
         <v>1.975</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>1.909</v>
@@ -10332,7 +10332,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.65</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,49 +10418,49 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N112">
+        <v>4.75</v>
+      </c>
+      <c r="O112">
+        <v>4.333</v>
+      </c>
+      <c r="P112">
         <v>1.5</v>
       </c>
-      <c r="O112">
-        <v>4</v>
-      </c>
-      <c r="P112">
-        <v>5.75</v>
-      </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
         <v>1.9</v>
@@ -10469,7 +10469,7 @@
         <v>1.9</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10478,7 +10478,7 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,49 +10507,49 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L113">
+        <v>3.6</v>
+      </c>
+      <c r="M113">
         <v>4</v>
       </c>
-      <c r="M113">
-        <v>1.55</v>
-      </c>
       <c r="N113">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
         <v>1.9</v>
@@ -10558,7 +10558,7 @@
         <v>1.9</v>
       </c>
       <c r="W113">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10567,7 +10567,7 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10596,7 +10596,7 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>3</v>
@@ -10786,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>5.25</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6809792</v>
+        <v>6809796</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10875,64 +10875,64 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N117">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q117">
+        <v>0.75</v>
+      </c>
+      <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
+        <v>1.85</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>0.75</v>
+      </c>
+      <c r="Z117">
+        <v>-0.5</v>
+      </c>
+      <c r="AA117">
         <v>0.5</v>
       </c>
-      <c r="R117">
-        <v>1.775</v>
-      </c>
-      <c r="S117">
-        <v>2.025</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>2</v>
-      </c>
-      <c r="V117">
-        <v>1.8</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>1.1</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
-      <c r="AA117">
-        <v>1.025</v>
-      </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6809796</v>
+        <v>6809792</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,10 +10952,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10964,44 +10964,44 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
+        <v>1.775</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>3.25</v>
-      </c>
-      <c r="U118">
-        <v>1.95</v>
-      </c>
-      <c r="V118">
-        <v>1.85</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>2.05</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>1.727</v>
@@ -11222,7 +11222,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11231,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>3.1</v>
@@ -11400,7 +11400,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.5</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>1.7</v>
@@ -11575,7 +11575,7 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -11664,7 +11664,7 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11676,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K126">
         <v>1.615</v>
@@ -11765,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11842,7 +11842,7 @@
         <v>45277.5</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
         <v>44</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>1.333</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>1.6</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6809805</v>
+        <v>6811689</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P130">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
         <v>2.05</v>
       </c>
-      <c r="V130">
-        <v>1.8</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811689</v>
+        <v>6809805</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
+        <v>2.025</v>
+      </c>
+      <c r="T131">
+        <v>3.25</v>
+      </c>
+      <c r="U131">
+        <v>2.05</v>
+      </c>
+      <c r="V131">
         <v>1.8</v>
       </c>
-      <c r="S131">
-        <v>2.05</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
-      <c r="U131">
-        <v>1.8</v>
-      </c>
-      <c r="V131">
-        <v>2.05</v>
-      </c>
       <c r="W131">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>1.025</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.8</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12210,7 +12210,7 @@
         <v>4</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
         <v>5.5</v>
@@ -12299,7 +12299,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12388,7 +12388,7 @@
         <v>4</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12477,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>3.8</v>
@@ -12554,7 +12554,7 @@
         <v>45305.5</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
         <v>43</v>
@@ -12566,7 +12566,7 @@
         <v>5</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12646,7 +12646,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K137">
         <v>3.3</v>
@@ -12732,7 +12732,7 @@
         <v>45310.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>42</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>1.571</v>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -12999,7 +12999,7 @@
         <v>45312.63541666666</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>31</v>
@@ -13011,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>45</v>
       </c>
       <c r="K142">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="N142">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q142">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>46</v>
       </c>
       <c r="K143">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M143">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N143">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
         <v>1.825</v>
       </c>
       <c r="W143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K144">
         <v>2.1</v>
@@ -13355,7 +13355,7 @@
         <v>45318.59375</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>1.3</v>
@@ -13634,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13714,7 +13714,7 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2.55</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6809823</v>
+        <v>6809825</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,10 +13800,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13812,28 +13812,28 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="N150">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R150">
         <v>1.775</v>
@@ -13842,13 +13842,13 @@
         <v>2.025</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13857,19 +13857,19 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.05</v>
+        <v>0.615</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6809825</v>
+        <v>6809823</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,10 +13889,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13901,28 +13901,28 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K151">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L151">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N151">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
         <v>1.775</v>
@@ -13931,13 +13931,13 @@
         <v>2.025</v>
       </c>
       <c r="T151">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13946,19 +13946,19 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.615</v>
+        <v>1.05</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13990,7 +13990,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>2.75</v>
@@ -14159,7 +14159,7 @@
         <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14168,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14245,7 +14245,7 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
         <v>34</v>
@@ -14257,7 +14257,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
         <v>2.2</v>
@@ -14346,7 +14346,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>1.615</v>
@@ -14435,7 +14435,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
         <v>2.8</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7755427</v>
+        <v>7755426</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L158">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7755426</v>
+        <v>7755427</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F159" t="s">
+        <v>37</v>
+      </c>
+      <c r="G159" t="s">
         <v>29</v>
       </c>
-      <c r="G159" t="s">
-        <v>33</v>
-      </c>
       <c r="H159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N159">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P159">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X159">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14702,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>2.1</v>
@@ -14868,7 +14868,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
         <v>32</v>
@@ -14957,7 +14957,7 @@
         <v>45332.5</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
         <v>42</v>
@@ -14969,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.444</v>
@@ -15058,7 +15058,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15135,10 +15135,10 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F165" t="s">
+        <v>30</v>
+      </c>
+      <c r="G165" t="s">
         <v>29</v>
-      </c>
-      <c r="G165" t="s">
-        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15147,7 +15147,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K165">
         <v>2.15</v>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>2.75</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.222</v>
@@ -15414,7 +15414,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K168">
         <v>2.2</v>
@@ -15503,7 +15503,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K169">
         <v>2.15</v>
@@ -15592,7 +15592,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K170">
         <v>4.5</v>
@@ -15681,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K171">
         <v>2.875</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K172">
         <v>1.615</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6811680</v>
+        <v>6809835</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N173">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O173">
         <v>3.5</v>
       </c>
       <c r="P173">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q173">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6809835</v>
+        <v>6811680</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
         <v>46</v>
       </c>
       <c r="K174">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N174">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O174">
         <v>3.5</v>
       </c>
       <c r="P174">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16028,7 +16028,7 @@
         <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>45340.5</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
         <v>39</v>
@@ -16126,7 +16126,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.375</v>
@@ -16215,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K177">
         <v>3.25</v>
@@ -16292,10 +16292,10 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F178" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" t="s">
         <v>41</v>
-      </c>
-      <c r="G178" t="s">
-        <v>40</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.533</v>
@@ -16470,7 +16470,7 @@
         <v>45346.5</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
         <v>37</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K180">
         <v>5</v>
@@ -16571,7 +16571,7 @@
         <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K181">
         <v>1.615</v>
@@ -16740,7 +16740,7 @@
         <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>3.3</v>
@@ -17226,10 +17226,10 @@
         <v>45353.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K189">
         <v>1.5</v>
@@ -17448,7 +17448,7 @@
         <v>45354.5</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
         <v>32</v>
@@ -17463,31 +17463,31 @@
         <v>1.8</v>
       </c>
       <c r="N192">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q192">
         <v>0.5</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17522,7 +17522,7 @@
         <v>45354.63541666666</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
         <v>35</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>ZulteWaregem</t>
   </si>
   <si>
-    <t>FCV Dender EH</t>
+    <t>Lommel</t>
   </si>
   <si>
-    <t>Lommel</t>
+    <t>FCV Dender EH</t>
   </si>
   <si>
     <t>KFCO Beerschot Wilrijk</t>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6809713</v>
+        <v>6809714</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
+        <v>3.75</v>
+      </c>
+      <c r="M10">
         <v>3.4</v>
       </c>
-      <c r="M10">
-        <v>3.1</v>
-      </c>
       <c r="N10">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
+        <v>-0.75</v>
+      </c>
+      <c r="R10">
+        <v>1.85</v>
+      </c>
+      <c r="S10">
+        <v>1.95</v>
+      </c>
+      <c r="T10">
+        <v>3.25</v>
+      </c>
+      <c r="U10">
+        <v>1.875</v>
+      </c>
+      <c r="V10">
+        <v>1.925</v>
+      </c>
+      <c r="W10">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0.425</v>
+      </c>
+      <c r="AA10">
         <v>-0.5</v>
       </c>
-      <c r="R10">
-        <v>1.9</v>
-      </c>
-      <c r="S10">
-        <v>1.9</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>1.8</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>2.6</v>
-      </c>
-      <c r="Z10">
-        <v>-1</v>
-      </c>
-      <c r="AA10">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6809714</v>
+        <v>6809713</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3.4</v>
+      </c>
+      <c r="M11">
+        <v>3.1</v>
+      </c>
+      <c r="N11">
+        <v>1.833</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
+        <v>3.6</v>
+      </c>
+      <c r="Q11">
+        <v>-0.5</v>
+      </c>
+      <c r="R11">
+        <v>1.9</v>
+      </c>
+      <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
+        <v>2.75</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1.8</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>2.6</v>
+      </c>
+      <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11">
-        <v>1.8</v>
-      </c>
-      <c r="L11">
-        <v>3.75</v>
-      </c>
-      <c r="M11">
-        <v>3.4</v>
-      </c>
-      <c r="N11">
-        <v>1.65</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>3.75</v>
-      </c>
-      <c r="Q11">
-        <v>-0.75</v>
-      </c>
-      <c r="R11">
-        <v>1.85</v>
-      </c>
-      <c r="S11">
-        <v>1.95</v>
-      </c>
-      <c r="T11">
-        <v>3.25</v>
-      </c>
-      <c r="U11">
-        <v>1.875</v>
-      </c>
-      <c r="V11">
-        <v>1.925</v>
-      </c>
-      <c r="W11">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>0.425</v>
-      </c>
-      <c r="AA11">
-        <v>-0.5</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6809722</v>
+        <v>6809723</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,58 +2230,58 @@
         <v>45164.625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>45</v>
       </c>
       <c r="K20">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
         <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2296,10 +2296,10 @@
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.5625</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6809723</v>
+        <v>6809722</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45164.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>45</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,10 +2385,10 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.5625</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6809727</v>
+        <v>6809726</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,10 +2675,10 @@
         <v>45170.625</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2690,61 +2690,61 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P25">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6809726</v>
+        <v>6809727</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,10 +2764,10 @@
         <v>45170.625</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2779,61 +2779,61 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N26">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,73 +3387,73 @@
         <v>45184.625</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
         <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45184.625</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
         <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34">
         <v>0.925</v>
       </c>
-      <c r="AA34">
-        <v>-1</v>
-      </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3654,10 +3654,10 @@
         <v>45185.625</v>
       </c>
       <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6809739</v>
+        <v>6809738</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45191.625</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
         <v>3.25</v>
       </c>
       <c r="N41">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
+        <v>1.85</v>
+      </c>
+      <c r="S41">
+        <v>1.95</v>
+      </c>
+      <c r="T41">
+        <v>3.25</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
         <v>1.8</v>
       </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
-      <c r="T41">
-        <v>2.75</v>
-      </c>
-      <c r="U41">
-        <v>1.9</v>
-      </c>
-      <c r="V41">
-        <v>1.9</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X41">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6809738</v>
+        <v>6809739</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45191.625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
         <v>3.25</v>
       </c>
       <c r="N42">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O42">
+        <v>3.5</v>
+      </c>
+      <c r="P42">
         <v>3.75</v>
-      </c>
-      <c r="P42">
-        <v>3.4</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45198.625</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N49">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
+        <v>1.85</v>
+      </c>
+      <c r="S49">
         <v>1.95</v>
       </c>
-      <c r="S49">
-        <v>1.85</v>
-      </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z49">
+        <v>0.425</v>
+      </c>
+      <c r="AA49">
         <v>-0.5</v>
       </c>
-      <c r="AA49">
-        <v>0.425</v>
-      </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45198.625</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N50">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
+        <v>1.95</v>
+      </c>
+      <c r="S50">
         <v>1.85</v>
       </c>
-      <c r="S50">
-        <v>1.95</v>
-      </c>
       <c r="T50">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y50">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
+        <v>-0.5</v>
+      </c>
+      <c r="AA50">
         <v>0.425</v>
       </c>
-      <c r="AA50">
-        <v>-0.5</v>
-      </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6809749</v>
+        <v>6809744</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45199.625</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L52">
         <v>3.4</v>
       </c>
       <c r="M52">
+        <v>2.3</v>
+      </c>
+      <c r="N52">
+        <v>2.3</v>
+      </c>
+      <c r="O52">
+        <v>3.5</v>
+      </c>
+      <c r="P52">
+        <v>2.55</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
+        <v>1.975</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>1.9</v>
+      </c>
+      <c r="V52">
+        <v>1.9</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
         <v>2.5</v>
       </c>
-      <c r="N52">
-        <v>2.15</v>
-      </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
-      <c r="P52">
-        <v>2.8</v>
-      </c>
-      <c r="Q52">
-        <v>-0.25</v>
-      </c>
-      <c r="R52">
-        <v>2</v>
-      </c>
-      <c r="S52">
-        <v>1.8</v>
-      </c>
-      <c r="T52">
-        <v>2.75</v>
-      </c>
-      <c r="U52">
-        <v>1.875</v>
-      </c>
-      <c r="V52">
-        <v>1.925</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>-1</v>
-      </c>
       <c r="Y52">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6809744</v>
+        <v>6809749</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45199.625</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L53">
         <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N53">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6809753</v>
+        <v>6809750</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,49 +5523,49 @@
         <v>45205.625</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M57">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P57">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
         <v>1.975</v>
@@ -5574,25 +5574,25 @@
         <v>1.825</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6809750</v>
+        <v>6809753</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,49 +5612,49 @@
         <v>45205.625</v>
       </c>
       <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
         <v>38</v>
-      </c>
-      <c r="G58" t="s">
-        <v>44</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O58">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>1.975</v>
@@ -5663,25 +5663,25 @@
         <v>1.825</v>
       </c>
       <c r="W58">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6809754</v>
+        <v>6811708</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45206.625</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60">
+        <v>2.1</v>
+      </c>
+      <c r="L60">
+        <v>3.25</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>2.4</v>
+      </c>
+      <c r="O60">
+        <v>3.1</v>
+      </c>
+      <c r="P60">
+        <v>2.7</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1.8</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
+        <v>1.8</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>1.7</v>
+      </c>
+      <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
         <v>1</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>45</v>
-      </c>
-      <c r="K60">
-        <v>1.615</v>
-      </c>
-      <c r="L60">
-        <v>3.9</v>
-      </c>
-      <c r="M60">
-        <v>4.2</v>
-      </c>
-      <c r="N60">
-        <v>1.95</v>
-      </c>
-      <c r="O60">
-        <v>3.75</v>
-      </c>
-      <c r="P60">
-        <v>2.9</v>
-      </c>
-      <c r="Q60">
-        <v>-0.25</v>
-      </c>
-      <c r="R60">
-        <v>1.875</v>
-      </c>
-      <c r="S60">
-        <v>1.975</v>
-      </c>
-      <c r="T60">
-        <v>3</v>
-      </c>
-      <c r="U60">
-        <v>1.95</v>
-      </c>
-      <c r="V60">
-        <v>1.9</v>
-      </c>
-      <c r="W60">
-        <v>0.95</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
-        <v>0.875</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6811708</v>
+        <v>6809754</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45206.625</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M61">
+        <v>4.2</v>
+      </c>
+      <c r="N61">
+        <v>1.95</v>
+      </c>
+      <c r="O61">
+        <v>3.75</v>
+      </c>
+      <c r="P61">
+        <v>2.9</v>
+      </c>
+      <c r="Q61">
+        <v>-0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.875</v>
+      </c>
+      <c r="S61">
+        <v>1.975</v>
+      </c>
+      <c r="T61">
         <v>3</v>
       </c>
-      <c r="N61">
-        <v>2.4</v>
-      </c>
-      <c r="O61">
-        <v>3.1</v>
-      </c>
-      <c r="P61">
-        <v>2.7</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>1.8</v>
-      </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6327,7 +6327,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6811706</v>
+        <v>6809761</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,10 +6502,10 @@
         <v>45220.625</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6517,43 +6517,43 @@
         <v>45</v>
       </c>
       <c r="K68">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N68">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W68">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6809761</v>
+        <v>6811706</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,10 +6591,10 @@
         <v>45220.625</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6606,43 +6606,43 @@
         <v>45</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M69">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -6947,7 +6947,7 @@
         <v>45226.625</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>36</v>
@@ -7395,7 +7395,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6809770</v>
+        <v>6809768</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N84">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="O84">
         <v>3.8</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6809768</v>
+        <v>6809770</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="O85">
         <v>3.8</v>
       </c>
       <c r="P85">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6809776</v>
+        <v>6809779</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>45</v>
       </c>
       <c r="K89">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
         <v>4</v>
       </c>
       <c r="M89">
+        <v>4.5</v>
+      </c>
+      <c r="N89">
+        <v>1.615</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>4.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.75</v>
+      </c>
+      <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>2.05</v>
+      </c>
+      <c r="V89">
         <v>1.8</v>
       </c>
-      <c r="N89">
-        <v>3.8</v>
-      </c>
-      <c r="O89">
-        <v>4.2</v>
-      </c>
-      <c r="P89">
-        <v>1.7</v>
-      </c>
-      <c r="Q89">
-        <v>0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.9</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
-      </c>
-      <c r="U89">
-        <v>1.925</v>
-      </c>
-      <c r="V89">
-        <v>1.925</v>
-      </c>
       <c r="W89">
-        <v>2.8</v>
+        <v>0.615</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6809779</v>
+        <v>6809776</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>45</v>
       </c>
       <c r="K90">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L90">
         <v>4</v>
       </c>
       <c r="M90">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N90">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>0.615</v>
+        <v>2.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,16 +8520,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9083,7 +9083,7 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
         <v>32</v>
@@ -9175,7 +9175,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>34</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6809791</v>
+        <v>6809788</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,49 +10062,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>46</v>
       </c>
       <c r="K108">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N108">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.2</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U108">
         <v>1.975</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809788</v>
+        <v>6809791</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,49 +10151,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>46</v>
       </c>
       <c r="K109">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M109">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N109">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R109">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
         <v>1.975</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.8500000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
         <v>43</v>
@@ -10599,7 +10599,7 @@
         <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10777,7 +10777,7 @@
         <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6809796</v>
+        <v>6809792</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10878,41 +10878,41 @@
         <v>46</v>
       </c>
       <c r="K117">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N117">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>3</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>3.25</v>
-      </c>
-      <c r="U117">
-        <v>1.95</v>
-      </c>
-      <c r="V117">
-        <v>1.85</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
@@ -10920,19 +10920,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6809792</v>
+        <v>6809796</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,10 +10952,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10967,61 +10967,61 @@
         <v>46</v>
       </c>
       <c r="K118">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M118">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N118">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q118">
+        <v>0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <v>3.25</v>
+      </c>
+      <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
+        <v>1.85</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>0.75</v>
+      </c>
+      <c r="Z118">
+        <v>-0.5</v>
+      </c>
+      <c r="AA118">
         <v>0.5</v>
       </c>
-      <c r="R118">
-        <v>1.775</v>
-      </c>
-      <c r="S118">
-        <v>2.025</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>2</v>
-      </c>
-      <c r="V118">
-        <v>1.8</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>1.1</v>
-      </c>
-      <c r="Z118">
-        <v>-1</v>
-      </c>
-      <c r="AA118">
-        <v>1.025</v>
-      </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
         <v>33</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K125">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M125">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P125">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
         <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X125">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L126">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N126">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O126">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
         <v>1.975</v>
       </c>
       <c r="W126">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>45277.63541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>42</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811689</v>
+        <v>6809805</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
+        <v>1.825</v>
+      </c>
+      <c r="S130">
+        <v>2.025</v>
+      </c>
+      <c r="T130">
+        <v>3.25</v>
+      </c>
+      <c r="U130">
+        <v>2.05</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="S130">
-        <v>2.05</v>
-      </c>
-      <c r="T130">
-        <v>2.25</v>
-      </c>
-      <c r="U130">
-        <v>1.8</v>
-      </c>
-      <c r="V130">
-        <v>2.05</v>
-      </c>
       <c r="W130">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>1.025</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.8</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
-      <c r="AC130">
-        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6809805</v>
+        <v>6811689</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P131">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
         <v>2.05</v>
       </c>
-      <c r="V131">
-        <v>1.8</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12379,7 +12379,7 @@
         <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K142">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M142">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N142">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
+      <c r="J143" t="s">
+        <v>45</v>
+      </c>
+      <c r="K143">
+        <v>4.2</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>1.8</v>
+      </c>
+      <c r="N143">
         <v>4</v>
       </c>
-      <c r="J143" t="s">
-        <v>46</v>
-      </c>
-      <c r="K143">
-        <v>6.5</v>
-      </c>
-      <c r="L143">
-        <v>4.5</v>
-      </c>
-      <c r="M143">
-        <v>1.444</v>
-      </c>
-      <c r="N143">
-        <v>7.5</v>
-      </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q143">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
         <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>45318.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
         <v>32</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6809825</v>
+        <v>6809823</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,10 +13800,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13815,25 +13815,25 @@
         <v>46</v>
       </c>
       <c r="K150">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N150">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="Q150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R150">
         <v>1.775</v>
@@ -13842,13 +13842,13 @@
         <v>2.025</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13857,19 +13857,19 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.615</v>
+        <v>1.05</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6809823</v>
+        <v>6809825</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,10 +13889,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13904,25 +13904,25 @@
         <v>46</v>
       </c>
       <c r="K151">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="N151">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R151">
         <v>1.775</v>
@@ -13931,13 +13931,13 @@
         <v>2.025</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13946,19 +13946,19 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.05</v>
+        <v>0.615</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14067,10 +14067,10 @@
         <v>45325.66666666666</v>
       </c>
       <c r="F153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G153" t="s">
         <v>38</v>
-      </c>
-      <c r="G153" t="s">
-        <v>37</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7755426</v>
+        <v>7755425</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,40 +14512,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
         <v>3.5</v>
       </c>
       <c r="M158">
+        <v>3.3</v>
+      </c>
+      <c r="N158">
         <v>2.5</v>
-      </c>
-      <c r="N158">
-        <v>2.9</v>
       </c>
       <c r="O158">
         <v>3.5</v>
       </c>
       <c r="P158">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
         <v>1.85</v>
@@ -14557,31 +14557,31 @@
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X158">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>0.45</v>
+      </c>
+      <c r="AC158">
         <v>-0.5</v>
-      </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
-      <c r="AC158">
-        <v>0.875</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7755427</v>
+        <v>7755426</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K159">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O159">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7755425</v>
+        <v>7755427</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14693,55 +14693,55 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>45</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="L160">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N160">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P160">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W160">
-        <v>1.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14750,16 +14750,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6809832</v>
+        <v>6809831</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,40 +14779,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N161">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
+        <v>3.5</v>
+      </c>
+      <c r="P161">
         <v>3.8</v>
       </c>
-      <c r="P161">
-        <v>4.5</v>
-      </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
         <v>1.95</v>
@@ -14821,19 +14821,19 @@
         <v>1.85</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14845,10 +14845,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6809831</v>
+        <v>6809832</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,40 +14868,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>47</v>
       </c>
       <c r="K162">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N162">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
         <v>1.95</v>
@@ -14910,19 +14910,19 @@
         <v>1.85</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14934,10 +14934,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15227,7 +15227,7 @@
         <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6809838</v>
+        <v>6809839</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,73 +15580,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="I170">
         <v>1</v>
       </c>
-      <c r="I170">
-        <v>3</v>
-      </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K170">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N170">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O170">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P170">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6809839</v>
+        <v>6809838</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,73 +15669,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
         <v>3</v>
       </c>
-      <c r="I171">
+      <c r="J171" t="s">
+        <v>46</v>
+      </c>
+      <c r="K171">
+        <v>4.5</v>
+      </c>
+      <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>1.571</v>
+      </c>
+      <c r="N171">
+        <v>5.25</v>
+      </c>
+      <c r="O171">
+        <v>4.333</v>
+      </c>
+      <c r="P171">
+        <v>1.55</v>
+      </c>
+      <c r="Q171">
         <v>1</v>
       </c>
-      <c r="J171" t="s">
-        <v>45</v>
-      </c>
-      <c r="K171">
-        <v>2.875</v>
-      </c>
-      <c r="L171">
-        <v>3.6</v>
-      </c>
-      <c r="M171">
-        <v>2.05</v>
-      </c>
-      <c r="N171">
-        <v>3.5</v>
-      </c>
-      <c r="O171">
-        <v>3.8</v>
-      </c>
-      <c r="P171">
-        <v>1.95</v>
-      </c>
-      <c r="Q171">
-        <v>0.5</v>
-      </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W171">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15758,7 +15758,7 @@
         <v>45339.5</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
         <v>35</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6809835</v>
+        <v>6811680</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K173">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N173">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O173">
         <v>3.5</v>
       </c>
       <c r="P173">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6811680</v>
+        <v>6809835</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>4</v>
-      </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N174">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O174">
         <v>3.5</v>
       </c>
       <c r="P174">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q174">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16829,7 +16829,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17009,6 +17009,15 @@
       <c r="G186" t="s">
         <v>44</v>
       </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>47</v>
+      </c>
       <c r="K186">
         <v>1.25</v>
       </c>
@@ -17019,46 +17028,52 @@
         <v>8.5</v>
       </c>
       <c r="N186">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="O186">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P186">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Q186">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17083,6 +17098,15 @@
       <c r="G187" t="s">
         <v>34</v>
       </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>45</v>
+      </c>
       <c r="K187">
         <v>3.75</v>
       </c>
@@ -17093,22 +17117,22 @@
         <v>1.8</v>
       </c>
       <c r="N187">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O187">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q187">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
         <v>3.25</v>
@@ -17117,22 +17141,28 @@
         <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB187">
+        <v>-0.5</v>
+      </c>
+      <c r="AC187">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17167,31 +17197,31 @@
         <v>2.7</v>
       </c>
       <c r="N188">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O188">
         <v>3.5</v>
       </c>
       <c r="P188">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17241,31 +17271,31 @@
         <v>5.75</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O189">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q189">
         <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
         <v>3</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17300,7 +17330,7 @@
         <v>45353.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
         <v>33</v>
@@ -17327,10 +17357,10 @@
         <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
         <v>2.75</v>
@@ -17374,7 +17404,7 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G191" t="s">
         <v>39</v>
@@ -17389,22 +17419,22 @@
         <v>2.7</v>
       </c>
       <c r="N191">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O191">
         <v>3.5</v>
       </c>
       <c r="P191">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q191">
         <v>0</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S191">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T191">
         <v>2.75</v>
@@ -17537,31 +17567,31 @@
         <v>3.75</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P193">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q193">
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,19 @@
     <t>Belgium First Division B</t>
   </si>
   <si>
-    <t>Seraing United</t>
+    <t>Anderlecht II</t>
   </si>
   <si>
-    <t>Anderlecht II</t>
+    <t>Seraing United</t>
   </si>
   <si>
     <t>Club Brugge II</t>
   </si>
   <si>
-    <t>Patro Eisden Maasmechelen</t>
+    <t>RFC Liege</t>
   </si>
   <si>
-    <t>RFC Liege</t>
+    <t>Patro Eisden Maasmechelen</t>
   </si>
   <si>
     <t>Genk II</t>
@@ -151,10 +151,10 @@
     <t>Standard Liege II</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6809710</v>
+        <v>6809709</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>3</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N2">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB2">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6809709</v>
+        <v>6809710</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>3.1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6809711</v>
+        <v>6811722</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -910,31 +910,31 @@
         <v>45</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N5">
+        <v>1.8</v>
+      </c>
+      <c r="O5">
+        <v>3.6</v>
+      </c>
+      <c r="P5">
+        <v>3.5</v>
+      </c>
+      <c r="Q5">
+        <v>-0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
-      </c>
-      <c r="O5">
-        <v>3.5</v>
-      </c>
-      <c r="P5">
-        <v>3.2</v>
-      </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.75</v>
@@ -946,25 +946,25 @@
         <v>1.975</v>
       </c>
       <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>2.5</v>
+      </c>
+      <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
         <v>0.95</v>
       </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6811722</v>
+        <v>6809711</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -999,31 +999,31 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
         <v>2.75</v>
@@ -1035,25 +1035,25 @@
         <v>1.975</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>4.333</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>1.727</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.444</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>1.8</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>1.95</v>
@@ -1610,7 +1610,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>2.6</v>
@@ -1788,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>2.3</v>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.2</v>
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>2.375</v>
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>1.833</v>
@@ -2141,7 +2141,7 @@
         <v>45163.625</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2153,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>2.1</v>
@@ -2319,7 +2319,7 @@
         <v>45164.625</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>3.1</v>
@@ -2497,7 +2497,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2589,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6809726</v>
+        <v>6809727</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,10 +2675,10 @@
         <v>45170.625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2690,61 +2690,61 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6809727</v>
+        <v>6809726</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,10 +2764,10 @@
         <v>45170.625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2779,61 +2779,61 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2856,7 +2856,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2945,7 +2945,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>1.833</v>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3212,7 +3212,7 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.2</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,73 +3387,73 @@
         <v>45184.625</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
         <v>45</v>
       </c>
       <c r="K33">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>0.925</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45184.625</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>46</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3565,10 +3565,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>2.5</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3835,7 +3835,7 @@
         <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.25</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>1.95</v>
@@ -4188,7 +4188,7 @@
         <v>45191.625</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4277,10 +4277,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
         <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>1.571</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4636,7 +4636,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4645,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>1.444</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>2.55</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45198.625</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N49">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
+        <v>1.95</v>
+      </c>
+      <c r="S49">
         <v>1.85</v>
       </c>
-      <c r="S49">
-        <v>1.95</v>
-      </c>
       <c r="T49">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y49">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
+        <v>-0.5</v>
+      </c>
+      <c r="AA49">
         <v>0.425</v>
       </c>
-      <c r="AA49">
-        <v>-0.5</v>
-      </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45198.625</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N50">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
+        <v>1.85</v>
+      </c>
+      <c r="S50">
         <v>1.95</v>
       </c>
-      <c r="S50">
-        <v>1.85</v>
-      </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z50">
+        <v>0.425</v>
+      </c>
+      <c r="AA50">
         <v>-0.5</v>
       </c>
-      <c r="AA50">
-        <v>0.425</v>
-      </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6809744</v>
+        <v>6809749</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45199.625</v>
       </c>
       <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s">
         <v>30</v>
       </c>
-      <c r="G52" t="s">
-        <v>42</v>
-      </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L52">
         <v>3.4</v>
       </c>
       <c r="M52">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6809749</v>
+        <v>6809744</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45199.625</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L53">
         <v>3.4</v>
       </c>
       <c r="M53">
+        <v>2.3</v>
+      </c>
+      <c r="N53">
+        <v>2.3</v>
+      </c>
+      <c r="O53">
+        <v>3.5</v>
+      </c>
+      <c r="P53">
+        <v>2.55</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>1.825</v>
+      </c>
+      <c r="S53">
+        <v>1.975</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>1.9</v>
+      </c>
+      <c r="V53">
+        <v>1.9</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
         <v>2.5</v>
       </c>
-      <c r="N53">
-        <v>2.15</v>
-      </c>
-      <c r="O53">
-        <v>3.4</v>
-      </c>
-      <c r="P53">
-        <v>2.8</v>
-      </c>
-      <c r="Q53">
-        <v>-0.25</v>
-      </c>
-      <c r="R53">
-        <v>2</v>
-      </c>
-      <c r="S53">
-        <v>1.8</v>
-      </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
-      <c r="U53">
-        <v>1.875</v>
-      </c>
-      <c r="V53">
-        <v>1.925</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
       <c r="Y53">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.833</v>
@@ -5345,7 +5345,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>3.8</v>
@@ -5446,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.8</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>1.4</v>
@@ -5612,7 +5612,7 @@
         <v>45205.625</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>2.7</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6811708</v>
+        <v>6809754</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45206.625</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>0</v>
-      </c>
-      <c r="I60">
-        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>46</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M60">
+        <v>4.2</v>
+      </c>
+      <c r="N60">
+        <v>1.95</v>
+      </c>
+      <c r="O60">
+        <v>3.75</v>
+      </c>
+      <c r="P60">
+        <v>2.9</v>
+      </c>
+      <c r="Q60">
+        <v>-0.25</v>
+      </c>
+      <c r="R60">
+        <v>1.875</v>
+      </c>
+      <c r="S60">
+        <v>1.975</v>
+      </c>
+      <c r="T60">
         <v>3</v>
       </c>
-      <c r="N60">
-        <v>2.4</v>
-      </c>
-      <c r="O60">
-        <v>3.1</v>
-      </c>
-      <c r="P60">
-        <v>2.7</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>1.8</v>
-      </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>2.75</v>
-      </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6809754</v>
+        <v>6811708</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45206.625</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
       </c>
       <c r="K61">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L61">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5980,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6060,7 +6060,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>1.8</v>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6809760</v>
+        <v>6809759</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,49 +6235,49 @@
         <v>45219.625</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L65">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N65">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.775</v>
@@ -6286,7 +6286,7 @@
         <v>2.025</v>
       </c>
       <c r="W65">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6295,16 +6295,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
+        <v>0.3875</v>
+      </c>
+      <c r="AC65">
         <v>-0.5</v>
-      </c>
-      <c r="AB65">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6809759</v>
+        <v>6809760</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,49 +6324,49 @@
         <v>45219.625</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M66">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U66">
         <v>1.775</v>
@@ -6375,7 +6375,7 @@
         <v>2.025</v>
       </c>
       <c r="W66">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6384,16 +6384,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>1.666</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6809761</v>
+        <v>6811706</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,10 +6502,10 @@
         <v>45220.625</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6514,46 +6514,46 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M68">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6811706</v>
+        <v>6809761</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,10 +6591,10 @@
         <v>45220.625</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,46 +6603,46 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N69">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -6861,7 +6861,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6809764</v>
+        <v>6811704</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,16 +6947,16 @@
         <v>45226.625</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
@@ -6971,52 +6971,52 @@
         <v>2.625</v>
       </c>
       <c r="N73">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
+        <v>1.975</v>
+      </c>
+      <c r="S73">
+        <v>1.825</v>
+      </c>
+      <c r="T73">
+        <v>2.25</v>
+      </c>
+      <c r="U73">
         <v>1.8</v>
       </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>2</v>
-      </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6811704</v>
+        <v>6809764</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,16 +7036,16 @@
         <v>45226.625</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
@@ -7060,52 +7060,52 @@
         <v>2.625</v>
       </c>
       <c r="N74">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O74">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
         <v>1.8</v>
       </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>2.1</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>1.7</v>
@@ -7315,7 +7315,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>2.05</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>5.25</v>
@@ -7570,10 +7570,10 @@
         <v>45228.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>1.95</v>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>1.65</v>
@@ -7751,7 +7751,7 @@
         <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7760,7 +7760,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>3</v>
@@ -7837,7 +7837,7 @@
         <v>45234.5</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
         <v>37</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6809768</v>
+        <v>6809770</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="O84">
         <v>3.8</v>
       </c>
       <c r="P84">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6809770</v>
+        <v>6809768</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N85">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="O85">
         <v>3.8</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8193,10 +8193,10 @@
         <v>45235.5</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>1.65</v>
@@ -8294,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>3.1</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>1.615</v>
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90">
         <v>3.5</v>
@@ -8549,7 +8549,7 @@
         <v>45241.5</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>3.25</v>
@@ -8638,7 +8638,7 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
         <v>41</v>
@@ -8650,7 +8650,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>1.7</v>
@@ -8816,7 +8816,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>42</v>
@@ -8828,7 +8828,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>1.65</v>
@@ -8994,7 +8994,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>36</v>
@@ -9006,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.7</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6809783</v>
+        <v>6809780</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,13 +9083,13 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -9098,58 +9098,58 @@
         <v>46</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N97">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6809780</v>
+        <v>6809783</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,13 +9172,13 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -9187,58 +9187,58 @@
         <v>45</v>
       </c>
       <c r="K98">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O98">
         <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6809782</v>
+        <v>6809785</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,49 +9350,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="L100">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="O100">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
         <v>1.8</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6809785</v>
+        <v>6809782</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,49 +9439,49 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M101">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U101">
         <v>1.8</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
+        <v>4.5</v>
+      </c>
+      <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB101">
         <v>0.8</v>
       </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
-      <c r="AA101">
-        <v>0.8</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9620,7 +9620,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9718,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.6</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6809789</v>
+        <v>6809787</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,52 +9795,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M105">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N105">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V105">
         <v>1.8</v>
@@ -9852,13 +9852,13 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>1.2</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6809787</v>
+        <v>6809789</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,52 +9884,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K106">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V106">
         <v>1.8</v>
@@ -9941,13 +9941,13 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>1.2</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -9985,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>6</v>
@@ -10062,7 +10062,7 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10074,7 +10074,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>4</v>
@@ -10163,7 +10163,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>1.55</v>
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>1.909</v>
@@ -10329,10 +10329,10 @@
         <v>45263.5</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
         <v>1.65</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>4.5</v>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>1.75</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N114">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
         <v>3.5</v>
       </c>
       <c r="P114">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L115">
         <v>3.5</v>
       </c>
       <c r="M115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O115">
         <v>3.5</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y115">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA115">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>5.25</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6809792</v>
+        <v>6809796</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10875,64 +10875,64 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K117">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N117">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q117">
+        <v>0.75</v>
+      </c>
+      <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
+        <v>1.85</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>0.75</v>
+      </c>
+      <c r="Z117">
+        <v>-0.5</v>
+      </c>
+      <c r="AA117">
         <v>0.5</v>
       </c>
-      <c r="R117">
-        <v>1.775</v>
-      </c>
-      <c r="S117">
-        <v>2.025</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>2</v>
-      </c>
-      <c r="V117">
-        <v>1.8</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>1.1</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
-      <c r="AA117">
-        <v>1.025</v>
-      </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6809796</v>
+        <v>6809792</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,10 +10952,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10964,44 +10964,44 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
+        <v>1.775</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>3.25</v>
-      </c>
-      <c r="U118">
-        <v>1.95</v>
-      </c>
-      <c r="V118">
-        <v>1.85</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>2.05</v>
@@ -11130,7 +11130,7 @@
         <v>45270.5</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>43</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
         <v>1.727</v>
@@ -11231,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>3.1</v>
@@ -11311,7 +11311,7 @@
         <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11400,7 +11400,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>1.5</v>
@@ -11486,7 +11486,7 @@
         <v>45276.5</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K124">
         <v>1.7</v>
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11664,7 +11664,7 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
         <v>35</v>
@@ -11765,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K128">
         <v>1.333</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>1.6</v>
@@ -12023,7 +12023,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12109,10 +12109,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
+        <v>32</v>
+      </c>
+      <c r="G131" t="s">
         <v>33</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>2.2</v>
@@ -12210,7 +12210,7 @@
         <v>4</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>5.5</v>
@@ -12299,7 +12299,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12388,7 +12388,7 @@
         <v>4</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12477,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>3.8</v>
@@ -12554,7 +12554,7 @@
         <v>45305.5</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
         <v>43</v>
@@ -12566,7 +12566,7 @@
         <v>5</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12655,7 +12655,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K137">
         <v>3.3</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>1.571</v>
@@ -12910,7 +12910,7 @@
         <v>45312.5</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
         <v>44</v>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13011,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13100,7 +13100,7 @@
         <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>6.5</v>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K143">
         <v>4.2</v>
@@ -13269,7 +13269,7 @@
         <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K144">
         <v>2.1</v>
@@ -13355,7 +13355,7 @@
         <v>45318.59375</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13447,7 +13447,7 @@
         <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>1.3</v>
@@ -13622,7 +13622,7 @@
         <v>45319.5</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13634,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2.55</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6809823</v>
+        <v>6809825</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,10 +13800,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13812,28 +13812,28 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K150">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="N150">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R150">
         <v>1.775</v>
@@ -13842,13 +13842,13 @@
         <v>2.025</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13857,19 +13857,19 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.05</v>
+        <v>0.615</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6809825</v>
+        <v>6809823</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,10 +13889,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13901,28 +13901,28 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K151">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L151">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N151">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
         <v>1.775</v>
@@ -13931,13 +13931,13 @@
         <v>2.025</v>
       </c>
       <c r="T151">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13946,19 +13946,19 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.615</v>
+        <v>1.05</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13990,7 +13990,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>2.75</v>
@@ -14168,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14245,7 +14245,7 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
         <v>34</v>
@@ -14257,7 +14257,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>2.2</v>
@@ -14334,7 +14334,7 @@
         <v>45326.5</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>43</v>
@@ -14346,7 +14346,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K156">
         <v>1.615</v>
@@ -14423,7 +14423,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
         <v>39</v>
@@ -14435,7 +14435,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>2.8</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7755425</v>
+        <v>7755426</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,40 +14512,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L158">
         <v>3.5</v>
       </c>
       <c r="M158">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
         <v>3.5</v>
       </c>
       <c r="P158">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
         <v>1.85</v>
@@ -14557,31 +14557,31 @@
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7755426</v>
+        <v>7755425</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,40 +14601,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L159">
         <v>3.5</v>
       </c>
       <c r="M159">
+        <v>3.3</v>
+      </c>
+      <c r="N159">
         <v>2.5</v>
-      </c>
-      <c r="N159">
-        <v>2.9</v>
       </c>
       <c r="O159">
         <v>3.5</v>
       </c>
       <c r="P159">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
         <v>1.85</v>
@@ -14646,31 +14646,31 @@
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X159">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
+        <v>-1</v>
+      </c>
+      <c r="AB159">
+        <v>0.45</v>
+      </c>
+      <c r="AC159">
         <v>-0.5</v>
-      </c>
-      <c r="AB159">
-        <v>-1</v>
-      </c>
-      <c r="AC159">
-        <v>0.875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
         <v>1.55</v>
@@ -14782,7 +14782,7 @@
         <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K163">
         <v>1.444</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6809828</v>
+        <v>6809834</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,55 +15046,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N164">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15103,16 +15103,16 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB164">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC164">
         <v>-0.5</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6809834</v>
+        <v>6809828</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,55 +15135,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N165">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15192,16 +15192,16 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB165">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC165">
         <v>-0.5</v>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>2.75</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K167">
         <v>1.222</v>
@@ -15405,7 +15405,7 @@
         <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15414,7 +15414,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>2.2</v>
@@ -15503,7 +15503,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>2.15</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6809839</v>
+        <v>6809838</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,73 +15580,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
         <v>3</v>
-      </c>
-      <c r="I170">
-        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>45</v>
       </c>
       <c r="K170">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="N170">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P170">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="Q170">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6809838</v>
+        <v>6809839</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,73 +15669,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
         <v>1</v>
-      </c>
-      <c r="I171">
-        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>46</v>
       </c>
       <c r="K171">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N171">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O171">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P171">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K172">
         <v>1.615</v>
@@ -15847,10 +15847,10 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>3.1</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>2.1</v>
@@ -16025,10 +16025,10 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16126,7 +16126,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K176">
         <v>2.375</v>
@@ -16215,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K177">
         <v>3.25</v>
@@ -16381,7 +16381,7 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K179">
         <v>1.533</v>
@@ -16470,7 +16470,7 @@
         <v>45346.5</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K180">
         <v>5</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6811678</v>
+        <v>6811679</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,76 +16559,76 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L181">
+        <v>4.5</v>
+      </c>
+      <c r="M181">
+        <v>6</v>
+      </c>
+      <c r="N181">
+        <v>1.363</v>
+      </c>
+      <c r="O181">
+        <v>4.75</v>
+      </c>
+      <c r="P181">
+        <v>6.5</v>
+      </c>
+      <c r="Q181">
+        <v>-1.5</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>3.25</v>
+      </c>
+      <c r="U181">
+        <v>1.95</v>
+      </c>
+      <c r="V181">
+        <v>1.85</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
         <v>3.75</v>
       </c>
-      <c r="M181">
-        <v>4.75</v>
-      </c>
-      <c r="N181">
-        <v>1.55</v>
-      </c>
-      <c r="O181">
-        <v>4</v>
-      </c>
-      <c r="P181">
-        <v>5</v>
-      </c>
-      <c r="Q181">
-        <v>-1</v>
-      </c>
-      <c r="R181">
-        <v>1.975</v>
-      </c>
-      <c r="S181">
-        <v>1.825</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>1.8</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
       <c r="Y181">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6811679</v>
+        <v>6811678</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K182">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L182">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M182">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N182">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="O182">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q182">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S182">
+        <v>1.825</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
         <v>1.8</v>
       </c>
-      <c r="T182">
-        <v>3.25</v>
-      </c>
-      <c r="U182">
-        <v>1.95</v>
-      </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
+        <v>0.825</v>
+      </c>
+      <c r="AB182">
         <v>0.8</v>
       </c>
-      <c r="AB182">
-        <v>-1</v>
-      </c>
       <c r="AC182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16740,7 +16740,7 @@
         <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
         <v>3.3</v>
@@ -17105,7 +17105,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K187">
         <v>3.75</v>
@@ -17187,6 +17187,15 @@
       <c r="G188" t="s">
         <v>43</v>
       </c>
+      <c r="H188">
+        <v>3</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>46</v>
+      </c>
       <c r="K188">
         <v>2.4</v>
       </c>
@@ -17197,22 +17206,22 @@
         <v>2.7</v>
       </c>
       <c r="N188">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O188">
         <v>3.5</v>
       </c>
       <c r="P188">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R188">
+        <v>2.05</v>
+      </c>
+      <c r="S188">
         <v>1.8</v>
-      </c>
-      <c r="S188">
-        <v>2.05</v>
       </c>
       <c r="T188">
         <v>2.75</v>
@@ -17224,19 +17233,25 @@
         <v>1.9</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB188">
+        <v>0.95</v>
+      </c>
+      <c r="AC188">
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17274,16 @@
         <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>46</v>
       </c>
       <c r="K189">
         <v>1.5</v>
@@ -17271,7 +17295,7 @@
         <v>5.75</v>
       </c>
       <c r="N189">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O189">
         <v>4.2</v>
@@ -17283,34 +17307,40 @@
         <v>-1</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
         <v>3</v>
       </c>
       <c r="U189">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>0.875</v>
+      </c>
+      <c r="AC189">
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17333,7 +17363,16 @@
         <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>46</v>
       </c>
       <c r="K190">
         <v>1.85</v>
@@ -17345,22 +17384,22 @@
         <v>3.8</v>
       </c>
       <c r="N190">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O190">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q190">
         <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T190">
         <v>2.75</v>
@@ -17369,22 +17408,28 @@
         <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17478,10 +17523,10 @@
         <v>45354.5</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K192">
         <v>4.2</v>
@@ -17505,19 +17550,19 @@
         <v>0.5</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17579,10 +17624,10 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
         <v>2.75</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,19 @@
     <t>Belgium First Division B</t>
   </si>
   <si>
-    <t>Anderlecht II</t>
+    <t>Seraing United</t>
   </si>
   <si>
-    <t>Seraing United</t>
+    <t>Anderlecht II</t>
   </si>
   <si>
     <t>Club Brugge II</t>
   </si>
   <si>
-    <t>RFC Liege</t>
+    <t>Patro Eisden Maasmechelen</t>
   </si>
   <si>
-    <t>Patro Eisden Maasmechelen</t>
+    <t>RFC Liege</t>
   </si>
   <si>
     <t>Genk II</t>
@@ -127,19 +127,19 @@
     <t>ZulteWaregem</t>
   </si>
   <si>
-    <t>Lommel</t>
+    <t>FCV Dender EH</t>
   </si>
   <si>
-    <t>FCV Dender EH</t>
+    <t>Lommel</t>
   </si>
   <si>
     <t>KFCO Beerschot Wilrijk</t>
   </si>
   <si>
-    <t>WaaslandBeveren</t>
+    <t>Deinze</t>
   </si>
   <si>
-    <t>Deinze</t>
+    <t>WaaslandBeveren</t>
   </si>
   <si>
     <t>Lierse Kempenzonen</t>
@@ -151,10 +151,10 @@
     <t>Standard Liege II</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC193"/>
+  <dimension ref="A1:AC201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6809709</v>
+        <v>6809710</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6809710</v>
+        <v>6809709</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>3</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>3.1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6811722</v>
+        <v>6809711</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -910,31 +910,31 @@
         <v>45</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2.75</v>
@@ -946,25 +946,25 @@
         <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6809711</v>
+        <v>6811722</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -999,31 +999,31 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
+        <v>1.8</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
+        <v>3.5</v>
+      </c>
+      <c r="Q6">
+        <v>-0.5</v>
+      </c>
+      <c r="R6">
+        <v>1.85</v>
+      </c>
+      <c r="S6">
         <v>1.95</v>
-      </c>
-      <c r="O6">
-        <v>3.5</v>
-      </c>
-      <c r="P6">
-        <v>3.2</v>
-      </c>
-      <c r="Q6">
-        <v>-0.25</v>
-      </c>
-      <c r="R6">
-        <v>1.775</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
       </c>
       <c r="T6">
         <v>2.75</v>
@@ -1035,25 +1035,25 @@
         <v>1.975</v>
       </c>
       <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>2.5</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
         <v>0.95</v>
       </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>4.333</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>1.727</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>1.444</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6809714</v>
+        <v>6809713</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10">
+        <v>3.1</v>
+      </c>
+      <c r="N10">
+        <v>1.833</v>
+      </c>
+      <c r="O10">
+        <v>3.4</v>
+      </c>
+      <c r="P10">
+        <v>3.6</v>
+      </c>
+      <c r="Q10">
+        <v>-0.5</v>
+      </c>
+      <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
         <v>1.8</v>
       </c>
-      <c r="L10">
-        <v>3.75</v>
-      </c>
-      <c r="M10">
-        <v>3.4</v>
-      </c>
-      <c r="N10">
-        <v>1.65</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>3.75</v>
-      </c>
-      <c r="Q10">
-        <v>-0.75</v>
-      </c>
-      <c r="R10">
-        <v>1.85</v>
-      </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>3.25</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
-      <c r="V10">
-        <v>1.925</v>
-      </c>
       <c r="W10">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z10">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6809713</v>
+        <v>6809714</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
+        <v>3.75</v>
+      </c>
+      <c r="M11">
         <v>3.4</v>
       </c>
-      <c r="M11">
-        <v>3.1</v>
-      </c>
       <c r="N11">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q11">
+        <v>-0.75</v>
+      </c>
+      <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>3.25</v>
+      </c>
+      <c r="U11">
+        <v>1.875</v>
+      </c>
+      <c r="V11">
+        <v>1.925</v>
+      </c>
+      <c r="W11">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>0.425</v>
+      </c>
+      <c r="AA11">
         <v>-0.5</v>
       </c>
-      <c r="R11">
-        <v>1.9</v>
-      </c>
-      <c r="S11">
-        <v>1.9</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>1.8</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>2.6</v>
-      </c>
-      <c r="Z11">
-        <v>-1</v>
-      </c>
-      <c r="AA11">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>1.95</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6809716</v>
+        <v>6811719</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L13">
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N13">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X13">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6811719</v>
+        <v>6809716</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,73 +1699,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>2.3</v>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>2.2</v>
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>2.375</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6809720</v>
+        <v>6809719</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,40 +2052,40 @@
         <v>45163.625</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
+        <v>3.6</v>
+      </c>
+      <c r="O18">
+        <v>3.5</v>
+      </c>
+      <c r="P18">
         <v>1.909</v>
       </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="P18">
-        <v>3.2</v>
-      </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
         <v>1.9</v>
@@ -2094,14 +2094,14 @@
         <v>1.9</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
+        <v>1.85</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.2</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2118,10 +2118,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6809719</v>
+        <v>6809720</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,40 +2141,40 @@
         <v>45163.625</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
         <v>3.4</v>
       </c>
-      <c r="M19">
-        <v>2.5</v>
-      </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
         <v>1.9</v>
@@ -2183,14 +2183,14 @@
         <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
+        <v>1.95</v>
+      </c>
+      <c r="V19">
         <v>1.85</v>
       </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.909</v>
+        <v>2.2</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2207,10 +2207,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,10 +2230,10 @@
         <v>45164.625</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>2.1</v>
@@ -2319,10 +2319,10 @@
         <v>45164.625</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.1</v>
@@ -2408,7 +2408,7 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -2497,7 +2497,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2589,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6809727</v>
+        <v>6809726</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,10 +2675,10 @@
         <v>45170.625</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2690,61 +2690,61 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P25">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6809726</v>
+        <v>6809727</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,10 +2764,10 @@
         <v>45170.625</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2779,61 +2779,61 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N26">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,10 +2853,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6811715</v>
+        <v>6809728</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45171.625</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N28">
+        <v>1.533</v>
+      </c>
+      <c r="O28">
+        <v>4.333</v>
+      </c>
+      <c r="P28">
+        <v>4.75</v>
+      </c>
+      <c r="Q28">
+        <v>-1</v>
+      </c>
+      <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.25</v>
+      </c>
+      <c r="U28">
         <v>1.95</v>
       </c>
-      <c r="O28">
-        <v>3.6</v>
-      </c>
-      <c r="P28">
-        <v>3.25</v>
-      </c>
-      <c r="Q28">
+      <c r="V28">
+        <v>1.85</v>
+      </c>
+      <c r="W28">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>-0</v>
+      </c>
+      <c r="AB28">
         <v>-0.5</v>
       </c>
-      <c r="R28">
-        <v>1.975</v>
-      </c>
-      <c r="S28">
-        <v>1.825</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>2.6</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>-1</v>
-      </c>
-      <c r="AA28">
-        <v>0.825</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
       <c r="AC28">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6809728</v>
+        <v>6811715</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45171.625</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3212,7 +3212,7 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>45172.625</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>1.2</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,73 +3387,73 @@
         <v>45184.625</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>45</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
         <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45184.625</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>46</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
         <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34">
         <v>0.925</v>
       </c>
-      <c r="AA34">
-        <v>-1</v>
-      </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3565,10 +3565,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>2.5</v>
@@ -3654,10 +3654,10 @@
         <v>45185.625</v>
       </c>
       <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
         <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3746,7 +3746,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3832,10 +3832,10 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>2.25</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4102,7 +4102,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.95</v>
@@ -4188,10 +4188,10 @@
         <v>45191.625</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4277,10 +4277,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
         <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811711</v>
+        <v>6809740</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,34 +4366,34 @@
         <v>45192.625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
         <v>1.727</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P44">
         <v>3.8</v>
@@ -4402,37 +4402,37 @@
         <v>-0.75</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.8</v>
+      </c>
+      <c r="T44">
+        <v>3.25</v>
+      </c>
+      <c r="U44">
         <v>1.95</v>
       </c>
-      <c r="S44">
-        <v>1.9</v>
-      </c>
-      <c r="T44">
-        <v>3</v>
-      </c>
-      <c r="U44">
+      <c r="V44">
         <v>1.85</v>
       </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6809740</v>
+        <v>6811711</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,34 +4455,34 @@
         <v>45192.625</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
         <v>1.727</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
         <v>3.8</v>
@@ -4491,37 +4491,37 @@
         <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4544,7 +4544,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4633,10 +4633,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4645,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>1.444</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>2.55</v>
@@ -4811,10 +4811,10 @@
         <v>45198.625</v>
       </c>
       <c r="F49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
         <v>41</v>
-      </c>
-      <c r="G49" t="s">
-        <v>40</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>5.5</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6809749</v>
+        <v>6809744</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45199.625</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L52">
         <v>3.4</v>
       </c>
       <c r="M52">
+        <v>2.3</v>
+      </c>
+      <c r="N52">
+        <v>2.3</v>
+      </c>
+      <c r="O52">
+        <v>3.5</v>
+      </c>
+      <c r="P52">
+        <v>2.55</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
+        <v>1.975</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>1.9</v>
+      </c>
+      <c r="V52">
+        <v>1.9</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
         <v>2.5</v>
       </c>
-      <c r="N52">
-        <v>2.15</v>
-      </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
-      <c r="P52">
-        <v>2.8</v>
-      </c>
-      <c r="Q52">
-        <v>-0.25</v>
-      </c>
-      <c r="R52">
-        <v>2</v>
-      </c>
-      <c r="S52">
-        <v>1.8</v>
-      </c>
-      <c r="T52">
-        <v>2.75</v>
-      </c>
-      <c r="U52">
-        <v>1.875</v>
-      </c>
-      <c r="V52">
-        <v>1.925</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>-1</v>
-      </c>
       <c r="Y52">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6809744</v>
+        <v>6809749</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45199.625</v>
       </c>
       <c r="F53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s">
         <v>29</v>
       </c>
-      <c r="G53" t="s">
-        <v>42</v>
-      </c>
       <c r="H53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L53">
         <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N53">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>1.833</v>
@@ -5345,10 +5345,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>3.8</v>
@@ -5434,7 +5434,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5446,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>1.8</v>
@@ -5523,7 +5523,7 @@
         <v>45205.625</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
         <v>44</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>1.4</v>
@@ -5612,10 +5612,10 @@
         <v>45205.625</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>2.7</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6809754</v>
+        <v>6811708</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45206.625</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>46</v>
       </c>
       <c r="K60">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L60">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M60">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6811708</v>
+        <v>6809754</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45206.625</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M61">
+        <v>4.2</v>
+      </c>
+      <c r="N61">
+        <v>1.95</v>
+      </c>
+      <c r="O61">
+        <v>3.75</v>
+      </c>
+      <c r="P61">
+        <v>2.9</v>
+      </c>
+      <c r="Q61">
+        <v>-0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.875</v>
+      </c>
+      <c r="S61">
+        <v>1.975</v>
+      </c>
+      <c r="T61">
         <v>3</v>
       </c>
-      <c r="N61">
-        <v>2.4</v>
-      </c>
-      <c r="O61">
-        <v>3.1</v>
-      </c>
-      <c r="P61">
-        <v>2.7</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>1.8</v>
-      </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
         <v>36</v>
@@ -5980,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6060,7 +6060,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>1.8</v>
@@ -6149,7 +6149,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6324,7 +6324,7 @@
         <v>45219.625</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
@@ -6336,7 +6336,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.533</v>
@@ -6413,7 +6413,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>1.666</v>
@@ -6505,7 +6505,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>1.65</v>
@@ -6594,7 +6594,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6680,7 +6680,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -6772,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -6861,7 +6861,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>45226.625</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7125,7 +7125,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>2.1</v>
@@ -7214,7 +7214,7 @@
         <v>45227.625</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
         <v>43</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.7</v>
@@ -7315,7 +7315,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>2.05</v>
@@ -7395,7 +7395,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7484,7 +7484,7 @@
         <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>5.25</v>
@@ -7570,10 +7570,10 @@
         <v>45228.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>1.95</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6811702</v>
+        <v>6811701</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,55 +7659,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="L81">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N81">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7716,19 +7716,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6811701</v>
+        <v>6811702</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,55 +7748,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
+        <v>4.5</v>
+      </c>
+      <c r="Q82">
+        <v>-0.75</v>
+      </c>
+      <c r="R82">
+        <v>1.8</v>
+      </c>
+      <c r="S82">
         <v>2.05</v>
-      </c>
-      <c r="Q82">
-        <v>0.25</v>
-      </c>
-      <c r="R82">
-        <v>1.95</v>
-      </c>
-      <c r="S82">
-        <v>1.85</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7805,19 +7805,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
+        <v>3.5</v>
+      </c>
+      <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
         <v>1.05</v>
       </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,10 +7837,10 @@
         <v>45234.5</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6809770</v>
+        <v>6809768</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N84">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="O84">
         <v>3.8</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6809768</v>
+        <v>6809770</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="O85">
         <v>3.8</v>
       </c>
       <c r="P85">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,10 +8104,10 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8193,10 +8193,10 @@
         <v>45235.5</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>1.65</v>
@@ -8294,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>3.1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6809779</v>
+        <v>6809776</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L89">
         <v>4</v>
       </c>
       <c r="M89">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N89">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q89">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>0.615</v>
+        <v>2.8</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6809776</v>
+        <v>6809779</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L90">
         <v>4</v>
       </c>
       <c r="M90">
+        <v>4.5</v>
+      </c>
+      <c r="N90">
+        <v>1.615</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>4.5</v>
+      </c>
+      <c r="Q90">
+        <v>-0.75</v>
+      </c>
+      <c r="R90">
+        <v>1.85</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>2.05</v>
+      </c>
+      <c r="V90">
         <v>1.8</v>
       </c>
-      <c r="N90">
-        <v>3.8</v>
-      </c>
-      <c r="O90">
-        <v>4.2</v>
-      </c>
-      <c r="P90">
-        <v>1.7</v>
-      </c>
-      <c r="Q90">
-        <v>0.75</v>
-      </c>
-      <c r="R90">
-        <v>1.9</v>
-      </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
-      <c r="U90">
-        <v>1.925</v>
-      </c>
-      <c r="V90">
-        <v>1.925</v>
-      </c>
       <c r="W90">
-        <v>2.8</v>
+        <v>0.615</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,16 +8520,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>45241.5</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>3.25</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6809774</v>
+        <v>6811700</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>45</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N92">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
         <v>3.6</v>
       </c>
-      <c r="P92">
-        <v>1.909</v>
-      </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
+        <v>1.975</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
+        <v>1.85</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>2.025</v>
-      </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.95</v>
-      </c>
-      <c r="AB92">
-        <v>1.025</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6811700</v>
+        <v>6809774</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>1.95</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>2.025</v>
+      </c>
+      <c r="V93">
         <v>1.825</v>
       </c>
-      <c r="S93">
-        <v>1.975</v>
-      </c>
-      <c r="T93">
-        <v>2.75</v>
-      </c>
-      <c r="U93">
-        <v>1.85</v>
-      </c>
-      <c r="V93">
-        <v>1.95</v>
-      </c>
       <c r="W93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8816,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>42</v>
@@ -8828,7 +8828,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.65</v>
@@ -8905,10 +8905,10 @@
         <v>45242.5</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>36</v>
@@ -9006,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>2.7</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6809780</v>
+        <v>6809783</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,13 +9083,13 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -9098,58 +9098,58 @@
         <v>46</v>
       </c>
       <c r="K97">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M97">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6809783</v>
+        <v>6809780</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,13 +9172,13 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F98" t="s">
+        <v>41</v>
+      </c>
+      <c r="G98" t="s">
         <v>37</v>
       </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -9187,58 +9187,58 @@
         <v>45</v>
       </c>
       <c r="K98">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N98">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O98">
         <v>3.5</v>
       </c>
       <c r="P98">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9353,7 +9353,7 @@
         <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>4.2</v>
@@ -9442,7 +9442,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9451,7 +9451,7 @@
         <v>5</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9531,7 +9531,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9620,7 +9620,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9718,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>1.6</v>
@@ -9795,7 +9795,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
         <v>34</v>
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>1.571</v>
@@ -9884,7 +9884,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -9896,7 +9896,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>2.7</v>
@@ -9985,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>6</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6809788</v>
+        <v>6809791</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,49 +10062,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R108">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
         <v>1.975</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8500000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1.2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809791</v>
+        <v>6809788</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,49 +10151,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F109" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" t="s">
         <v>41</v>
       </c>
-      <c r="G109" t="s">
-        <v>31</v>
-      </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>46</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>3.75</v>
+      </c>
+      <c r="M109">
+        <v>1.75</v>
+      </c>
+      <c r="N109">
+        <v>3.75</v>
+      </c>
+      <c r="O109">
+        <v>3.6</v>
+      </c>
+      <c r="P109">
+        <v>1.85</v>
+      </c>
+      <c r="Q109">
+        <v>0.75</v>
+      </c>
+      <c r="R109">
+        <v>1.7</v>
+      </c>
+      <c r="S109">
+        <v>2.2</v>
+      </c>
+      <c r="T109">
         <v>3</v>
-      </c>
-      <c r="J109" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109">
-        <v>1.55</v>
-      </c>
-      <c r="L109">
-        <v>4.333</v>
-      </c>
-      <c r="M109">
-        <v>4.75</v>
-      </c>
-      <c r="N109">
-        <v>1.4</v>
-      </c>
-      <c r="O109">
-        <v>4.75</v>
-      </c>
-      <c r="P109">
-        <v>6</v>
-      </c>
-      <c r="Q109">
-        <v>-1.25</v>
-      </c>
-      <c r="R109">
-        <v>1.875</v>
-      </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
-      <c r="T109">
-        <v>3.25</v>
       </c>
       <c r="U109">
         <v>1.975</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>1.909</v>
@@ -10329,10 +10329,10 @@
         <v>45263.5</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.65</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,49 +10418,49 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L112">
+        <v>3.6</v>
+      </c>
+      <c r="M112">
         <v>4</v>
       </c>
-      <c r="M112">
-        <v>1.55</v>
-      </c>
       <c r="N112">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
         <v>1.9</v>
@@ -10469,7 +10469,7 @@
         <v>1.9</v>
       </c>
       <c r="W112">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10478,7 +10478,7 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,49 +10507,49 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N113">
+        <v>4.75</v>
+      </c>
+      <c r="O113">
+        <v>4.333</v>
+      </c>
+      <c r="P113">
         <v>1.5</v>
       </c>
-      <c r="O113">
-        <v>4</v>
-      </c>
-      <c r="P113">
-        <v>5.75</v>
-      </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R113">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U113">
         <v>1.9</v>
@@ -10558,7 +10558,7 @@
         <v>1.9</v>
       </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10567,7 +10567,7 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6809794</v>
+        <v>6809793</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N114">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O114">
         <v>3.5</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y114">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA114">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6809793</v>
+        <v>6809794</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L115">
         <v>3.5</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N115">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
         <v>3.5</v>
       </c>
       <c r="P115">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z115">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10786,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>5.25</v>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10955,7 +10955,7 @@
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K118">
         <v>2.5</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>2.05</v>
@@ -11130,7 +11130,7 @@
         <v>45270.5</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
         <v>43</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>1.727</v>
@@ -11222,7 +11222,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11231,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>3.1</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6811691</v>
+        <v>6809803</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M122">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N122">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O122">
         <v>4</v>
       </c>
       <c r="P122">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U122">
+        <v>1.85</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6809803</v>
+        <v>6811691</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O123">
         <v>4</v>
       </c>
       <c r="P123">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
+        <v>1.975</v>
+      </c>
+      <c r="S123">
+        <v>1.825</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
         <v>1.95</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.85</v>
       </c>
-      <c r="T123">
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>3</v>
       </c>
-      <c r="U123">
-        <v>1.85</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>0.615</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45276.5</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>1.7</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6809802</v>
+        <v>6811692</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N125">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O125">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
         <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6811692</v>
+        <v>6809802</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N126">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P126">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
         <v>1.975</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X126">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11842,7 +11842,7 @@
         <v>45277.5</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
         <v>44</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>1.333</v>
@@ -11931,7 +11931,7 @@
         <v>45277.63541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
         <v>42</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>1.6</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6809805</v>
+        <v>6811689</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P130">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
         <v>2.05</v>
       </c>
-      <c r="V130">
-        <v>1.8</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811689</v>
+        <v>6809805</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
+        <v>2.025</v>
+      </c>
+      <c r="T131">
+        <v>3.25</v>
+      </c>
+      <c r="U131">
+        <v>2.05</v>
+      </c>
+      <c r="V131">
         <v>1.8</v>
       </c>
-      <c r="S131">
-        <v>2.05</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
-      <c r="U131">
-        <v>1.8</v>
-      </c>
-      <c r="V131">
-        <v>2.05</v>
-      </c>
       <c r="W131">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>1.025</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.8</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12210,7 +12210,7 @@
         <v>4</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
         <v>5.5</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6809809</v>
+        <v>6809804</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,56 +12287,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
         <v>37</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
         <v>1.95</v>
       </c>
-      <c r="V133">
-        <v>1.85</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
@@ -12344,19 +12344,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6809804</v>
+        <v>6809809</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,56 +12376,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>38</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N134">
+        <v>5.25</v>
+      </c>
+      <c r="O134">
         <v>4.2</v>
       </c>
-      <c r="O134">
-        <v>3.8</v>
-      </c>
       <c r="P134">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q134">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R134">
+        <v>1.975</v>
+      </c>
+      <c r="S134">
+        <v>1.825</v>
+      </c>
+      <c r="T134">
+        <v>3</v>
+      </c>
+      <c r="U134">
+        <v>1.95</v>
+      </c>
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="S134">
-        <v>1.95</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
-      <c r="U134">
-        <v>1.85</v>
-      </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12433,19 +12433,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>3.8</v>
@@ -12554,7 +12554,7 @@
         <v>45305.5</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
         <v>43</v>
@@ -12566,7 +12566,7 @@
         <v>5</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12646,7 +12646,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K137">
         <v>3.3</v>
@@ -12732,7 +12732,7 @@
         <v>45310.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
         <v>42</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>1.571</v>
@@ -12910,7 +12910,7 @@
         <v>45312.5</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
         <v>44</v>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -12999,7 +12999,7 @@
         <v>45312.63541666666</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
         <v>31</v>
@@ -13011,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>45</v>
       </c>
       <c r="K142">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="N142">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q142">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>46</v>
       </c>
       <c r="K143">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M143">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N143">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
         <v>1.825</v>
       </c>
       <c r="W143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K144">
         <v>2.1</v>
@@ -13355,7 +13355,7 @@
         <v>45318.59375</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13444,10 +13444,10 @@
         <v>45318.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>1.3</v>
@@ -13622,7 +13622,7 @@
         <v>45319.5</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13634,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13714,7 +13714,7 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2.55</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6809825</v>
+        <v>6809823</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,10 +13800,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13812,28 +13812,28 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N150">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="Q150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R150">
         <v>1.775</v>
@@ -13842,13 +13842,13 @@
         <v>2.025</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13857,19 +13857,19 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.615</v>
+        <v>1.05</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6809823</v>
+        <v>6809825</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,10 +13889,10 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13901,28 +13901,28 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K151">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="N151">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R151">
         <v>1.775</v>
@@ -13931,13 +13931,13 @@
         <v>2.025</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13946,19 +13946,19 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.05</v>
+        <v>0.615</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13990,7 +13990,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>2.75</v>
@@ -14067,10 +14067,10 @@
         <v>45325.66666666666</v>
       </c>
       <c r="F153" t="s">
+        <v>38</v>
+      </c>
+      <c r="G153" t="s">
         <v>37</v>
-      </c>
-      <c r="G153" t="s">
-        <v>38</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14159,7 +14159,7 @@
         <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14168,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14245,7 +14245,7 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
         <v>34</v>
@@ -14257,7 +14257,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
         <v>2.2</v>
@@ -14334,7 +14334,7 @@
         <v>45326.5</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>43</v>
@@ -14346,7 +14346,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>1.615</v>
@@ -14423,7 +14423,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
         <v>39</v>
@@ -14435,7 +14435,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
         <v>2.8</v>
@@ -14512,10 +14512,10 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14601,7 +14601,7 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
         <v>39</v>
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K159">
         <v>2.1</v>
@@ -14690,10 +14690,10 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>1.55</v>
@@ -14779,10 +14779,10 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14957,7 +14957,7 @@
         <v>45332.5</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
         <v>42</v>
@@ -14969,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.444</v>
@@ -15046,10 +15046,10 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F164" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s">
         <v>29</v>
-      </c>
-      <c r="G164" t="s">
-        <v>30</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15058,7 +15058,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K164">
         <v>2.15</v>
@@ -15138,7 +15138,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15147,7 +15147,7 @@
         <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K165">
         <v>2.5</v>
@@ -15227,7 +15227,7 @@
         <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>2.75</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.222</v>
@@ -15405,7 +15405,7 @@
         <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15414,7 +15414,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K168">
         <v>2.2</v>
@@ -15503,7 +15503,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K169">
         <v>2.15</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6809838</v>
+        <v>6809839</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,73 +15580,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="I170">
         <v>1</v>
-      </c>
-      <c r="I170">
-        <v>3</v>
       </c>
       <c r="J170" t="s">
         <v>45</v>
       </c>
       <c r="K170">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N170">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O170">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P170">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6809839</v>
+        <v>6809838</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,73 +15669,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
         <v>3</v>
-      </c>
-      <c r="I171">
-        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>46</v>
       </c>
       <c r="K171">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M171">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="N171">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O171">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P171">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="Q171">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W171">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15758,7 +15758,7 @@
         <v>45339.5</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
         <v>35</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K172">
         <v>1.615</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6811680</v>
+        <v>6809835</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N173">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O173">
         <v>3.5</v>
       </c>
       <c r="P173">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q173">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6809835</v>
+        <v>6811680</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
         <v>46</v>
       </c>
       <c r="K174">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N174">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O174">
         <v>3.5</v>
       </c>
       <c r="P174">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,10 +16025,10 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>45340.5</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
         <v>39</v>
@@ -16126,7 +16126,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.375</v>
@@ -16215,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K177">
         <v>3.25</v>
@@ -16292,10 +16292,10 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F178" t="s">
+        <v>41</v>
+      </c>
+      <c r="G178" t="s">
         <v>40</v>
-      </c>
-      <c r="G178" t="s">
-        <v>41</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16381,7 +16381,7 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.533</v>
@@ -16470,10 +16470,10 @@
         <v>45346.5</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K180">
         <v>5</v>
@@ -16559,7 +16559,7 @@
         <v>45346.66666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>44</v>
@@ -16660,7 +16660,7 @@
         <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K182">
         <v>1.615</v>
@@ -16740,7 +16740,7 @@
         <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16829,7 +16829,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>3.3</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6809847</v>
+        <v>6809850</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="L186">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="M186">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N186">
-        <v>1.222</v>
+        <v>4.2</v>
       </c>
       <c r="O186">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P186">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q186">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X186">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC186">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6809850</v>
+        <v>6809847</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K187">
+        <v>1.25</v>
+      </c>
+      <c r="L187">
+        <v>6.5</v>
+      </c>
+      <c r="M187">
+        <v>8.5</v>
+      </c>
+      <c r="N187">
+        <v>1.222</v>
+      </c>
+      <c r="O187">
+        <v>7</v>
+      </c>
+      <c r="P187">
+        <v>9</v>
+      </c>
+      <c r="Q187">
+        <v>-2</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
         <v>3.75</v>
       </c>
-      <c r="L187">
-        <v>3.8</v>
-      </c>
-      <c r="M187">
-        <v>1.8</v>
-      </c>
-      <c r="N187">
-        <v>4.2</v>
-      </c>
-      <c r="O187">
-        <v>4</v>
-      </c>
-      <c r="P187">
-        <v>1.727</v>
-      </c>
-      <c r="Q187">
-        <v>0.75</v>
-      </c>
-      <c r="R187">
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
         <v>1.85</v>
       </c>
-      <c r="S187">
-        <v>1.95</v>
-      </c>
-      <c r="T187">
-        <v>3.25</v>
-      </c>
-      <c r="U187">
-        <v>1.975</v>
-      </c>
-      <c r="V187">
-        <v>1.825</v>
-      </c>
       <c r="W187">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
+        <v>0.8</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA187">
-        <v>-1</v>
-      </c>
-      <c r="AB187">
-        <v>-0.5</v>
-      </c>
-      <c r="AC187">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.4</v>
@@ -17271,10 +17271,10 @@
         <v>45353.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>4</v>
@@ -17283,7 +17283,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>1.5</v>
@@ -17360,10 +17360,10 @@
         <v>45353.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>4</v>
@@ -17372,7 +17372,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K190">
         <v>1.85</v>
@@ -17449,11 +17449,20 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
         <v>39</v>
       </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>47</v>
+      </c>
       <c r="K191">
         <v>2.45</v>
       </c>
@@ -17464,46 +17473,52 @@
         <v>2.7</v>
       </c>
       <c r="N191">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O191">
         <v>3.5</v>
       </c>
       <c r="P191">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>0.4125</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17523,10 +17538,19 @@
         <v>45354.5</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>45</v>
       </c>
       <c r="K192">
         <v>4.2</v>
@@ -17541,46 +17565,52 @@
         <v>4</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q192">
         <v>0.5</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
+        <v>0.8</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17597,11 +17627,20 @@
         <v>45354.63541666666</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
         <v>35</v>
       </c>
+      <c r="H193">
+        <v>2</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="J193" t="s">
+        <v>46</v>
+      </c>
       <c r="K193">
         <v>1.909</v>
       </c>
@@ -17612,45 +17651,643 @@
         <v>3.75</v>
       </c>
       <c r="N193">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
+        <v>3.6</v>
+      </c>
+      <c r="P193">
         <v>3.75</v>
-      </c>
-      <c r="P193">
-        <v>4</v>
       </c>
       <c r="Q193">
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
         <v>1.85</v>
       </c>
       <c r="W193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB193">
+        <v>0.95</v>
+      </c>
+      <c r="AC193">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>6809854</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45359.66666666666</v>
+      </c>
+      <c r="F194" t="s">
+        <v>39</v>
+      </c>
+      <c r="G194" t="s">
+        <v>42</v>
+      </c>
+      <c r="K194">
+        <v>1.4</v>
+      </c>
+      <c r="L194">
+        <v>5</v>
+      </c>
+      <c r="M194">
+        <v>6.5</v>
+      </c>
+      <c r="N194">
+        <v>1.4</v>
+      </c>
+      <c r="O194">
+        <v>5</v>
+      </c>
+      <c r="P194">
+        <v>6.5</v>
+      </c>
+      <c r="Q194">
+        <v>-1.25</v>
+      </c>
+      <c r="R194">
+        <v>1.85</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+      <c r="T194">
+        <v>3.25</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194">
+        <v>1.85</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6809856</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45359.66666666666</v>
+      </c>
+      <c r="F195" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" t="s">
+        <v>34</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>3.6</v>
+      </c>
+      <c r="M195">
+        <v>3.5</v>
+      </c>
+      <c r="N195">
+        <v>1.909</v>
+      </c>
+      <c r="O195">
+        <v>3.75</v>
+      </c>
+      <c r="P195">
+        <v>3.8</v>
+      </c>
+      <c r="Q195">
+        <v>-0.5</v>
+      </c>
+      <c r="R195">
+        <v>1.925</v>
+      </c>
+      <c r="S195">
+        <v>1.925</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>1.925</v>
+      </c>
+      <c r="V195">
+        <v>1.925</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6809857</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G196" t="s">
+        <v>31</v>
+      </c>
+      <c r="K196">
+        <v>2.625</v>
+      </c>
+      <c r="L196">
+        <v>3.5</v>
+      </c>
+      <c r="M196">
+        <v>2.5</v>
+      </c>
+      <c r="N196">
+        <v>3.1</v>
+      </c>
+      <c r="O196">
+        <v>3.5</v>
+      </c>
+      <c r="P196">
+        <v>2.2</v>
+      </c>
+      <c r="Q196">
+        <v>0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.95</v>
+      </c>
+      <c r="S196">
+        <v>1.9</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.85</v>
+      </c>
+      <c r="V196">
+        <v>2</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6811674</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45360.66666666666</v>
+      </c>
+      <c r="F197" t="s">
+        <v>35</v>
+      </c>
+      <c r="G197" t="s">
+        <v>37</v>
+      </c>
+      <c r="K197">
+        <v>3.4</v>
+      </c>
+      <c r="L197">
+        <v>3.5</v>
+      </c>
+      <c r="M197">
+        <v>2.1</v>
+      </c>
+      <c r="N197">
+        <v>3.4</v>
+      </c>
+      <c r="O197">
+        <v>3.5</v>
+      </c>
+      <c r="P197">
+        <v>2.1</v>
+      </c>
+      <c r="Q197">
+        <v>0.25</v>
+      </c>
+      <c r="R197">
+        <v>2.025</v>
+      </c>
+      <c r="S197">
+        <v>1.825</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
+        <v>1.85</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6809858</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45360.66666666666</v>
+      </c>
+      <c r="F198" t="s">
+        <v>29</v>
+      </c>
+      <c r="G198" t="s">
+        <v>41</v>
+      </c>
+      <c r="K198">
+        <v>4.75</v>
+      </c>
+      <c r="L198">
+        <v>3.75</v>
+      </c>
+      <c r="M198">
+        <v>1.7</v>
+      </c>
+      <c r="N198">
+        <v>4.75</v>
+      </c>
+      <c r="O198">
+        <v>3.75</v>
+      </c>
+      <c r="P198">
+        <v>1.7</v>
+      </c>
+      <c r="Q198">
+        <v>0.75</v>
+      </c>
+      <c r="R198">
+        <v>1.975</v>
+      </c>
+      <c r="S198">
+        <v>1.875</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>1.925</v>
+      </c>
+      <c r="V198">
+        <v>1.925</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6809855</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45361.39583333334</v>
+      </c>
+      <c r="F199" t="s">
+        <v>30</v>
+      </c>
+      <c r="G199" t="s">
+        <v>36</v>
+      </c>
+      <c r="K199">
+        <v>4</v>
+      </c>
+      <c r="L199">
+        <v>3.75</v>
+      </c>
+      <c r="M199">
+        <v>1.8</v>
+      </c>
+      <c r="N199">
+        <v>4.5</v>
+      </c>
+      <c r="O199">
+        <v>3.8</v>
+      </c>
+      <c r="P199">
+        <v>1.7</v>
+      </c>
+      <c r="Q199">
+        <v>0.75</v>
+      </c>
+      <c r="R199">
+        <v>1.95</v>
+      </c>
+      <c r="S199">
+        <v>1.9</v>
+      </c>
+      <c r="T199">
+        <v>3</v>
+      </c>
+      <c r="U199">
+        <v>1.8</v>
+      </c>
+      <c r="V199">
+        <v>2.05</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6809853</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F200" t="s">
+        <v>43</v>
+      </c>
+      <c r="G200" t="s">
+        <v>38</v>
+      </c>
+      <c r="K200">
+        <v>3.5</v>
+      </c>
+      <c r="L200">
+        <v>3.5</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>3.6</v>
+      </c>
+      <c r="O200">
+        <v>3.5</v>
+      </c>
+      <c r="P200">
+        <v>2</v>
+      </c>
+      <c r="Q200">
+        <v>0.5</v>
+      </c>
+      <c r="R200">
+        <v>1.825</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.75</v>
+      </c>
+      <c r="U200">
+        <v>1.975</v>
+      </c>
+      <c r="V200">
+        <v>1.875</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6811675</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45361.63541666666</v>
+      </c>
+      <c r="F201" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201" t="s">
+        <v>40</v>
+      </c>
+      <c r="K201">
+        <v>2.9</v>
+      </c>
+      <c r="L201">
+        <v>3.4</v>
+      </c>
+      <c r="M201">
+        <v>2.375</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201">
+        <v>3.4</v>
+      </c>
+      <c r="P201">
+        <v>2.3</v>
+      </c>
+      <c r="Q201">
+        <v>0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
+        <v>1.925</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Belgium First Division B</t>
   </si>
   <si>
-    <t>Seraing United</t>
+    <t>Anderlecht II</t>
   </si>
   <si>
-    <t>Anderlecht II</t>
+    <t>Seraing United</t>
   </si>
   <si>
     <t>Club Brugge II</t>
@@ -136,10 +136,10 @@
     <t>KFCO Beerschot Wilrijk</t>
   </si>
   <si>
-    <t>Deinze</t>
+    <t>WaaslandBeveren</t>
   </si>
   <si>
-    <t>WaaslandBeveren</t>
+    <t>Deinze</t>
   </si>
   <si>
     <t>Lierse Kempenzonen</t>
@@ -151,10 +151,10 @@
     <t>Standard Liege II</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6809710</v>
+        <v>6809709</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>3</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N2">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB2">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6809709</v>
+        <v>6809710</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>3.1</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>2.3</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>2.2</v>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>4.333</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>1.727</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.444</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1352,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>1.8</v>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>1.95</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6811719</v>
+        <v>6809716</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6809716</v>
+        <v>6811719</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,73 +1699,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>2.3</v>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.2</v>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>2.375</v>
@@ -2052,7 +2052,7 @@
         <v>45163.625</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2064,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.5</v>
@@ -2153,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6809723</v>
+        <v>6809722</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,58 +2230,58 @@
         <v>45164.625</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
       </c>
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N20">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2296,10 +2296,10 @@
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.5625</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6809722</v>
+        <v>6809723</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45164.625</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
         <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,10 +2385,10 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.5625</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2589,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6809726</v>
+        <v>6809727</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,10 +2675,10 @@
         <v>45170.625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2690,61 +2690,61 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6809727</v>
+        <v>6809726</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,10 +2764,10 @@
         <v>45170.625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2779,61 +2779,61 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6809728</v>
+        <v>6811715</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45171.625</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6811715</v>
+        <v>6809728</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45171.625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N29">
+        <v>1.533</v>
+      </c>
+      <c r="O29">
+        <v>4.333</v>
+      </c>
+      <c r="P29">
+        <v>4.75</v>
+      </c>
+      <c r="Q29">
+        <v>-1</v>
+      </c>
+      <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.25</v>
+      </c>
+      <c r="U29">
         <v>1.95</v>
       </c>
-      <c r="O29">
-        <v>3.6</v>
-      </c>
-      <c r="P29">
-        <v>3.25</v>
-      </c>
-      <c r="Q29">
+      <c r="V29">
+        <v>1.85</v>
+      </c>
+      <c r="W29">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>-0</v>
+      </c>
+      <c r="AB29">
         <v>-0.5</v>
       </c>
-      <c r="R29">
-        <v>1.975</v>
-      </c>
-      <c r="S29">
-        <v>1.825</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
-      <c r="V29">
-        <v>1.975</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>2.6</v>
-      </c>
-      <c r="Y29">
-        <v>-1</v>
-      </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>0.825</v>
-      </c>
-      <c r="AB29">
-        <v>-1</v>
-      </c>
       <c r="AC29">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3298,7 +3298,7 @@
         <v>45172.625</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.2</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,73 +3387,73 @@
         <v>45184.625</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
         <v>45</v>
       </c>
       <c r="K33">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>0.925</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45184.625</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>46</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3565,7 +3565,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>2.5</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3746,7 +3746,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3832,10 +3832,10 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.25</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6809738</v>
+        <v>6809739</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45191.625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
         <v>3.25</v>
       </c>
       <c r="N41">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O41">
+        <v>3.5</v>
+      </c>
+      <c r="P41">
         <v>3.75</v>
-      </c>
-      <c r="P41">
-        <v>3.4</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6809739</v>
+        <v>6809738</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45191.625</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
         <v>3.25</v>
       </c>
       <c r="N42">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P42">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
+        <v>1.95</v>
+      </c>
+      <c r="T42">
+        <v>3.25</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
         <v>1.8</v>
       </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="T42">
-        <v>2.75</v>
-      </c>
-      <c r="U42">
-        <v>1.9</v>
-      </c>
-      <c r="V42">
-        <v>1.9</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X42">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,10 +4277,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
         <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6809740</v>
+        <v>6811711</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,34 +4366,34 @@
         <v>45192.625</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
         <v>1.727</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
         <v>3.8</v>
@@ -4402,37 +4402,37 @@
         <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811711</v>
+        <v>6809740</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,34 +4455,34 @@
         <v>45192.625</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L45">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
         <v>1.727</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P45">
         <v>3.8</v>
@@ -4491,37 +4491,37 @@
         <v>-0.75</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.8</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
         <v>1.95</v>
       </c>
-      <c r="S45">
-        <v>1.9</v>
-      </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
+      <c r="V45">
         <v>1.85</v>
       </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4633,7 +4633,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4645,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>1.444</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>2.55</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6809748</v>
+        <v>6809747</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45198.625</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N49">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
+        <v>1.85</v>
+      </c>
+      <c r="S49">
         <v>1.95</v>
       </c>
-      <c r="S49">
-        <v>1.85</v>
-      </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z49">
+        <v>0.425</v>
+      </c>
+      <c r="AA49">
         <v>-0.5</v>
       </c>
-      <c r="AA49">
-        <v>0.425</v>
-      </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6809747</v>
+        <v>6809748</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45198.625</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N50">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
+        <v>1.95</v>
+      </c>
+      <c r="S50">
         <v>1.85</v>
       </c>
-      <c r="S50">
-        <v>1.95</v>
-      </c>
       <c r="T50">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y50">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
+        <v>-0.5</v>
+      </c>
+      <c r="AA50">
         <v>0.425</v>
       </c>
-      <c r="AA50">
-        <v>-0.5</v>
-      </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>45199.625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>42</v>
@@ -5170,7 +5170,7 @@
         <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>2.375</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.833</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>3.8</v>
@@ -5446,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.8</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6809750</v>
+        <v>6809753</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,49 +5523,49 @@
         <v>45205.625</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>1.975</v>
@@ -5574,25 +5574,25 @@
         <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6809753</v>
+        <v>6809750</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,49 +5612,49 @@
         <v>45205.625</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>46</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N58">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P58">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
         <v>1.975</v>
@@ -5663,25 +5663,25 @@
         <v>1.825</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>2.7</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6811708</v>
+        <v>6809754</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45206.625</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>0</v>
-      </c>
-      <c r="I60">
-        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>46</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M60">
+        <v>4.2</v>
+      </c>
+      <c r="N60">
+        <v>1.95</v>
+      </c>
+      <c r="O60">
+        <v>3.75</v>
+      </c>
+      <c r="P60">
+        <v>2.9</v>
+      </c>
+      <c r="Q60">
+        <v>-0.25</v>
+      </c>
+      <c r="R60">
+        <v>1.875</v>
+      </c>
+      <c r="S60">
+        <v>1.975</v>
+      </c>
+      <c r="T60">
         <v>3</v>
       </c>
-      <c r="N60">
-        <v>2.4</v>
-      </c>
-      <c r="O60">
-        <v>3.1</v>
-      </c>
-      <c r="P60">
-        <v>2.7</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>1.8</v>
-      </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>2.75</v>
-      </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6809754</v>
+        <v>6811708</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45206.625</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
       </c>
       <c r="K61">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L61">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>36</v>
@@ -5980,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6060,7 +6060,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>1.8</v>
@@ -6149,7 +6149,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6809759</v>
+        <v>6809760</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,49 +6235,49 @@
         <v>45219.625</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M65">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P65">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
         <v>1.775</v>
@@ -6286,7 +6286,7 @@
         <v>2.025</v>
       </c>
       <c r="W65">
-        <v>1.375</v>
+        <v>0.75</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6295,16 +6295,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6809760</v>
+        <v>6809759</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,49 +6324,49 @@
         <v>45219.625</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L66">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N66">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O66">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.775</v>
@@ -6375,7 +6375,7 @@
         <v>2.025</v>
       </c>
       <c r="W66">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6384,16 +6384,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
+        <v>0.3875</v>
+      </c>
+      <c r="AC66">
         <v>-0.5</v>
-      </c>
-      <c r="AB66">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>1.666</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>1.65</v>
@@ -6594,7 +6594,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6772,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -7125,7 +7125,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>2.1</v>
@@ -7214,7 +7214,7 @@
         <v>45227.625</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
         <v>43</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>1.7</v>
@@ -7315,7 +7315,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>2.05</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7484,7 +7484,7 @@
         <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>5.25</v>
@@ -7573,7 +7573,7 @@
         <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>1.95</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6811701</v>
+        <v>6811702</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,55 +7659,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M81">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P81">
+        <v>4.5</v>
+      </c>
+      <c r="Q81">
+        <v>-0.75</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
         <v>2.05</v>
-      </c>
-      <c r="Q81">
-        <v>0.25</v>
-      </c>
-      <c r="R81">
-        <v>1.95</v>
-      </c>
-      <c r="S81">
-        <v>1.85</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7716,19 +7716,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
+        <v>3.5</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
         <v>1.05</v>
       </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6811702</v>
+        <v>6811701</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,55 +7748,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="L82">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N82">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7805,19 +7805,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>45234.5</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
         <v>38</v>
@@ -7929,7 +7929,7 @@
         <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>1.75</v>
@@ -8104,7 +8104,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8196,7 +8196,7 @@
         <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>1.65</v>
@@ -8294,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>3.1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6809776</v>
+        <v>6809779</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
         <v>4</v>
       </c>
       <c r="M89">
+        <v>4.5</v>
+      </c>
+      <c r="N89">
+        <v>1.615</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>4.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.75</v>
+      </c>
+      <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>2.05</v>
+      </c>
+      <c r="V89">
         <v>1.8</v>
       </c>
-      <c r="N89">
-        <v>3.8</v>
-      </c>
-      <c r="O89">
-        <v>4.2</v>
-      </c>
-      <c r="P89">
-        <v>1.7</v>
-      </c>
-      <c r="Q89">
-        <v>0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.9</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
-      </c>
-      <c r="U89">
-        <v>1.925</v>
-      </c>
-      <c r="V89">
-        <v>1.925</v>
-      </c>
       <c r="W89">
-        <v>2.8</v>
+        <v>0.615</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6809779</v>
+        <v>6809776</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L90">
         <v>4</v>
       </c>
       <c r="M90">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N90">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>0.615</v>
+        <v>2.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,16 +8520,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>45241.5</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>3.25</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>1.7</v>
@@ -8727,10 +8727,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8739,7 +8739,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8828,7 +8828,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>1.65</v>
@@ -8905,7 +8905,7 @@
         <v>45242.5</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
         <v>38</v>
@@ -9006,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.7</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6809783</v>
+        <v>6809780</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,13 +9083,13 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -9098,58 +9098,58 @@
         <v>46</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N97">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6809780</v>
+        <v>6809783</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,13 +9172,13 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -9187,58 +9187,58 @@
         <v>45</v>
       </c>
       <c r="K98">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O98">
         <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9353,7 +9353,7 @@
         <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>4.2</v>
@@ -9442,7 +9442,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9451,7 +9451,7 @@
         <v>5</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9531,7 +9531,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9718,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.6</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6809787</v>
+        <v>6809789</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,52 +9795,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L105">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P105">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V105">
         <v>1.8</v>
@@ -9852,13 +9852,13 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>1.2</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6809789</v>
+        <v>6809787</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,52 +9884,52 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K106">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N106">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P106">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V106">
         <v>1.8</v>
@@ -9941,13 +9941,13 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>1.2</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -9985,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>6</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6809791</v>
+        <v>6809788</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,49 +10062,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F108" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" t="s">
         <v>40</v>
       </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>45</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>3.75</v>
+      </c>
+      <c r="M108">
+        <v>1.75</v>
+      </c>
+      <c r="N108">
+        <v>3.75</v>
+      </c>
+      <c r="O108">
+        <v>3.6</v>
+      </c>
+      <c r="P108">
+        <v>1.85</v>
+      </c>
+      <c r="Q108">
+        <v>0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.7</v>
+      </c>
+      <c r="S108">
+        <v>2.2</v>
+      </c>
+      <c r="T108">
         <v>3</v>
-      </c>
-      <c r="J108" t="s">
-        <v>46</v>
-      </c>
-      <c r="K108">
-        <v>1.55</v>
-      </c>
-      <c r="L108">
-        <v>4.333</v>
-      </c>
-      <c r="M108">
-        <v>4.75</v>
-      </c>
-      <c r="N108">
-        <v>1.4</v>
-      </c>
-      <c r="O108">
-        <v>4.75</v>
-      </c>
-      <c r="P108">
-        <v>6</v>
-      </c>
-      <c r="Q108">
-        <v>-1.25</v>
-      </c>
-      <c r="R108">
-        <v>1.875</v>
-      </c>
-      <c r="S108">
-        <v>1.975</v>
-      </c>
-      <c r="T108">
-        <v>3.25</v>
       </c>
       <c r="U108">
         <v>1.975</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809788</v>
+        <v>6809791</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,49 +10151,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M109">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N109">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R109">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
         <v>1.975</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.8500000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>1.909</v>
@@ -10332,7 +10332,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
         <v>1.65</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>1.75</v>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>4.5</v>
@@ -10596,7 +10596,7 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>3</v>
@@ -10786,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>5.25</v>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10955,7 +10955,7 @@
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.5</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>2.05</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
         <v>1.727</v>
@@ -11222,7 +11222,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11231,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>3.1</v>
@@ -11311,7 +11311,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K124">
         <v>1.7</v>
@@ -11575,7 +11575,7 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -11664,7 +11664,7 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11676,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K126">
         <v>1.615</v>
@@ -11765,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11842,7 +11842,7 @@
         <v>45277.5</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
         <v>44</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K128">
         <v>1.333</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>1.6</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811689</v>
+        <v>6809805</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
+        <v>1.825</v>
+      </c>
+      <c r="S130">
+        <v>2.025</v>
+      </c>
+      <c r="T130">
+        <v>3.25</v>
+      </c>
+      <c r="U130">
+        <v>2.05</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="S130">
-        <v>2.05</v>
-      </c>
-      <c r="T130">
-        <v>2.25</v>
-      </c>
-      <c r="U130">
-        <v>1.8</v>
-      </c>
-      <c r="V130">
-        <v>2.05</v>
-      </c>
       <c r="W130">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>1.025</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.8</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
-      <c r="AC130">
-        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6809805</v>
+        <v>6811689</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P131">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
         <v>2.05</v>
       </c>
-      <c r="V131">
-        <v>1.8</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12210,7 +12210,7 @@
         <v>4</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>5.5</v>
@@ -12299,7 +12299,7 @@
         <v>4</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K133">
         <v>3.4</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
         <v>3.2</v>
@@ -12477,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>3.8</v>
@@ -12554,7 +12554,7 @@
         <v>45305.5</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
         <v>43</v>
@@ -12566,7 +12566,7 @@
         <v>5</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12646,7 +12646,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K137">
         <v>3.3</v>
@@ -12732,7 +12732,7 @@
         <v>45310.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>42</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>1.571</v>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -12999,7 +12999,7 @@
         <v>45312.63541666666</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>31</v>
@@ -13011,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
         <v>45</v>
       </c>
       <c r="K142">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M142">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N142">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
         <v>0</v>
-      </c>
-      <c r="I143">
-        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>46</v>
       </c>
       <c r="K143">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="L143">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="N143">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q143">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
         <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K144">
         <v>2.1</v>
@@ -13355,7 +13355,7 @@
         <v>45318.59375</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>1.3</v>
@@ -13634,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13714,7 +13714,7 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2.55</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>3.6</v>
@@ -13892,7 +13892,7 @@
         <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>4</v>
@@ -13990,7 +13990,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>2.75</v>
@@ -14159,7 +14159,7 @@
         <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14168,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14245,7 +14245,7 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
         <v>34</v>
@@ -14257,7 +14257,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>2.2</v>
@@ -14346,7 +14346,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K156">
         <v>1.615</v>
@@ -14435,7 +14435,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>2.8</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7755426</v>
+        <v>7755427</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F158" t="s">
+        <v>37</v>
+      </c>
+      <c r="G158" t="s">
         <v>30</v>
       </c>
-      <c r="G158" t="s">
-        <v>33</v>
-      </c>
       <c r="H158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N158">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P158">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X158">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7755425</v>
+        <v>7755426</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,40 +14601,40 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K159">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
         <v>3.5</v>
       </c>
       <c r="M159">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O159">
         <v>3.5</v>
       </c>
       <c r="P159">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
         <v>1.85</v>
@@ -14646,31 +14646,31 @@
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7755427</v>
+        <v>7755425</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,58 +14690,58 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P160">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>0.5329999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14750,16 +14750,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
         <v>32</v>
@@ -14957,7 +14957,7 @@
         <v>45332.5</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
         <v>42</v>
@@ -14969,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K163">
         <v>1.444</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6809834</v>
+        <v>6809828</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,55 +15046,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15103,16 +15103,16 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB164">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC164">
         <v>-0.5</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6809828</v>
+        <v>6809834</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,55 +15135,55 @@
         <v>45332.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M165">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N165">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P165">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15192,16 +15192,16 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC165">
         <v>-0.5</v>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>2.75</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K167">
         <v>1.222</v>
@@ -15414,7 +15414,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>2.2</v>
@@ -15503,7 +15503,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>2.15</v>
@@ -15592,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K170">
         <v>2.875</v>
@@ -15681,7 +15681,7 @@
         <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K171">
         <v>4.5</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K172">
         <v>1.615</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6809835</v>
+        <v>6811680</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N173">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O173">
         <v>3.5</v>
       </c>
       <c r="P173">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6811680</v>
+        <v>6809835</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>0</v>
-      </c>
-      <c r="I174">
-        <v>4</v>
       </c>
       <c r="J174" t="s">
         <v>46</v>
       </c>
       <c r="K174">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N174">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O174">
         <v>3.5</v>
       </c>
       <c r="P174">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q174">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16028,7 +16028,7 @@
         <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>45340.5</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
         <v>39</v>
@@ -16126,7 +16126,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K176">
         <v>2.375</v>
@@ -16215,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K177">
         <v>3.25</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6809846</v>
+        <v>6809842</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,73 +16292,73 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K178">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M178">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X178">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA178">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6809842</v>
+        <v>6809846</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,73 +16381,73 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N179">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O179">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P179">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB179">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16470,7 +16470,7 @@
         <v>45346.5</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
         <v>37</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K180">
         <v>5</v>
@@ -16660,7 +16660,7 @@
         <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K182">
         <v>1.615</v>
@@ -16740,7 +16740,7 @@
         <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
         <v>3.3</v>
@@ -17016,7 +17016,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K186">
         <v>3.75</v>
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K188">
         <v>2.4</v>
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6809849</v>
+        <v>6811676</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,10 +17271,10 @@
         <v>45353.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>4</v>
@@ -17283,46 +17283,46 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K189">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L189">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="N189">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17331,13 +17331,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6811676</v>
+        <v>6809849</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,10 +17360,10 @@
         <v>45353.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>4</v>
@@ -17372,46 +17372,46 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K190">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M190">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P190">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17420,13 +17420,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17538,7 +17538,7 @@
         <v>45354.5</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
         <v>32</v>
@@ -17550,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K192">
         <v>4.2</v>
@@ -17627,7 +17627,7 @@
         <v>45354.63541666666</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
         <v>35</v>
@@ -17639,7 +17639,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K193">
         <v>1.909</v>
@@ -17721,6 +17721,15 @@
       <c r="G194" t="s">
         <v>42</v>
       </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="s">
+        <v>46</v>
+      </c>
       <c r="K194">
         <v>1.4</v>
       </c>
@@ -17737,16 +17746,16 @@
         <v>5</v>
       </c>
       <c r="P194">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q194">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
         <v>3.25</v>
@@ -17755,22 +17764,28 @@
         <v>2</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB194">
+        <v>-0.5</v>
+      </c>
+      <c r="AC194">
+        <v>0.4</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17795,6 +17810,15 @@
       <c r="G195" t="s">
         <v>34</v>
       </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>47</v>
+      </c>
       <c r="K195">
         <v>2</v>
       </c>
@@ -17805,22 +17829,22 @@
         <v>3.5</v>
       </c>
       <c r="N195">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O195">
         <v>3.75</v>
       </c>
       <c r="P195">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q195">
         <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S195">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
         <v>2.75</v>
@@ -17832,19 +17856,25 @@
         <v>1.925</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB195">
+        <v>0.925</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17882,28 +17912,28 @@
         <v>3.1</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P196">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q196">
         <v>0.25</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17926,7 +17956,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6811674</v>
+        <v>6809858</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17938,46 +17968,46 @@
         <v>45360.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K197">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M197">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="N197">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O197">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R197">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -18000,7 +18030,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6809858</v>
+        <v>6811674</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18012,40 +18042,40 @@
         <v>45360.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K198">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="L198">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M198">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N198">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O198">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S198">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
         <v>1.925</v>
@@ -18086,7 +18116,7 @@
         <v>45361.39583333334</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
         <v>36</v>
@@ -18113,19 +18143,19 @@
         <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S199">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T199">
         <v>3</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W199">
         <v>0</v>
@@ -18196,10 +18226,10 @@
         <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18237,7 +18267,7 @@
         <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K201">
         <v>2.9</v>

--- a/Belgium First Division B/Belgium First Division B.xlsx
+++ b/Belgium First Division B/Belgium First Division B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Belgium First Division B</t>
   </si>
   <si>
-    <t>Anderlecht II</t>
+    <t>Seraing United</t>
   </si>
   <si>
-    <t>Seraing United</t>
+    <t>Anderlecht II</t>
   </si>
   <si>
     <t>Club Brugge II</t>
@@ -151,10 +151,10 @@
     <t>Standard Liege II</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6809709</v>
+        <v>6809710</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6809710</v>
+        <v>6809709</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>3</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>3.1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>2.3</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>2.2</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>4.333</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>1.727</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>1.444</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1352,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>1.8</v>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>1.95</v>
@@ -1610,7 +1610,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2.6</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>2.3</v>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>2.2</v>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>2.375</v>
@@ -2052,7 +2052,7 @@
         <v>45163.625</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2064,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>2.5</v>
@@ -2153,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6809722</v>
+        <v>6809723</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,58 +2230,58 @@
         <v>45164.625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
         <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2296,10 +2296,10 @@
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.5625</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6809723</v>
+        <v>6809722</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45164.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,10 +2385,10 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.5625</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2589,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2675,7 +2675,7 @@
         <v>45170.625</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2945,7 +2945,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>1.833</v>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>1.2</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6809732</v>
+        <v>6811714</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,73 +3387,73 @@
         <v>45184.625</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>45</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
         <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6811714</v>
+        <v>6809732</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45184.625</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>46</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
         <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34">
         <v>0.925</v>
       </c>
-      <c r="AA34">
-        <v>-1</v>
-      </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3565,7 +3565,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>2.5</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3835,7 +3835,7 @@
         <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>2.25</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>1.95</v>
@@ -4277,10 +4277,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
         <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811711</v>
+        <v>6809740</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,34 +4366,34 @@
         <v>45192.625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
         <v>1.727</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P44">
         <v>3.8</v>
@@ -4402,37 +4402,37 @@
         <v>-0.75</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.8</v>
+      </c>
+      <c r="T44">
+        <v>3.25</v>
+      </c>
+      <c r="U44">
         <v>1.95</v>
       </c>
-      <c r="S44">
-        <v>1.9</v>
-      </c>
-      <c r="T44">
-        <v>3</v>
-      </c>
-      <c r="U44">
+      <c r="V44">
         <v>1.85</v>
       </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6809740</v>
+        <v>6811711</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,34 +4455,34 @@
         <v>45192.625</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
         <v>1.727</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
         <v>3.8</v>
@@ -4491,37 +4491,37 @@
         <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4645,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>1.444</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>2.55</v>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>5.5</v>
@@ -5078,7 +5078,7 @@
         <v>45199.625</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>42</v>
@@ -5170,7 +5170,7 @@
         <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>2.375</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>1.833</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>3.8</v>
@@ -5446,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>1.8</v>
@@ -5523,7 +5523,7 @@
         <v>45205.625</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
         <v>37</v>
@@ -5535,7 +5535,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.4</v>
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>2.7</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>1.615</v>
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>2.1</v>
@@ -5980,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6060,7 +6060,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>1.8</v>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6247,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.533</v>
@@ -6336,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>2.45</v>
@@ -6413,7 +6413,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>1.666</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>1.65</v>
@@ -6594,7 +6594,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6811704</v>
+        <v>6809764</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,16 +6947,16 @@
         <v>45226.625</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
@@ -6971,52 +6971,52 @@
         <v>2.625</v>
       </c>
       <c r="N73">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
         <v>1.8</v>
       </c>
-      <c r="V73">
-        <v>2</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6809764</v>
+        <v>6811704</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,16 +7036,16 @@
         <v>45226.625</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
@@ -7060,52 +7060,52 @@
         <v>2.625</v>
       </c>
       <c r="N74">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
+        <v>2.25</v>
+      </c>
+      <c r="U74">
         <v>1.8</v>
       </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>3</v>
-      </c>
-      <c r="U74">
-        <v>2</v>
-      </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>2.1</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6809765</v>
+        <v>6809766</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45227.625</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>3</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L76">
         <v>3.8</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N76">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P76">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
+        <v>1.85</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>1.875</v>
       </c>
-      <c r="V76">
-        <v>1.975</v>
-      </c>
-      <c r="W76">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>-1</v>
-      </c>
       <c r="Z76">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6809766</v>
+        <v>6809765</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45227.625</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>45</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L77">
         <v>3.8</v>
       </c>
       <c r="M77">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N77">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R77">
+        <v>2.025</v>
+      </c>
+      <c r="S77">
         <v>1.825</v>
       </c>
-      <c r="S77">
+      <c r="T77">
+        <v>2.75</v>
+      </c>
+      <c r="U77">
+        <v>1.875</v>
+      </c>
+      <c r="V77">
         <v>1.975</v>
       </c>
-      <c r="T77">
-        <v>3.25</v>
-      </c>
-      <c r="U77">
-        <v>1.95</v>
-      </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>5.25</v>
@@ -7573,7 +7573,7 @@
         <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>1.95</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6811702</v>
+        <v>6811701</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,55 +7659,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="L81">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N81">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7716,19 +7716,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6811701</v>
+        <v>6811702</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,55 +7748,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
+        <v>4.5</v>
+      </c>
+      <c r="Q82">
+        <v>-0.75</v>
+      </c>
+      <c r="R82">
+        <v>1.8</v>
+      </c>
+      <c r="S82">
         <v>2.05</v>
-      </c>
-      <c r="Q82">
-        <v>0.25</v>
-      </c>
-      <c r="R82">
-        <v>1.95</v>
-      </c>
-      <c r="S82">
-        <v>1.85</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7805,19 +7805,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
+        <v>3.5</v>
+      </c>
+      <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
         <v>1.05</v>
       </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>45234.5</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
         <v>38</v>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.75</v>
@@ -8196,7 +8196,7 @@
         <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>1.65</v>
@@ -8294,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>3.1</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>1.615</v>
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>3.5</v>
@@ -8549,7 +8549,7 @@
         <v>45241.5</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>3.25</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6811700</v>
+        <v>6809774</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N92">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
+        <v>1.9</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>2.025</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="S92">
-        <v>1.975</v>
-      </c>
-      <c r="T92">
-        <v>2.75</v>
-      </c>
-      <c r="U92">
-        <v>1.85</v>
-      </c>
-      <c r="V92">
-        <v>1.95</v>
-      </c>
       <c r="W92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6809774</v>
+        <v>6811700</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>45</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N93">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
         <v>3.6</v>
       </c>
-      <c r="P93">
-        <v>1.909</v>
-      </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
+        <v>1.975</v>
+      </c>
+      <c r="T93">
+        <v>2.75</v>
+      </c>
+      <c r="U93">
+        <v>1.85</v>
+      </c>
+      <c r="V93">
         <v>1.95</v>
       </c>
-      <c r="T93">
-        <v>3</v>
-      </c>
-      <c r="U93">
-        <v>2.025</v>
-      </c>
-      <c r="V93">
-        <v>1.825</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.95</v>
-      </c>
-      <c r="AB93">
-        <v>1.025</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8828,7 +8828,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.65</v>
@@ -9006,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>2.7</v>
@@ -9095,7 +9095,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>1.95</v>
@@ -9184,7 +9184,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
         <v>2.05</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>4.2</v>
@@ -9442,7 +9442,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9451,7 +9451,7 @@
         <v>5</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9531,7 +9531,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9718,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>1.6</v>
@@ -9807,7 +9807,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.7</v>
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>1.571</v>
@@ -9985,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>6</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6809788</v>
+        <v>6809791</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,49 +10062,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R108">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
         <v>1.975</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8500000000000001</v>
+        <v>5</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1.2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6809791</v>
+        <v>6809788</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,49 +10151,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>46</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>3.75</v>
+      </c>
+      <c r="M109">
+        <v>1.75</v>
+      </c>
+      <c r="N109">
+        <v>3.75</v>
+      </c>
+      <c r="O109">
+        <v>3.6</v>
+      </c>
+      <c r="P109">
+        <v>1.85</v>
+      </c>
+      <c r="Q109">
+        <v>0.75</v>
+      </c>
+      <c r="R109">
+        <v>1.7</v>
+      </c>
+      <c r="S109">
+        <v>2.2</v>
+      </c>
+      <c r="T109">
         <v>3</v>
-      </c>
-      <c r="J109" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109">
-        <v>1.55</v>
-      </c>
-      <c r="L109">
-        <v>4.333</v>
-      </c>
-      <c r="M109">
-        <v>4.75</v>
-      </c>
-      <c r="N109">
-        <v>1.4</v>
-      </c>
-      <c r="O109">
-        <v>4.75</v>
-      </c>
-      <c r="P109">
-        <v>6</v>
-      </c>
-      <c r="Q109">
-        <v>-1.25</v>
-      </c>
-      <c r="R109">
-        <v>1.875</v>
-      </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
-      <c r="T109">
-        <v>3.25</v>
       </c>
       <c r="U109">
         <v>1.975</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>1.909</v>
@@ -10332,7 +10332,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.65</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6809790</v>
+        <v>7522206</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,49 +10418,49 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N112">
+        <v>4.75</v>
+      </c>
+      <c r="O112">
+        <v>4.333</v>
+      </c>
+      <c r="P112">
         <v>1.5</v>
       </c>
-      <c r="O112">
-        <v>4</v>
-      </c>
-      <c r="P112">
-        <v>5.75</v>
-      </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
         <v>1.9</v>
@@ -10469,7 +10469,7 @@
         <v>1.9</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10478,7 +10478,7 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7522206</v>
+        <v>6809790</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,49 +10507,49 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L113">
+        <v>3.6</v>
+      </c>
+      <c r="M113">
         <v>4</v>
       </c>
-      <c r="M113">
-        <v>1.55</v>
-      </c>
       <c r="N113">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
         <v>1.9</v>
@@ -10558,7 +10558,7 @@
         <v>1.9</v>
       </c>
       <c r="W113">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10567,7 +10567,7 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10596,7 +10596,7 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>3</v>
@@ -10786,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>5.25</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6809796</v>
+        <v>6809792</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10875,44 +10875,44 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N117">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>3</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>3.25</v>
-      </c>
-      <c r="U117">
-        <v>1.95</v>
-      </c>
-      <c r="V117">
-        <v>1.85</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
@@ -10920,19 +10920,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6809792</v>
+        <v>6809796</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,10 +10952,10 @@
         <v>45269.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10964,64 +10964,64 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M118">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N118">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q118">
+        <v>0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <v>3.25</v>
+      </c>
+      <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
+        <v>1.85</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>0.75</v>
+      </c>
+      <c r="Z118">
+        <v>-0.5</v>
+      </c>
+      <c r="AA118">
         <v>0.5</v>
       </c>
-      <c r="R118">
-        <v>1.775</v>
-      </c>
-      <c r="S118">
-        <v>2.025</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>2</v>
-      </c>
-      <c r="V118">
-        <v>1.8</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>1.1</v>
-      </c>
-      <c r="Z118">
-        <v>-1</v>
-      </c>
-      <c r="AA118">
-        <v>1.025</v>
-      </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>2.05</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>1.727</v>
@@ -11231,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>3.1</v>
@@ -11311,7 +11311,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>1.7</v>
@@ -11575,7 +11575,7 @@
         <v>45276.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -11676,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K126">
         <v>1.615</v>
@@ -11765,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>1.333</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>1.6</v>
@@ -12023,7 +12023,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
         <v>2.2</v>
@@ -12210,7 +12210,7 @@
         <v>4</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
         <v>5.5</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6809804</v>
+        <v>6809809</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,56 +12287,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N133">
+        <v>5.25</v>
+      </c>
+      <c r="O133">
         <v>4.2</v>
       </c>
-      <c r="O133">
-        <v>3.8</v>
-      </c>
       <c r="P133">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
+        <v>3</v>
+      </c>
+      <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
-      <c r="U133">
-        <v>1.85</v>
-      </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
@@ -12344,19 +12344,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC133">
-        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6809809</v>
+        <v>6809804</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,56 +12376,56 @@
         <v>45304.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N134">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P134">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q134">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.85</v>
+      </c>
+      <c r="V134">
         <v>1.95</v>
       </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12433,19 +12433,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>3.8</v>
@@ -12554,7 +12554,7 @@
         <v>45305.5</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
         <v>43</v>
@@ -12566,7 +12566,7 @@
         <v>5</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12655,7 +12655,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K137">
         <v>3.3</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>1.571</v>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13011,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6809821</v>
+        <v>6809816</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
         <v>0</v>
-      </c>
-      <c r="I142">
-        <v>4</v>
       </c>
       <c r="J142" t="s">
         <v>45</v>
       </c>
       <c r="K142">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="N142">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q142">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
         <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6809816</v>
+        <v>6809821</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>46</v>
       </c>
       <c r="K143">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M143">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N143">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
         <v>1.825</v>
       </c>
       <c r="W143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K144">
         <v>2.1</v>
@@ -13355,7 +13355,7 @@
         <v>45318.59375</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>1.3</v>
@@ -13634,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2.55</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
         <v>3.6</v>
@@ -13901,7 +13901,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K151">
         <v>4</v>
@@ -13990,7 +13990,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>2.75</v>
@@ -14168,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14245,7 +14245,7 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
         <v>34</v>
@@ -14257,7 +14257,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
         <v>2.2</v>
@@ -14346,7 +14346,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>1.615</v>
@@ -14435,7 +14435,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
         <v>2.8</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7755427</v>
+        <v>7755425</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,58 +14512,58 @@
         <v>45329.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N158">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.9</v>
 